--- a/Documents/Presentation/Charts.xlsx
+++ b/Documents/Presentation/Charts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="43">
   <si>
     <t>Balanced Dataset - dataset_1_balanced_discretized</t>
   </si>
@@ -151,14 +151,17 @@
   <si>
     <t>Rep Tree</t>
   </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -379,7 +382,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -387,32 +390,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -432,41 +417,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,10 +427,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,6 +450,45 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -519,6 +510,46 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -621,22 +652,12 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="95000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -671,22 +692,12 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="95000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -704,7 +715,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -910,11 +920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1016449744"/>
-        <c:axId val="-1268428416"/>
+        <c:axId val="-982766560"/>
+        <c:axId val="-982776896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1016449744"/>
+        <c:axId val="-982766560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,7 +969,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1022,12 +1031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1268428416"/>
+        <c:crossAx val="-982776896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1268428416"/>
+        <c:axId val="-982776896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1074,7 +1083,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1137,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1016449744"/>
+        <c:crossAx val="-982766560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1459,11 +1467,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1054179040"/>
-        <c:axId val="-1042941984"/>
+        <c:axId val="-772188432"/>
+        <c:axId val="-772179184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1054179040"/>
+        <c:axId val="-772188432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1499,7 +1507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1042941984"/>
+        <c:crossAx val="-772179184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1507,7 +1515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1042941984"/>
+        <c:axId val="-772179184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1560,7 +1568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1054179040"/>
+        <c:crossAx val="-772188432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1906,11 +1914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1035697376"/>
-        <c:axId val="-1035696832"/>
+        <c:axId val="-769302272"/>
+        <c:axId val="-769301184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1035697376"/>
+        <c:axId val="-769302272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,7 +1954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1035696832"/>
+        <c:crossAx val="-769301184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1954,7 +1962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1035696832"/>
+        <c:axId val="-769301184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2059,7 +2067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1035697376"/>
+        <c:crossAx val="-769302272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,11 +2380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1057859088"/>
-        <c:axId val="-1057856368"/>
+        <c:axId val="-769306624"/>
+        <c:axId val="-769297376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1057859088"/>
+        <c:axId val="-769306624"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2412,7 +2420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057856368"/>
+        <c:crossAx val="-769297376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2420,7 +2428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1057856368"/>
+        <c:axId val="-769297376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2473,7 +2481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057859088"/>
+        <c:crossAx val="-769306624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2862,11 +2870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1057855824"/>
-        <c:axId val="-1057855280"/>
+        <c:axId val="-769311520"/>
+        <c:axId val="-769300640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1057855824"/>
+        <c:axId val="-769311520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2902,7 +2910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057855280"/>
+        <c:crossAx val="-769300640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2910,7 +2918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1057855280"/>
+        <c:axId val="-769300640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3024,7 +3032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057855824"/>
+        <c:crossAx val="-769311520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3358,11 +3366,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1057861808"/>
-        <c:axId val="-1057861264"/>
+        <c:axId val="-769299552"/>
+        <c:axId val="-769306080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1057861808"/>
+        <c:axId val="-769299552"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3398,7 +3406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057861264"/>
+        <c:crossAx val="-769306080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3406,7 +3414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1057861264"/>
+        <c:axId val="-769306080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3459,7 +3467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057861808"/>
+        <c:crossAx val="-769299552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3848,11 +3856,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1057860720"/>
-        <c:axId val="-1057860176"/>
+        <c:axId val="-769305536"/>
+        <c:axId val="-769300096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1057860720"/>
+        <c:axId val="-769305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057860176"/>
+        <c:crossAx val="-769300096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3896,7 +3904,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1057860176"/>
+        <c:axId val="-769300096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4010,7 +4018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1057860720"/>
+        <c:crossAx val="-769305536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4344,11 +4352,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-872745120"/>
-        <c:axId val="-872746208"/>
+        <c:axId val="-769299008"/>
+        <c:axId val="-769301728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-872745120"/>
+        <c:axId val="-769299008"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4384,7 +4392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-872746208"/>
+        <c:crossAx val="-769301728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4392,7 +4400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-872746208"/>
+        <c:axId val="-769301728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4445,7 +4453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-872745120"/>
+        <c:crossAx val="-769299008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4655,46 +4663,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$249</c:f>
+              <c:f>Sheet1!$A$237:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -4702,48 +4713,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$237:$B$249</c:f>
+              <c:f>Sheet1!$B$237:$B$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.88100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.86</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.81299999999999994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.874</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.83</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88</c:v>
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4804,46 +4818,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$249</c:f>
+              <c:f>Sheet1!$A$237:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -4851,48 +4868,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$237:$C$249</c:f>
+              <c:f>Sheet1!$C$237:$C$250</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.86120000000000008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.70840000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.83660000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.80709999999999993</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.87769999999999992</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="8" formatCode="General">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="9" formatCode="General">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="10" formatCode="General">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.91</c:v>
-                </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.84</c:v>
+                  <c:v>0.89400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.76</c:v>
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4908,11 +4928,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1017277424"/>
-        <c:axId val="-1017273072"/>
+        <c:axId val="-769309888"/>
+        <c:axId val="-769309344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1017277424"/>
+        <c:axId val="-769309888"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4954,7 +4974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1017273072"/>
+        <c:crossAx val="-769309344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4962,7 +4982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1017273072"/>
+        <c:axId val="-769309344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +5086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1017277424"/>
+        <c:crossAx val="-769309888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5305,77 +5325,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$246</c:f>
+              <c:f>Sheet1!$A$237:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$237:$B$246</c:f>
+              <c:f>Sheet1!$B$237:$B$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.88100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.86</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.81299999999999994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.874</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.88</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.87</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5436,77 +5480,101 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$246</c:f>
+              <c:f>Sheet1!$A$237:$A$250</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$237:$C$246</c:f>
+              <c:f>Sheet1!$C$237:$C$250</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.86120000000000008</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.70840000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.83660000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.80709999999999993</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.87769999999999992</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="General">
+                <c:pt idx="8" formatCode="General">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="General">
+                <c:pt idx="9" formatCode="General">
                   <c:v>0.54</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="General">
+                <c:pt idx="10" formatCode="General">
                   <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,11 +5590,11 @@
         </c:dLbls>
         <c:gapWidth val="135"/>
         <c:overlap val="-30"/>
-        <c:axId val="-1042938176"/>
-        <c:axId val="-1042938720"/>
+        <c:axId val="-770499776"/>
+        <c:axId val="-770509568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1042938176"/>
+        <c:axId val="-770499776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5568,7 +5636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1042938720"/>
+        <c:crossAx val="-770509568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5576,7 +5644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1042938720"/>
+        <c:axId val="-770509568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5680,7 +5748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1042938176"/>
+        <c:crossAx val="-770499776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5869,11 +5937,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$267</c:f>
+              <c:f>Sheet1!$B$268</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unbalanced Dataset</c:v>
+                  <c:v>0.876</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5919,7 +5987,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$268:$A$280</c:f>
+              <c:f>Sheet1!$A$269:$A$281</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -5966,7 +6034,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$268:$B$280</c:f>
+              <c:f>Sheet1!$B$269:$B$281</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6001,13 +6069,13 @@
                   <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.3</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.3</c:v>
+                  <c:v>0.86199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.86899999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6018,11 +6086,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$267</c:f>
+              <c:f>Sheet1!$C$268</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Balanced Dataset</c:v>
+                  <c:v>0.953</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6068,7 +6136,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$268:$A$280</c:f>
+              <c:f>Sheet1!$A$269:$A$281</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -6115,7 +6183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$268:$C$280</c:f>
+              <c:f>Sheet1!$C$269:$C$281</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6153,10 +6221,10 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.82</c:v>
+                  <c:v>0.79800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.73</c:v>
+                  <c:v>0.76600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6172,11 +6240,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1031314912"/>
-        <c:axId val="-1031309472"/>
+        <c:axId val="-770504128"/>
+        <c:axId val="-770510112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1031314912"/>
+        <c:axId val="-770504128"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6218,7 +6286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031309472"/>
+        <c:crossAx val="-770510112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6226,7 +6294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031309472"/>
+        <c:axId val="-770510112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6330,7 +6398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031314912"/>
+        <c:crossAx val="-770504128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6566,7 +6634,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6772,11 +6839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1038539120"/>
-        <c:axId val="-1031164688"/>
+        <c:axId val="-982771456"/>
+        <c:axId val="-982770912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1038539120"/>
+        <c:axId val="-982771456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6821,7 +6888,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6884,12 +6950,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031164688"/>
+        <c:crossAx val="-982770912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1031164688"/>
+        <c:axId val="-982770912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -6936,7 +7002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6999,7 +7064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1038539120"/>
+        <c:crossAx val="-982771456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -7168,11 +7233,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$267</c:f>
+              <c:f>Sheet1!$B$268</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unbalanced Dataset</c:v>
+                  <c:v>0.876</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7218,7 +7283,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$268:$A$277</c:f>
+              <c:f>Sheet1!$A$269:$A$278</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7256,7 +7321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$268:$B$277</c:f>
+              <c:f>Sheet1!$B$269:$B$278</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7299,11 +7364,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$267</c:f>
+              <c:f>Sheet1!$C$268</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Balanced Dataset</c:v>
+                  <c:v>0.953</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7349,7 +7414,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$268:$A$277</c:f>
+              <c:f>Sheet1!$A$269:$A$278</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -7387,7 +7452,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$268:$C$277</c:f>
+              <c:f>Sheet1!$C$269:$C$278</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7435,11 +7500,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-943421248"/>
-        <c:axId val="-943420704"/>
+        <c:axId val="-770501408"/>
+        <c:axId val="-770499232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-943421248"/>
+        <c:axId val="-770501408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7481,7 +7546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943420704"/>
+        <c:crossAx val="-770499232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7489,7 +7554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-943420704"/>
+        <c:axId val="-770499232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7593,7 +7658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943421248"/>
+        <c:crossAx val="-770501408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7782,11 +7847,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$297</c:f>
+              <c:f>Sheet1!$B$298</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unbalanced Dataset</c:v>
+                  <c:v>0.687</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7832,7 +7897,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$310</c:f>
+              <c:f>Sheet1!$A$299:$A$311</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -7879,7 +7944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$298:$B$310</c:f>
+              <c:f>Sheet1!$B$299:$B$311</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7914,13 +7979,13 @@
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.39</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.35</c:v>
+                  <c:v>0.64300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.33</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7931,11 +7996,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$297</c:f>
+              <c:f>Sheet1!$C$298</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Balanced Dataset</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7981,7 +8046,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$310</c:f>
+              <c:f>Sheet1!$A$299:$A$311</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -8028,7 +8093,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$298:$C$310</c:f>
+              <c:f>Sheet1!$C$299:$C$311</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8063,13 +8128,13 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.06</c:v>
+                  <c:v>0.91300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>0.09</c:v>
+                  <c:v>0.88500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>0.13</c:v>
+                  <c:v>0.84199999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8085,11 +8150,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-873421072"/>
-        <c:axId val="-873420528"/>
+        <c:axId val="-770495968"/>
+        <c:axId val="-770495424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-873421072"/>
+        <c:axId val="-770495968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8131,7 +8196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873420528"/>
+        <c:crossAx val="-770495424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8139,7 +8204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-873420528"/>
+        <c:axId val="-770495424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8243,7 +8308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873421072"/>
+        <c:crossAx val="-770495968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8442,11 +8507,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$297</c:f>
+              <c:f>Sheet1!$B$298</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unbalanced Dataset</c:v>
+                  <c:v>0.687</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8492,7 +8557,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$307</c:f>
+              <c:f>Sheet1!$A$299:$A$308</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -8530,7 +8595,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$298:$B$307</c:f>
+              <c:f>Sheet1!$B$299:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8573,11 +8638,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$297</c:f>
+              <c:f>Sheet1!$C$298</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Balanced Dataset</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8623,7 +8688,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$307</c:f>
+              <c:f>Sheet1!$A$299:$A$308</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -8661,7 +8726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$298:$C$307</c:f>
+              <c:f>Sheet1!$C$299:$C$308</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8709,11 +8774,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-873419984"/>
-        <c:axId val="-873426512"/>
+        <c:axId val="-770503040"/>
+        <c:axId val="-770500320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-873419984"/>
+        <c:axId val="-770503040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8755,7 +8820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873426512"/>
+        <c:crossAx val="-770500320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8763,7 +8828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-873426512"/>
+        <c:axId val="-770500320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8867,7 +8932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873419984"/>
+        <c:crossAx val="-770503040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9106,46 +9171,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$344:$A$356</c:f>
+              <c:f>Sheet1!$A$344:$A$357</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -9153,30 +9221,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$344:$B$356</c:f>
+              <c:f>Sheet1!$B$344:$B$357</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.90300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.88400000000000001</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.88300000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.89300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.89200000000000002</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.89300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9237,46 +9326,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$344:$A$356</c:f>
+              <c:f>Sheet1!$A$344:$A$357</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -9284,30 +9376,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$344:$C$356</c:f>
+              <c:f>Sheet1!$C$344:$C$357</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.84899999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.76100000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.83699999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.88500000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.81100000000000005</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70599999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9323,11 +9436,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-865495344"/>
-        <c:axId val="-863260272"/>
+        <c:axId val="-770496512"/>
+        <c:axId val="-770494880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-865495344"/>
+        <c:axId val="-770496512"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9369,7 +9482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863260272"/>
+        <c:crossAx val="-770494880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9377,7 +9490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-863260272"/>
+        <c:axId val="-770494880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9481,7 +9594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-865495344"/>
+        <c:crossAx val="-770496512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9720,46 +9833,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$375:$A$387</c:f>
+              <c:f>Sheet1!$A$375:$A$388</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -9767,30 +9883,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$375:$B$387</c:f>
+              <c:f>Sheet1!$B$375:$B$388</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.877</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.86499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.86899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.873</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.874</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9851,46 +9988,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$375:$A$387</c:f>
+              <c:f>Sheet1!$A$375:$A$388</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -9898,30 +10038,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$375:$C$387</c:f>
+              <c:f>Sheet1!$C$375:$C$388</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.86299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.86899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.84099999999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.86199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.82399999999999995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9937,11 +10098,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-863260816"/>
-        <c:axId val="-863256464"/>
+        <c:axId val="-770506848"/>
+        <c:axId val="-770506304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-863260816"/>
+        <c:axId val="-770506848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9983,7 +10144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863256464"/>
+        <c:crossAx val="-770506304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9991,7 +10152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-863256464"/>
+        <c:axId val="-770506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10095,7 +10256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-863260816"/>
+        <c:crossAx val="-770506848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10334,46 +10495,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$405:$A$417</c:f>
+              <c:f>Sheet1!$A$405:$A$418</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -10381,30 +10545,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$405:$B$417</c:f>
+              <c:f>Sheet1!$B$405:$B$418</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.63300000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.67400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.71699999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.72699999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.69699999999999995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.71399999999999997</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10465,46 +10650,49 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$405:$A$417</c:f>
+              <c:f>Sheet1!$A$405:$A$418</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Logistic Regression </c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AdaBoost</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LogitBoost</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Bagging</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>SVM c10k</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>SVM c100k</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>SVM c1000k</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -10512,30 +10700,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$405:$C$417</c:f>
+              <c:f>Sheet1!$C$405:$C$418</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.90400000000000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.91200000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.71599999999999997</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.73399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.60099999999999998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.72</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84599999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10551,11 +10760,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1015458144"/>
-        <c:axId val="-1015457600"/>
+        <c:axId val="-770504672"/>
+        <c:axId val="-771610352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1015458144"/>
+        <c:axId val="-770504672"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10597,7 +10806,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1015457600"/>
+        <c:crossAx val="-771610352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10605,7 +10814,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1015457600"/>
+        <c:axId val="-771610352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10709,7 +10918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1015458144"/>
+        <c:crossAx val="-770504672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10848,7 +11057,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11092,11 +11300,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1031311104"/>
-        <c:axId val="-1031313280"/>
+        <c:axId val="-982767648"/>
+        <c:axId val="-1082903360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1031311104"/>
+        <c:axId val="-982767648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11179,7 +11387,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11240,7 +11447,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031313280"/>
+        <c:crossAx val="-1082903360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11248,7 +11455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031313280"/>
+        <c:axId val="-1082903360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -11305,7 +11512,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11364,7 +11570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031311104"/>
+        <c:crossAx val="-982767648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11378,7 +11584,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11713,11 +11918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1060157440"/>
-        <c:axId val="-1060155808"/>
+        <c:axId val="-772178096"/>
+        <c:axId val="-772187888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1060157440"/>
+        <c:axId val="-772178096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11760,7 +11965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060155808"/>
+        <c:crossAx val="-772187888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11768,7 +11973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060155808"/>
+        <c:axId val="-772187888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11819,7 +12024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060157440"/>
+        <c:crossAx val="-772178096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11978,22 +12183,12 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="window" lastClr="FFFFFF">
                     <a:lumMod val="95000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -12126,7 +12321,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -12215,11 +12409,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1060125680"/>
-        <c:axId val="-1060121328"/>
+        <c:axId val="-772180816"/>
+        <c:axId val="-772177008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1060125680"/>
+        <c:axId val="-772180816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12255,7 +12449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060121328"/>
+        <c:crossAx val="-772177008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12263,7 +12457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1060121328"/>
+        <c:axId val="-772177008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12368,7 +12562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1060125680"/>
+        <c:crossAx val="-772180816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12613,7 +12807,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:delete val="1"/>
-            <c:extLst/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -12702,11 +12895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1031163600"/>
-        <c:axId val="-1031161968"/>
+        <c:axId val="-772182448"/>
+        <c:axId val="-772191152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1031163600"/>
+        <c:axId val="-772182448"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12742,7 +12935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031161968"/>
+        <c:crossAx val="-772191152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12750,7 +12943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1031161968"/>
+        <c:axId val="-772191152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12803,7 +12996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1031163600"/>
+        <c:crossAx val="-772182448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13180,11 +13373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-873635744"/>
-        <c:axId val="-873635200"/>
+        <c:axId val="-772186256"/>
+        <c:axId val="-772187344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-873635744"/>
+        <c:axId val="-772186256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13220,7 +13413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873635200"/>
+        <c:crossAx val="-772187344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13228,7 +13421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-873635200"/>
+        <c:axId val="-772187344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13342,7 +13535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-873635744"/>
+        <c:crossAx val="-772186256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13664,11 +13857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1055547424"/>
-        <c:axId val="-1055542528"/>
+        <c:axId val="-772179728"/>
+        <c:axId val="-772191696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1055547424"/>
+        <c:axId val="-772179728"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -13704,7 +13897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055542528"/>
+        <c:crossAx val="-772191696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13712,7 +13905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1055542528"/>
+        <c:axId val="-772191696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13765,7 +13958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055547424"/>
+        <c:crossAx val="-772179728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14142,11 +14335,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1054177952"/>
-        <c:axId val="-1054177408"/>
+        <c:axId val="-772185712"/>
+        <c:axId val="-772185168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1054177952"/>
+        <c:axId val="-772185712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14182,7 +14375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1054177408"/>
+        <c:crossAx val="-772185168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14190,7 +14383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1054177408"/>
+        <c:axId val="-772185168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14304,7 +14497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1054177952"/>
+        <c:crossAx val="-772185712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28300,13 +28493,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28332,13 +28525,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>371</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>396</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28364,13 +28557,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>401</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>426</xdr:row>
+      <xdr:row>425</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28658,25 +28851,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N417"/>
+  <dimension ref="A1:O418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B413" sqref="B413"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C406" sqref="C406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="49"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -28690,7 +28883,7 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>68.8</v>
       </c>
     </row>
@@ -28698,7 +28891,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="5">
         <v>70.349999999999994</v>
       </c>
     </row>
@@ -28706,7 +28899,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>74.56</v>
       </c>
     </row>
@@ -28714,7 +28907,7 @@
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="5">
         <v>77.95</v>
       </c>
     </row>
@@ -28722,7 +28915,7 @@
       <c r="A8" s="2">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>78.89</v>
       </c>
     </row>
@@ -28730,7 +28923,7 @@
       <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="5">
         <v>79.12</v>
       </c>
     </row>
@@ -28738,7 +28931,7 @@
       <c r="A10" s="2">
         <v>13</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>79.16</v>
       </c>
     </row>
@@ -28746,22 +28939,22 @@
       <c r="A11" s="2">
         <v>15</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>79.16</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="49"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="51"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -28775,7 +28968,7 @@
       <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="4">
         <v>89.57</v>
       </c>
     </row>
@@ -28783,7 +28976,7 @@
       <c r="A25" s="2">
         <v>3</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="4">
         <v>90.03</v>
       </c>
     </row>
@@ -28791,7 +28984,7 @@
       <c r="A26" s="2">
         <v>5</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="4">
         <v>88</v>
       </c>
     </row>
@@ -28799,7 +28992,7 @@
       <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28807,7 +29000,7 @@
       <c r="A28" s="2">
         <v>9</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28815,7 +29008,7 @@
       <c r="A29" s="2">
         <v>11</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28823,7 +29016,7 @@
       <c r="A30" s="2">
         <v>13</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28831,22 +29024,22 @@
       <c r="A31" s="2">
         <v>15</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="49"/>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="51"/>
     </row>
     <row r="39" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -28863,10 +29056,10 @@
       <c r="A40" s="2">
         <v>1</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="5">
         <v>68.8</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="4">
         <v>89.57</v>
       </c>
     </row>
@@ -28874,10 +29067,10 @@
       <c r="A41" s="2">
         <v>3</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="5">
         <v>70.349999999999994</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="4">
         <v>90.03</v>
       </c>
     </row>
@@ -28885,10 +29078,10 @@
       <c r="A42" s="2">
         <v>5</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="5">
         <v>74.56</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="4">
         <v>88</v>
       </c>
     </row>
@@ -28896,10 +29089,10 @@
       <c r="A43" s="2">
         <v>7</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="5">
         <v>77.95</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28907,10 +29100,10 @@
       <c r="A44" s="2">
         <v>9</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="5">
         <v>78.89</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28918,10 +29111,10 @@
       <c r="A45" s="2">
         <v>11</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="5">
         <v>79.12</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28929,10 +29122,10 @@
       <c r="A46" s="2">
         <v>13</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="5">
         <v>79.16</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="4">
         <v>86</v>
       </c>
     </row>
@@ -28940,29 +29133,29 @@
       <c r="A47" s="2">
         <v>15</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="5">
         <v>79.16</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -28980,13 +29173,13 @@
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="3">
         <v>0.90019199999999999</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="3">
         <v>0.91514600000000002</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="3">
         <v>0.89441700000000002</v>
       </c>
     </row>
@@ -29020,20 +29213,20 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="49"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="51"/>
     </row>
     <row r="66" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -29091,26 +29284,26 @@
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="20"/>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="34"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="23" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="24"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="27" t="s">
         <v>1</v>
       </c>
@@ -29126,41 +29319,41 @@
       <c r="H74" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J74" s="13" t="s">
+      <c r="J74" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K74" s="13" t="s">
+      <c r="K74" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="26"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
       <c r="G75" s="28"/>
       <c r="H75" s="28"/>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J75" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="29"/>
@@ -29168,400 +29361,400 @@
       <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="16">
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="17">
+      <c r="B77" s="11">
         <v>85.5</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="11">
         <v>86.12</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="11">
         <v>70.84</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="11">
         <v>83.66</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="11">
         <v>79</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G77" s="11">
         <v>80.709999999999994</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H77" s="11">
         <v>87.77</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="11">
         <v>0.87</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J77" s="11">
         <v>0.87</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K77" s="11">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="17">
+      <c r="B78" s="11">
         <v>0.874</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="11">
         <v>0.879</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="11">
         <v>0.753</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="11">
         <v>0.84099999999999997</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="11">
         <v>0.81</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G78" s="11">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H78" s="11">
         <v>0.89</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="11">
         <v>0.05</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J78" s="11">
         <v>0.03</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K78" s="11">
         <v>0.26</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
+      <c r="A79" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="17">
+      <c r="B79" s="11">
         <v>0.91200000000000003</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="11">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D79" s="17">
+      <c r="D79" s="11">
         <v>0.68100000000000005</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="11">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="11">
         <v>0.70699999999999996</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G79" s="11">
         <v>0.71499999999999997</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H79" s="11">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I79" s="11">
         <v>0.67</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="11">
         <v>0.63</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K79" s="11">
         <v>0.69</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="30"/>
-      <c r="B81" s="31" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="16">
         <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="33">
+      <c r="B83" s="16">
         <v>0.86120000000000008</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="32" t="s">
+      <c r="A84" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="33">
+      <c r="B84" s="16">
         <v>0.70840000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="32" t="s">
+      <c r="A85" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="33">
+      <c r="B85" s="16">
         <v>0.83660000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="16">
         <v>0.79</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="32" t="s">
+      <c r="A87" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="33">
+      <c r="B87" s="16">
         <v>0.80709999999999993</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="32" t="s">
+      <c r="A88" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="33">
+      <c r="B88" s="16">
         <v>0.87769999999999992</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="33">
+      <c r="B89" s="16">
         <v>0.87</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="33">
+      <c r="B90" s="16">
         <v>0.87</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="32" t="s">
+      <c r="A91" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="33">
+      <c r="B91" s="16">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="30"/>
-      <c r="B98" s="17" t="s">
+      <c r="A98" s="13"/>
+      <c r="B98" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="11">
         <v>0.874</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="11">
         <v>0.879</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="32" t="s">
+      <c r="A101" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="11">
         <v>0.753</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="32" t="s">
+      <c r="A102" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B102" s="11">
         <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="32" t="s">
+      <c r="A103" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="11">
         <v>0.81</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="32" t="s">
+      <c r="A104" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="11">
         <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="11">
         <v>0.89</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="32" t="s">
+      <c r="A106" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="11">
         <v>0.05</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="32" t="s">
+      <c r="A107" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="32" t="s">
+      <c r="A108" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="11">
         <v>0.26</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="30"/>
-      <c r="B116" s="17" t="s">
+      <c r="A116" s="13"/>
+      <c r="B116" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="31" t="s">
+      <c r="A117" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="11">
         <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="31" t="s">
+      <c r="A118" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="11">
         <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="32" t="s">
+      <c r="A119" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="11">
         <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="32" t="s">
+      <c r="A120" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="11">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="11">
         <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="32" t="s">
+      <c r="A122" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="11">
         <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="32" t="s">
+      <c r="A123" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="11">
         <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="32" t="s">
+      <c r="A124" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="11">
         <v>0.67</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="32" t="s">
+      <c r="A125" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="11">
         <v>0.63</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="32" t="s">
+      <c r="A126" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="11">
         <v>0.69</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="20"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="34"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
-      <c r="B133" s="23" t="s">
+      <c r="A133" s="35"/>
+      <c r="B133" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="24"/>
+      <c r="C133" s="45"/>
       <c r="D133" s="27" t="s">
         <v>1</v>
       </c>
@@ -29577,41 +29770,41 @@
       <c r="H133" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I133" s="13" t="s">
+      <c r="I133" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J133" s="13" t="s">
+      <c r="J133" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K133" s="13" t="s">
+      <c r="K133" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="22"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="26"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="47"/>
       <c r="D134" s="28"/>
       <c r="E134" s="28"/>
       <c r="F134" s="28"/>
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
-      <c r="I134" s="14" t="s">
+      <c r="I134" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J134" s="14" t="s">
+      <c r="J134" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K134" s="14" t="s">
+      <c r="K134" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D135" s="29"/>
@@ -29619,35 +29812,35 @@
       <c r="F135" s="29"/>
       <c r="G135" s="29"/>
       <c r="H135" s="29"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="16">
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="10">
         <v>1000000</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B136" s="34">
+      <c r="B136" s="17">
         <v>0.90538799999999997</v>
       </c>
-      <c r="C136" s="34">
+      <c r="C136" s="17">
         <v>0.86765499999999995</v>
       </c>
-      <c r="D136" s="34">
+      <c r="D136" s="17">
         <v>0.79294200000000004</v>
       </c>
-      <c r="E136" s="34">
+      <c r="E136" s="17">
         <v>0.89562600000000003</v>
       </c>
-      <c r="F136" s="34">
+      <c r="F136" s="17">
         <v>0.89299799999999996</v>
       </c>
-      <c r="G136" s="34">
+      <c r="G136" s="17">
         <v>0.89400000000000002</v>
       </c>
-      <c r="H136" s="34">
+      <c r="H136" s="17">
         <v>0.90407400000000004</v>
       </c>
       <c r="I136" s="1"/>
@@ -29655,28 +29848,28 @@
       <c r="K136" s="1"/>
     </row>
     <row r="137" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="17">
+      <c r="B137" s="11">
         <v>0.88100000000000001</v>
       </c>
-      <c r="C137" s="17">
+      <c r="C137" s="11">
         <v>0.86</v>
       </c>
-      <c r="D137" s="17">
+      <c r="D137" s="11">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E137" s="17">
+      <c r="E137" s="11">
         <v>0.874</v>
       </c>
-      <c r="F137" s="17">
+      <c r="F137" s="11">
         <v>0.873</v>
       </c>
-      <c r="G137" s="17">
+      <c r="G137" s="11">
         <v>0.873</v>
       </c>
-      <c r="H137" s="17">
+      <c r="H137" s="11">
         <v>0.88</v>
       </c>
       <c r="I137" s="1"/>
@@ -29684,28 +29877,28 @@
       <c r="K137" s="1"/>
     </row>
     <row r="138" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="17">
+      <c r="B138" s="11">
         <v>0.63500000000000001</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="11">
         <v>0.64800000000000002</v>
       </c>
-      <c r="D138" s="17">
+      <c r="D138" s="11">
         <v>0.69599999999999995</v>
       </c>
-      <c r="E138" s="17">
+      <c r="E138" s="11">
         <v>0.73099999999999998</v>
       </c>
-      <c r="F138" s="17">
+      <c r="F138" s="11">
         <v>0.70699999999999996</v>
       </c>
-      <c r="G138" s="17">
+      <c r="G138" s="11">
         <v>0.72399999999999998</v>
       </c>
-      <c r="H138" s="17">
+      <c r="H138" s="11">
         <v>0.71</v>
       </c>
       <c r="I138" s="1"/>
@@ -29714,256 +29907,256 @@
     </row>
     <row r="140" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="141" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="30"/>
-      <c r="B141" s="31" t="s">
+      <c r="A141" s="13"/>
+      <c r="B141" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="31" t="s">
+      <c r="A142" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B142" s="34">
+      <c r="B142" s="17">
         <v>0.90538799999999997</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="31" t="s">
+      <c r="A143" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B143" s="34">
+      <c r="B143" s="17">
         <v>0.86765499999999995</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="32" t="s">
+      <c r="A144" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="34">
+      <c r="B144" s="17">
         <v>0.79294200000000004</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="32" t="s">
+      <c r="A145" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="34">
+      <c r="B145" s="17">
         <v>0.89562600000000003</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="32" t="s">
+      <c r="A146" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B146" s="34">
+      <c r="B146" s="17">
         <v>0.89299799999999996</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="32" t="s">
+      <c r="A147" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B147" s="34">
+      <c r="B147" s="17">
         <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="32" t="s">
+      <c r="A148" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B148" s="34">
+      <c r="B148" s="17">
         <v>0.90407400000000004</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="32" t="s">
+      <c r="A149" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B149" s="33"/>
+      <c r="B149" s="16"/>
     </row>
     <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="32" t="s">
+      <c r="A150" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B150" s="33"/>
+      <c r="B150" s="16"/>
     </row>
     <row r="151" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B151" s="33"/>
+      <c r="B151" s="16"/>
     </row>
     <row r="165" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="166" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="30"/>
-      <c r="B166" s="17" t="s">
+      <c r="A166" s="13"/>
+      <c r="B166" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="31" t="s">
+      <c r="A167" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="17">
+      <c r="B167" s="11">
         <v>0.874</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="31" t="s">
+      <c r="A168" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B168" s="17">
+      <c r="B168" s="11">
         <v>0.879</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="32" t="s">
+      <c r="A169" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="17">
+      <c r="B169" s="11">
         <v>0.753</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="32" t="s">
+      <c r="A170" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="17">
+      <c r="B170" s="11">
         <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="32" t="s">
+      <c r="A171" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="17">
+      <c r="B171" s="11">
         <v>0.81</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="32" t="s">
+      <c r="A172" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B172" s="17">
+      <c r="B172" s="11">
         <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="32" t="s">
+      <c r="A173" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B173" s="17">
+      <c r="B173" s="11">
         <v>0.89</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="32" t="s">
+      <c r="A174" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B174" s="17">
+      <c r="B174" s="11">
         <v>0.05</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="32" t="s">
+      <c r="A175" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="17">
+      <c r="B175" s="11">
         <v>0.03</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="32" t="s">
+      <c r="A176" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B176" s="17">
+      <c r="B176" s="11">
         <v>0.26</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="187" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="30"/>
-      <c r="B187" s="17" t="s">
+      <c r="A187" s="13"/>
+      <c r="B187" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="31" t="s">
+      <c r="A188" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B188" s="17">
+      <c r="B188" s="11">
         <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="31" t="s">
+      <c r="A189" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B189" s="17">
+      <c r="B189" s="11">
         <v>0.92600000000000005</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="17">
+      <c r="B190" s="11">
         <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="32" t="s">
+      <c r="A191" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B191" s="17">
+      <c r="B191" s="11">
         <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="32" t="s">
+      <c r="A192" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="17">
+      <c r="B192" s="11">
         <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="32" t="s">
+      <c r="A193" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B193" s="17">
+      <c r="B193" s="11">
         <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="32" t="s">
+      <c r="A194" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B194" s="17">
+      <c r="B194" s="11">
         <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="32" t="s">
+      <c r="A195" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B195" s="17">
+      <c r="B195" s="11">
         <v>0.67</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="32" t="s">
+      <c r="A196" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B196" s="17">
+      <c r="B196" s="11">
         <v>0.63</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B197" s="17">
+      <c r="B197" s="11">
         <v>0.69</v>
       </c>
     </row>
@@ -29971,1802 +30164,2089 @@
     <row r="206" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="207" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="208" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:14" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="218" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="18" t="s">
+    <row r="209" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="218" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B218" s="19"/>
-      <c r="C218" s="19"/>
-      <c r="D218" s="19"/>
-      <c r="E218" s="19"/>
-      <c r="F218" s="19"/>
-      <c r="G218" s="19"/>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="19"/>
-      <c r="K218" s="20"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="33"/>
+      <c r="J218" s="33"/>
+      <c r="K218" s="34"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A219" s="21"/>
-      <c r="B219" s="23" t="s">
+    <row r="219" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="35"/>
+      <c r="B219" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C219" s="24"/>
-      <c r="D219" s="27" t="s">
+      <c r="D219" s="45"/>
+      <c r="E219" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E219" s="27" t="s">
+      <c r="F219" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F219" s="27" t="s">
+      <c r="G219" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G219" s="27" t="s">
+      <c r="H219" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H219" s="27" t="s">
+      <c r="I219" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I219" s="37" t="s">
+      <c r="J219" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J219" s="37" t="s">
+      <c r="K219" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K219" s="37" t="s">
+      <c r="L219" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L219" s="27" t="s">
+      <c r="M219" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M219" s="27" t="s">
+      <c r="N219" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N219" s="27" t="s">
+      <c r="O219" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="22"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="28"/>
+    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="36"/>
+      <c r="B220" s="55"/>
+      <c r="C220" s="46"/>
+      <c r="D220" s="47"/>
       <c r="E220" s="28"/>
       <c r="F220" s="28"/>
       <c r="G220" s="28"/>
       <c r="H220" s="28"/>
-      <c r="I220" s="38" t="s">
+      <c r="I220" s="28"/>
+      <c r="J220" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J220" s="38" t="s">
+      <c r="K220" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K220" s="38" t="s">
+      <c r="L220" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L220" s="28"/>
       <c r="M220" s="28"/>
       <c r="N220" s="28"/>
+      <c r="O220" s="28"/>
     </row>
-    <row r="221" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
-      <c r="B221" s="17" t="s">
+      <c r="B221" s="1"/>
+      <c r="C221" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="D221" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D221" s="29"/>
       <c r="E221" s="29"/>
       <c r="F221" s="29"/>
       <c r="G221" s="29"/>
       <c r="H221" s="29"/>
-      <c r="I221" s="15"/>
-      <c r="J221" s="15"/>
-      <c r="K221" s="39">
+      <c r="I221" s="29"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="12"/>
+      <c r="L221" s="26">
         <v>1000000</v>
       </c>
-      <c r="L221" s="29"/>
       <c r="M221" s="29"/>
       <c r="N221" s="29"/>
+      <c r="O221" s="29"/>
     </row>
-    <row r="222" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="17" t="s">
+    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B222" s="17">
+      <c r="B222" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="C222" s="11">
         <v>85.5</v>
       </c>
-      <c r="C222" s="17">
+      <c r="D222" s="11">
         <v>86.12</v>
       </c>
-      <c r="D222" s="17">
+      <c r="E222" s="11">
         <v>70.84</v>
       </c>
-      <c r="E222" s="17">
+      <c r="F222" s="11">
         <v>83.66</v>
       </c>
-      <c r="F222" s="17">
+      <c r="G222" s="11">
         <v>79</v>
       </c>
-      <c r="G222" s="17">
+      <c r="H222" s="11">
         <v>80.709999999999994</v>
       </c>
-      <c r="H222" s="17">
+      <c r="I222" s="11">
         <v>87.77</v>
       </c>
-      <c r="I222" s="40">
+      <c r="J222" s="23">
         <v>0.39</v>
       </c>
-      <c r="J222" s="40">
+      <c r="K222" s="23">
         <v>0.54</v>
       </c>
-      <c r="K222" s="40">
+      <c r="L222" s="23">
         <v>0.62</v>
       </c>
-      <c r="L222" s="17">
-        <v>0.91</v>
-      </c>
-      <c r="M222" s="17">
-        <v>0.84</v>
-      </c>
-      <c r="N222" s="17">
-        <v>0.76</v>
+      <c r="M222" s="11">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="N222" s="11">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="O222" s="11">
+        <v>0.71</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="17" t="s">
+    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B223" s="17">
+      <c r="B223" s="23">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C223" s="11">
         <v>0.874</v>
       </c>
-      <c r="C223" s="17">
+      <c r="D223" s="11">
         <v>0.879</v>
       </c>
-      <c r="D223" s="17">
+      <c r="E223" s="11">
         <v>0.753</v>
       </c>
-      <c r="E223" s="17">
+      <c r="F223" s="11">
         <v>0.84099999999999997</v>
       </c>
-      <c r="F223" s="17">
+      <c r="G223" s="11">
         <v>0.81</v>
       </c>
-      <c r="G223" s="17">
+      <c r="H223" s="11">
         <v>0.82099999999999995</v>
       </c>
-      <c r="H223" s="17">
+      <c r="I223" s="11">
         <v>0.89</v>
       </c>
-      <c r="I223" s="40">
+      <c r="J223" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J223" s="40">
+      <c r="K223" s="23">
         <v>0.49</v>
       </c>
-      <c r="K223" s="40">
+      <c r="L223" s="23">
         <v>0.49</v>
       </c>
-      <c r="L223" s="17">
+      <c r="M223" s="11">
         <v>0.9</v>
       </c>
-      <c r="M223" s="17">
-        <v>0.82</v>
-      </c>
-      <c r="N223" s="17">
-        <v>0.73</v>
+      <c r="N223" s="11">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="O223" s="11">
+        <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="17" t="s">
+    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="17">
+      <c r="B224" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="C224" s="11">
         <v>0.91200000000000003</v>
       </c>
-      <c r="C224" s="17">
+      <c r="D224" s="11">
         <v>0.92600000000000005</v>
       </c>
-      <c r="D224" s="17">
+      <c r="E224" s="11">
         <v>0.68100000000000005</v>
       </c>
-      <c r="E224" s="17">
+      <c r="F224" s="11">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F224" s="17">
+      <c r="G224" s="11">
         <v>0.70699999999999996</v>
       </c>
-      <c r="G224" s="17">
+      <c r="H224" s="11">
         <v>0.71499999999999997</v>
       </c>
-      <c r="H224" s="17">
+      <c r="I224" s="11">
         <v>0.93200000000000005</v>
       </c>
-      <c r="I224" s="40">
+      <c r="J224" s="23">
         <v>0.61</v>
       </c>
-      <c r="J224" s="40">
+      <c r="K224" s="23">
         <v>0.59</v>
       </c>
-      <c r="K224" s="40">
+      <c r="L224" s="23">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L224" s="17">
-        <v>0.06</v>
-      </c>
-      <c r="M224" s="17">
-        <v>0.09</v>
-      </c>
-      <c r="N224" s="17">
-        <v>0.13</v>
+      <c r="M224" s="11">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N224" s="11">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="O224" s="11">
+        <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="227" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="18" t="s">
+    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B227" s="19"/>
-      <c r="C227" s="19"/>
-      <c r="D227" s="19"/>
-      <c r="E227" s="19"/>
-      <c r="F227" s="19"/>
-      <c r="G227" s="19"/>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="19"/>
-      <c r="K227" s="20"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="33"/>
+      <c r="J227" s="33"/>
+      <c r="K227" s="34"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A228" s="21"/>
-      <c r="B228" s="23" t="s">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A228" s="35"/>
+      <c r="B228" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C228" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C228" s="24"/>
-      <c r="D228" s="27" t="s">
+      <c r="D228" s="45"/>
+      <c r="E228" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E228" s="27" t="s">
+      <c r="F228" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F228" s="27" t="s">
+      <c r="G228" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G228" s="27" t="s">
+      <c r="H228" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H228" s="27" t="s">
+      <c r="I228" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I228" s="37" t="s">
+      <c r="J228" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J228" s="37" t="s">
+      <c r="K228" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K228" s="37" t="s">
+      <c r="L228" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L228" s="27" t="s">
+      <c r="M228" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M228" s="27" t="s">
+      <c r="N228" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N228" s="27" t="s">
+      <c r="O228" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="22"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="28"/>
+    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="36"/>
+      <c r="B229" s="55"/>
+      <c r="C229" s="46"/>
+      <c r="D229" s="47"/>
       <c r="E229" s="28"/>
       <c r="F229" s="28"/>
       <c r="G229" s="28"/>
       <c r="H229" s="28"/>
-      <c r="I229" s="38" t="s">
+      <c r="I229" s="28"/>
+      <c r="J229" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J229" s="38" t="s">
+      <c r="K229" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K229" s="38" t="s">
+      <c r="L229" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L229" s="28"/>
       <c r="M229" s="28"/>
       <c r="N229" s="28"/>
+      <c r="O229" s="28"/>
     </row>
-    <row r="230" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
-      <c r="B230" s="17" t="s">
+      <c r="B230" s="1"/>
+      <c r="C230" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="D230" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="29"/>
       <c r="E230" s="29"/>
       <c r="F230" s="29"/>
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
-      <c r="I230" s="15"/>
-      <c r="J230" s="15"/>
-      <c r="K230" s="39">
+      <c r="I230" s="29"/>
+      <c r="J230" s="9"/>
+      <c r="K230" s="9"/>
+      <c r="L230" s="22">
         <v>1000000</v>
       </c>
-      <c r="L230" s="29"/>
       <c r="M230" s="29"/>
       <c r="N230" s="29"/>
+      <c r="O230" s="29"/>
     </row>
-    <row r="231" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="17" t="s">
+    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="34">
+      <c r="B231" s="23">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C231" s="17">
         <v>0.90538799999999997</v>
       </c>
-      <c r="C231" s="34">
+      <c r="D231" s="17">
         <v>0.86765499999999995</v>
       </c>
-      <c r="D231" s="34">
+      <c r="E231" s="17">
         <v>0.79294200000000004</v>
       </c>
-      <c r="E231" s="34">
+      <c r="F231" s="17">
         <v>0.89562600000000003</v>
       </c>
-      <c r="F231" s="34">
+      <c r="G231" s="17">
         <v>0.89299799999999996</v>
       </c>
-      <c r="G231" s="34">
+      <c r="H231" s="17">
         <v>0.89400000000000002</v>
       </c>
-      <c r="H231" s="34">
+      <c r="I231" s="17">
         <v>0.90407400000000004</v>
       </c>
-      <c r="I231" s="40">
+      <c r="J231" s="23">
         <v>0.73</v>
       </c>
-      <c r="J231" s="40">
+      <c r="K231" s="23">
         <v>0.87</v>
       </c>
-      <c r="K231" s="40">
+      <c r="L231" s="23">
         <v>0.88</v>
       </c>
-      <c r="L231" s="40">
-        <v>0.83</v>
-      </c>
-      <c r="M231" s="40">
-        <v>0.87</v>
-      </c>
-      <c r="N231" s="40">
+      <c r="M231" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="N231" s="23">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="O231" s="23">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="23">
+        <v>0.876</v>
+      </c>
+      <c r="C232" s="11">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="D232" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="E232" s="11">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F232" s="11">
+        <v>0.874</v>
+      </c>
+      <c r="G232" s="11">
+        <v>0.873</v>
+      </c>
+      <c r="H232" s="11">
+        <v>0.873</v>
+      </c>
+      <c r="I232" s="11">
         <v>0.88</v>
       </c>
+      <c r="J232" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="K232" s="23">
+        <v>2E-3</v>
+      </c>
+      <c r="L232" s="23">
+        <v>0.17</v>
+      </c>
+      <c r="M232" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="N232" s="23">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="O232" s="23">
+        <v>0.86899999999999999</v>
+      </c>
     </row>
-    <row r="232" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" s="17">
+    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B233" s="23">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C233" s="11">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D233" s="11">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E233" s="11">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F233" s="11">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G233" s="11">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H233" s="11">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="I233" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="J233" s="23">
+        <v>0.67</v>
+      </c>
+      <c r="K233" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="L233" s="23">
+        <v>0.63</v>
+      </c>
+      <c r="M233" s="23">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="N233" s="23">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="O233" s="23">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B235" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" s="31"/>
+    </row>
+    <row r="236" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="13"/>
+      <c r="B236" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B237" s="23">
+        <f>B231</f>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C237" s="23">
+        <f>B222</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B238" s="11">
         <v>0.88100000000000001</v>
       </c>
-      <c r="C232" s="17">
+      <c r="C238" s="16">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B239" s="11">
         <v>0.86</v>
       </c>
-      <c r="D232" s="17">
+      <c r="C239" s="16">
+        <v>0.86120000000000008</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="11">
         <v>0.81299999999999994</v>
       </c>
-      <c r="E232" s="17">
+      <c r="C240" s="16">
+        <v>0.70840000000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241" s="11">
         <v>0.874</v>
       </c>
-      <c r="F232" s="17">
-        <v>0.873</v>
-      </c>
-      <c r="G232" s="17">
-        <v>0.873</v>
-      </c>
-      <c r="H232" s="17">
-        <v>0.88</v>
-      </c>
-      <c r="I232" s="40">
-        <v>0.24</v>
-      </c>
-      <c r="J232" s="40">
-        <v>2E-3</v>
-      </c>
-      <c r="K232" s="40">
-        <v>0.17</v>
-      </c>
-      <c r="L232" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="M232" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="N232" s="40">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B233" s="17">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="C233" s="17">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="D233" s="17">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="E233" s="17">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="F233" s="17">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="G233" s="17">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="H233" s="17">
-        <v>0.71</v>
-      </c>
-      <c r="I233" s="40">
-        <v>0.67</v>
-      </c>
-      <c r="J233" s="40">
-        <v>0.65</v>
-      </c>
-      <c r="K233" s="40">
-        <v>0.63</v>
-      </c>
-      <c r="L233" s="40">
-        <v>0.39</v>
-      </c>
-      <c r="M233" s="40">
-        <v>0.35</v>
-      </c>
-      <c r="N233" s="40">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C235" s="36"/>
-    </row>
-    <row r="236" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="30"/>
-      <c r="B236" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C236" s="31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B237" s="17">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="C237" s="33">
-        <v>0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B238" s="17">
-        <v>0.86</v>
-      </c>
-      <c r="C238" s="33">
-        <v>0.86120000000000008</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B239" s="17">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="C239" s="33">
-        <v>0.70840000000000003</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A240" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B240" s="17">
-        <v>0.874</v>
-      </c>
-      <c r="C240" s="33">
+      <c r="C241" s="16">
         <v>0.83660000000000001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B241" s="17">
-        <v>0.873</v>
-      </c>
-      <c r="C241" s="33">
-        <v>0.79</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A242" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B242" s="17">
+      <c r="A242" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="11">
         <v>0.873</v>
       </c>
-      <c r="C242" s="33">
-        <v>0.80709999999999993</v>
+      <c r="C242" s="16">
+        <v>0.79</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B243" s="17">
-        <v>0.88</v>
-      </c>
-      <c r="C243" s="33">
-        <v>0.87769999999999992</v>
+      <c r="A243" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B243" s="11">
+        <v>0.873</v>
+      </c>
+      <c r="C243" s="16">
+        <v>0.80709999999999993</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B244" s="40">
-        <v>0.73</v>
-      </c>
-      <c r="C244" s="40">
-        <v>0.39</v>
+      <c r="A244" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B244" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="C244" s="16">
+        <v>0.87769999999999992</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="32" t="s">
+      <c r="A245" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B245" s="23">
+        <v>0.73</v>
+      </c>
+      <c r="C245" s="23">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B245" s="40">
+      <c r="B246" s="23">
         <v>0.87</v>
       </c>
-      <c r="C245" s="40">
+      <c r="C246" s="23">
         <v>0.54</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="32" t="s">
+    <row r="247" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B246" s="40">
+      <c r="B247" s="23">
         <v>0.88</v>
       </c>
-      <c r="C246" s="40">
+      <c r="C247" s="23">
         <v>0.62</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B247" s="40">
-        <v>0.83</v>
-      </c>
-      <c r="C247" s="17">
-        <v>0.91</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B248" s="40">
-        <v>0.87</v>
-      </c>
-      <c r="C248" s="17">
+      <c r="A248" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B248" s="23">
         <v>0.84</v>
+      </c>
+      <c r="C248" s="11">
+        <f>M222</f>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="13" t="s">
+      <c r="A249" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B249" s="23">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C249" s="11">
+        <f>N222</f>
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B249" s="40">
-        <v>0.88</v>
-      </c>
-      <c r="C249" s="17">
-        <v>0.76</v>
+      <c r="B250" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C250" s="11">
+        <f>O222</f>
+        <v>0.71</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="35" t="s">
+      <c r="B266" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C266" s="36"/>
+      <c r="C266" s="31"/>
     </row>
     <row r="267" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="30"/>
-      <c r="B267" s="31" t="s">
+      <c r="A267" s="13"/>
+      <c r="B267" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C267" s="31" t="s">
+      <c r="C267" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="31" t="s">
+      <c r="A268" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B268" s="14">
+        <f>B232</f>
+        <v>0.876</v>
+      </c>
+      <c r="C268" s="14">
+        <f>B223</f>
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B268" s="34">
+      <c r="B269" s="17">
         <v>0.90538799999999997</v>
       </c>
-      <c r="C268" s="17">
+      <c r="C269" s="11">
         <v>0.874</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="31" t="s">
+    <row r="270" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B269" s="34">
+      <c r="B270" s="17">
         <v>0.86765499999999995</v>
       </c>
-      <c r="C269" s="17">
+      <c r="C270" s="11">
         <v>0.879</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="32" t="s">
+    <row r="271" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B270" s="34">
+      <c r="B271" s="17">
         <v>0.79294200000000004</v>
       </c>
-      <c r="C270" s="17">
+      <c r="C271" s="11">
         <v>0.753</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="32" t="s">
+    <row r="272" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B271" s="34">
+      <c r="B272" s="17">
         <v>0.89562600000000003</v>
       </c>
-      <c r="C271" s="17">
+      <c r="C272" s="11">
         <v>0.84099999999999997</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B272" s="34">
-        <v>0.89299799999999996</v>
-      </c>
-      <c r="C272" s="17">
-        <v>0.81</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A273" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B273" s="34">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="C273" s="17">
-        <v>0.82099999999999995</v>
+      <c r="A273" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="17">
+        <v>0.89299799999999996</v>
+      </c>
+      <c r="C273" s="11">
+        <v>0.81</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B274" s="34">
-        <v>0.90407400000000004</v>
-      </c>
-      <c r="C274" s="17">
-        <v>0.89</v>
+      <c r="A274" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B274" s="17">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C274" s="11">
+        <v>0.82099999999999995</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B275" s="40">
-        <v>0.24</v>
-      </c>
-      <c r="C275" s="40">
-        <v>0.56000000000000005</v>
+      <c r="A275" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="17">
+        <v>0.90407400000000004</v>
+      </c>
+      <c r="C275" s="11">
+        <v>0.89</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="32" t="s">
+      <c r="A276" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B276" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="C276" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B276" s="40">
+      <c r="B277" s="23">
         <v>2E-3</v>
       </c>
-      <c r="C276" s="40">
+      <c r="C277" s="23">
         <v>0.49</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="32" t="s">
+    <row r="278" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B277" s="40">
+      <c r="B278" s="23">
         <v>0.17</v>
       </c>
-      <c r="C277" s="40">
+      <c r="C278" s="23">
         <v>0.49</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B278" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="C278" s="17">
-        <v>0.9</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B279" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="C279" s="17">
-        <v>0.82</v>
+      <c r="A279" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B279" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="C279" s="11">
+        <v>0.9</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="13" t="s">
+      <c r="A280" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B280" s="23">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C280" s="11">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B280" s="40">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C280" s="17">
-        <v>0.73</v>
+      <c r="B281" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C281" s="11">
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="35" t="s">
+      <c r="B296" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C296" s="36"/>
+      <c r="C296" s="31"/>
     </row>
     <row r="297" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="30"/>
-      <c r="B297" s="31" t="s">
+      <c r="A297" s="13"/>
+      <c r="B297" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C297" s="31" t="s">
+      <c r="C297" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="31" t="s">
+      <c r="A298" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B298" s="14">
+        <f>B233</f>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="C298" s="14">
+        <f>B224</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B298" s="34">
+      <c r="B299" s="17">
         <v>0.90538799999999997</v>
       </c>
-      <c r="C298" s="33">
+      <c r="C299" s="16">
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="31" t="s">
+    <row r="300" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B299" s="34">
+      <c r="B300" s="17">
         <v>0.86765499999999995</v>
       </c>
-      <c r="C299" s="33">
+      <c r="C300" s="16">
         <v>0.86120000000000008</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="32" t="s">
+    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B300" s="34">
+      <c r="B301" s="17">
         <v>0.79294200000000004</v>
       </c>
-      <c r="C300" s="33">
+      <c r="C301" s="16">
         <v>0.70840000000000003</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="32" t="s">
+    <row r="302" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B301" s="34">
+      <c r="B302" s="17">
         <v>0.89562600000000003</v>
       </c>
-      <c r="C301" s="33">
+      <c r="C302" s="16">
         <v>0.83660000000000001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B302" s="34">
-        <v>0.89299799999999996</v>
-      </c>
-      <c r="C302" s="33">
-        <v>0.79</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B303" s="34">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="C303" s="33">
-        <v>0.80709999999999993</v>
+      <c r="A303" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" s="17">
+        <v>0.89299799999999996</v>
+      </c>
+      <c r="C303" s="16">
+        <v>0.79</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B304" s="34">
-        <v>0.90407400000000004</v>
-      </c>
-      <c r="C304" s="33">
-        <v>0.87769999999999992</v>
+      <c r="A304" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B304" s="17">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C304" s="16">
+        <v>0.80709999999999993</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B305" s="40">
-        <v>0.67</v>
-      </c>
-      <c r="C305" s="40">
-        <v>0.61</v>
+      <c r="A305" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B305" s="17">
+        <v>0.90407400000000004</v>
+      </c>
+      <c r="C305" s="16">
+        <v>0.87769999999999992</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="32" t="s">
+      <c r="A306" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B306" s="23">
+        <v>0.67</v>
+      </c>
+      <c r="C306" s="23">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B306" s="40">
+      <c r="B307" s="23">
         <v>0.65</v>
       </c>
-      <c r="C306" s="40">
+      <c r="C307" s="23">
         <v>0.59</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="32" t="s">
+    <row r="308" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B307" s="40">
+      <c r="B308" s="23">
         <v>0.63</v>
       </c>
-      <c r="C307" s="40">
+      <c r="C308" s="23">
         <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B308" s="40">
-        <v>0.39</v>
-      </c>
-      <c r="C308" s="17">
-        <v>0.06</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B309" s="40">
-        <v>0.35</v>
-      </c>
-      <c r="C309" s="17">
-        <v>0.09</v>
+      <c r="A309" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B309" s="23">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="C309" s="11">
+        <v>0.91300000000000003</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="13" t="s">
+      <c r="A310" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B310" s="23">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C310" s="11">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B310" s="40">
-        <v>0.33</v>
-      </c>
-      <c r="C310" s="17">
-        <v>0.13</v>
+      <c r="B311" s="23">
+        <v>0.65</v>
+      </c>
+      <c r="C311" s="11">
+        <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="324" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="325" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="18" t="s">
+    <row r="323" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="324" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B325" s="19"/>
-      <c r="C325" s="19"/>
-      <c r="D325" s="19"/>
-      <c r="E325" s="19"/>
-      <c r="F325" s="19"/>
-      <c r="G325" s="19"/>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="19"/>
-      <c r="K325" s="19"/>
-      <c r="L325" s="19"/>
-      <c r="M325" s="19"/>
-      <c r="N325" s="20"/>
+      <c r="B324" s="33"/>
+      <c r="C324" s="33"/>
+      <c r="D324" s="33"/>
+      <c r="E324" s="33"/>
+      <c r="F324" s="33"/>
+      <c r="G324" s="33"/>
+      <c r="H324" s="33"/>
+      <c r="I324" s="33"/>
+      <c r="J324" s="33"/>
+      <c r="K324" s="33"/>
+      <c r="L324" s="33"/>
+      <c r="M324" s="33"/>
+      <c r="N324" s="33"/>
+      <c r="O324" s="34"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A326" s="21"/>
-      <c r="B326" s="41" t="s">
+    <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="35"/>
+      <c r="B325" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C325" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C326" s="42"/>
-      <c r="D326" s="45" t="s">
+      <c r="D325" s="38"/>
+      <c r="E325" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E326" s="45" t="s">
+      <c r="F325" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F326" s="45" t="s">
+      <c r="G325" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G326" s="45" t="s">
+      <c r="H325" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="H326" s="45" t="s">
+      <c r="I325" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="I326" s="37" t="s">
+      <c r="J325" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J326" s="37" t="s">
+      <c r="K325" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K326" s="37" t="s">
+      <c r="L325" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L326" s="27" t="s">
+      <c r="M325" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M326" s="27" t="s">
+      <c r="N325" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N326" s="27" t="s">
+      <c r="O325" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="327" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="22"/>
-      <c r="B327" s="43"/>
-      <c r="C327" s="44"/>
-      <c r="D327" s="46"/>
-      <c r="E327" s="46"/>
-      <c r="F327" s="46"/>
-      <c r="G327" s="46"/>
-      <c r="H327" s="46"/>
-      <c r="I327" s="38" t="s">
+    <row r="326" spans="1:15" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="36"/>
+      <c r="B326" s="43"/>
+      <c r="C326" s="39"/>
+      <c r="D326" s="40"/>
+      <c r="E326" s="42"/>
+      <c r="F326" s="42"/>
+      <c r="G326" s="42"/>
+      <c r="H326" s="42"/>
+      <c r="I326" s="42"/>
+      <c r="J326" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J327" s="38" t="s">
+      <c r="K326" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K327" s="38" t="s">
+      <c r="L326" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L327" s="28"/>
-      <c r="M327" s="28"/>
-      <c r="N327" s="28"/>
+      <c r="M326" s="28"/>
+      <c r="N326" s="28"/>
+      <c r="O326" s="28"/>
     </row>
-    <row r="328" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="1"/>
-      <c r="B328" s="40" t="s">
+    <row r="327" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C328" s="40" t="s">
+      <c r="D327" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D328" s="47"/>
-      <c r="E328" s="47"/>
-      <c r="F328" s="47"/>
-      <c r="G328" s="47"/>
-      <c r="H328" s="47"/>
-      <c r="I328" s="15"/>
-      <c r="J328" s="15"/>
-      <c r="K328" s="39">
+      <c r="E327" s="43"/>
+      <c r="F327" s="43"/>
+      <c r="G327" s="43"/>
+      <c r="H327" s="43"/>
+      <c r="I327" s="43"/>
+      <c r="J327" s="12"/>
+      <c r="K327" s="12"/>
+      <c r="L327" s="26">
         <v>1000000</v>
       </c>
-      <c r="L328" s="29"/>
-      <c r="M328" s="29"/>
-      <c r="N328" s="29"/>
+      <c r="M327" s="29"/>
+      <c r="N327" s="29"/>
+      <c r="O327" s="29"/>
     </row>
-    <row r="329" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="40" t="s">
+    <row r="328" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B329" s="40">
+      <c r="B328" s="23">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C328" s="23">
         <v>0.84</v>
       </c>
-      <c r="C329" s="40">
+      <c r="D328" s="23">
         <v>0.84899999999999998</v>
       </c>
-      <c r="D329" s="40">
+      <c r="E328" s="23">
         <v>0.76100000000000001</v>
       </c>
-      <c r="E329" s="40">
+      <c r="F328" s="23">
         <v>0.83699999999999997</v>
       </c>
-      <c r="F329" s="40">
+      <c r="G328" s="23">
         <v>0.88500000000000001</v>
       </c>
-      <c r="G329" s="40">
+      <c r="H328" s="23">
         <v>0.81100000000000005</v>
       </c>
-      <c r="H329" s="40">
+      <c r="I328" s="23">
         <v>0.95</v>
       </c>
-      <c r="I329" s="1"/>
+      <c r="J328" s="1"/>
+      <c r="K328" s="1"/>
+      <c r="L328" s="1"/>
+      <c r="M328" s="23">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="N328" s="23">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="O328" s="23">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" s="23">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C329" s="23">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="D329" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E329" s="23">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="F329" s="23">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="G329" s="23">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="H329" s="23">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I329" s="23">
+        <v>0.95</v>
+      </c>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
-      <c r="M329" s="1"/>
-      <c r="N329" s="1"/>
+      <c r="M329" s="23">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N329" s="23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="O329" s="23">
+        <v>0.75600000000000001</v>
+      </c>
     </row>
-    <row r="330" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B330" s="37">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="C330" s="37">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="D330" s="37">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="E330" s="37">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="F330" s="37">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="G330" s="37">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="H330" s="37">
-        <v>0.95</v>
-      </c>
-      <c r="I330" s="12"/>
-      <c r="J330" s="12"/>
-      <c r="K330" s="12"/>
-      <c r="L330" s="12"/>
-      <c r="M330" s="12"/>
-      <c r="N330" s="12"/>
+    <row r="330" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B330" s="23">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="C330" s="23">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D330" s="23">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E330" s="23">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F330" s="23">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G330" s="23">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H330" s="23">
+        <v>0.72</v>
+      </c>
+      <c r="I330" s="23">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J330" s="1"/>
+      <c r="K330" s="1"/>
+      <c r="L330" s="1"/>
+      <c r="M330" s="23">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N330" s="23">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="O330" s="23">
+        <v>0.84599999999999997</v>
+      </c>
     </row>
-    <row r="331" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B331" s="40">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="C331" s="40">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="D331" s="40">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="E331" s="40">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="F331" s="40">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="G331" s="40">
-        <v>0.72</v>
-      </c>
-      <c r="H331" s="40">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="I331" s="1"/>
-      <c r="J331" s="1"/>
-      <c r="K331" s="1"/>
-      <c r="L331" s="1"/>
-      <c r="M331" s="1"/>
-      <c r="N331" s="1"/>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A331" s="57"/>
     </row>
-    <row r="332" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="333" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="18" t="s">
+    <row r="332" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="57"/>
+    </row>
+    <row r="333" spans="1:15" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B333" s="19"/>
-      <c r="C333" s="19"/>
-      <c r="D333" s="19"/>
-      <c r="E333" s="19"/>
-      <c r="F333" s="19"/>
-      <c r="G333" s="19"/>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="19"/>
-      <c r="K333" s="19"/>
-      <c r="L333" s="19"/>
-      <c r="M333" s="19"/>
-      <c r="N333" s="20"/>
+      <c r="B333" s="33"/>
+      <c r="C333" s="33"/>
+      <c r="D333" s="33"/>
+      <c r="E333" s="33"/>
+      <c r="F333" s="33"/>
+      <c r="G333" s="33"/>
+      <c r="H333" s="33"/>
+      <c r="I333" s="33"/>
+      <c r="J333" s="33"/>
+      <c r="K333" s="33"/>
+      <c r="L333" s="33"/>
+      <c r="M333" s="33"/>
+      <c r="N333" s="33"/>
+      <c r="O333" s="34"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A334" s="21"/>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A334" s="35"/>
       <c r="B334" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C334" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C334" s="42"/>
-      <c r="D334" s="45" t="s">
+      <c r="D334" s="38"/>
+      <c r="E334" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E334" s="45" t="s">
+      <c r="F334" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F334" s="45" t="s">
+      <c r="G334" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G334" s="45" t="s">
+      <c r="H334" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="H334" s="37" t="s">
+      <c r="I334" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I334" s="37" t="s">
+      <c r="J334" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J334" s="37" t="s">
+      <c r="K334" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="K334" s="37" t="s">
+      <c r="L334" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L334" s="27" t="s">
+      <c r="M334" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M334" s="27" t="s">
+      <c r="N334" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="N334" s="27" t="s">
+      <c r="O334" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="335" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="22"/>
+    <row r="335" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="36"/>
       <c r="B335" s="43"/>
-      <c r="C335" s="44"/>
-      <c r="D335" s="46"/>
-      <c r="E335" s="46"/>
-      <c r="F335" s="46"/>
-      <c r="G335" s="46"/>
-      <c r="H335" s="38" t="s">
+      <c r="C335" s="39"/>
+      <c r="D335" s="40"/>
+      <c r="E335" s="42"/>
+      <c r="F335" s="42"/>
+      <c r="G335" s="42"/>
+      <c r="H335" s="42"/>
+      <c r="I335" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I335" s="38" t="s">
+      <c r="J335" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J335" s="38" t="s">
+      <c r="K335" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K335" s="38" t="s">
+      <c r="L335" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L335" s="28"/>
       <c r="M335" s="28"/>
       <c r="N335" s="28"/>
+      <c r="O335" s="28"/>
     </row>
-    <row r="336" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
-      <c r="B336" s="40" t="s">
+      <c r="B336" s="1"/>
+      <c r="C336" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C336" s="40" t="s">
+      <c r="D336" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D336" s="47"/>
-      <c r="E336" s="47"/>
-      <c r="F336" s="47"/>
-      <c r="G336" s="47"/>
-      <c r="H336" s="15"/>
-      <c r="I336" s="15"/>
-      <c r="J336" s="15"/>
-      <c r="K336" s="39">
+      <c r="E336" s="43"/>
+      <c r="F336" s="43"/>
+      <c r="G336" s="43"/>
+      <c r="H336" s="43"/>
+      <c r="I336" s="12"/>
+      <c r="J336" s="12"/>
+      <c r="K336" s="12"/>
+      <c r="L336" s="26">
         <v>1000000</v>
       </c>
-      <c r="L336" s="29"/>
       <c r="M336" s="29"/>
       <c r="N336" s="29"/>
+      <c r="O336" s="29"/>
     </row>
-    <row r="337" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="40" t="s">
+    <row r="337" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B337" s="40">
+      <c r="B337" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="C337" s="23">
         <v>0.90300000000000002</v>
       </c>
-      <c r="C337" s="40">
+      <c r="D337" s="23">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D337" s="40">
+      <c r="E337" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="E337" s="40">
+      <c r="F337" s="23">
         <v>0.89300000000000002</v>
       </c>
-      <c r="F337" s="40">
+      <c r="G337" s="23">
         <v>0.89200000000000002</v>
       </c>
-      <c r="G337" s="40">
+      <c r="H337" s="23">
         <v>0.89300000000000002</v>
       </c>
-      <c r="H337" s="40">
+      <c r="I337" s="23">
         <v>0.90100000000000002</v>
       </c>
-      <c r="I337" s="1"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
-      <c r="M337" s="1"/>
-      <c r="N337" s="1"/>
+      <c r="M337" s="23">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="N337" s="23">
+        <v>0.874</v>
+      </c>
+      <c r="O337" s="23">
+        <v>0.89200000000000002</v>
+      </c>
     </row>
-    <row r="338" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="40" t="s">
+    <row r="338" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B338" s="40">
+      <c r="B338" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C338" s="23">
         <v>0.877</v>
       </c>
-      <c r="C338" s="40">
+      <c r="D338" s="23">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D338" s="40">
+      <c r="E338" s="23">
         <v>0.86899999999999999</v>
       </c>
-      <c r="E338" s="40">
+      <c r="F338" s="23">
         <v>0.873</v>
       </c>
-      <c r="F338" s="40">
+      <c r="G338" s="23">
         <v>0.873</v>
       </c>
-      <c r="G338" s="40">
+      <c r="H338" s="23">
         <v>0.874</v>
       </c>
-      <c r="H338" s="40">
+      <c r="I338" s="23">
         <v>0.876</v>
       </c>
-      <c r="I338" s="1"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
-      <c r="M338" s="1"/>
-      <c r="N338" s="1"/>
+      <c r="M338" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="N338" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="O338" s="23">
+        <v>0.871</v>
+      </c>
     </row>
-    <row r="339" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="40" t="s">
+    <row r="339" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B339" s="40">
+      <c r="B339" s="23">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C339" s="23">
         <v>0.63300000000000001</v>
       </c>
-      <c r="C339" s="40">
+      <c r="D339" s="23">
         <v>0.67400000000000004</v>
       </c>
-      <c r="D339" s="40">
+      <c r="E339" s="23">
         <v>0.71699999999999997</v>
       </c>
-      <c r="E339" s="40">
+      <c r="F339" s="23">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F339" s="40">
+      <c r="G339" s="23">
         <v>0.69699999999999995</v>
       </c>
-      <c r="G339" s="40">
+      <c r="H339" s="23">
         <v>0.71399999999999997</v>
       </c>
-      <c r="H339" s="40">
+      <c r="I339" s="23">
         <v>0.70799999999999996</v>
       </c>
-      <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
-      <c r="N339" s="1"/>
+      <c r="M339" s="23">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N339" s="23">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="O339" s="23">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
-    <row r="342" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="35" t="s">
+    <row r="342" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B342" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C342" s="36"/>
+      <c r="C342" s="31"/>
     </row>
-    <row r="343" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="30"/>
-      <c r="B343" s="31" t="s">
+    <row r="343" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="13"/>
+      <c r="B343" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C343" s="31" t="s">
+      <c r="C343" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="31" t="s">
+    <row r="344" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B344" s="14">
+        <f>B337</f>
+        <v>0.89</v>
+      </c>
+      <c r="C344" s="14">
+        <f>B328</f>
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B344" s="40">
+      <c r="B345" s="23">
         <v>0.90300000000000002</v>
       </c>
-      <c r="C344" s="40">
+      <c r="C345" s="23">
         <v>0.84</v>
       </c>
     </row>
-    <row r="345" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="31" t="s">
+    <row r="346" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B345" s="40">
+      <c r="B346" s="23">
         <v>0.88400000000000001</v>
       </c>
-      <c r="C345" s="40">
+      <c r="C346" s="23">
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="346" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="32" t="s">
+    <row r="347" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B346" s="40">
+      <c r="B347" s="23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="C346" s="40">
+      <c r="C347" s="23">
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="32" t="s">
+    <row r="348" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B347" s="40">
+      <c r="B348" s="23">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C347" s="40">
+      <c r="C348" s="23">
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="32" t="s">
+    <row r="349" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B348" s="40">
+      <c r="B349" s="23">
         <v>0.89200000000000002</v>
       </c>
-      <c r="C348" s="40">
+      <c r="C349" s="23">
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="32" t="s">
+    <row r="350" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B349" s="40">
+      <c r="B350" s="23">
         <v>0.89300000000000002</v>
       </c>
-      <c r="C349" s="40">
+      <c r="C350" s="23">
         <v>0.81100000000000005</v>
       </c>
     </row>
-    <row r="350" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="32" t="s">
+    <row r="351" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B350" s="40">
+      <c r="B351" s="23">
         <v>0.90100000000000002</v>
       </c>
-      <c r="C350" s="40">
+      <c r="C351" s="23">
         <v>0.95</v>
       </c>
     </row>
-    <row r="351" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="32" t="s">
+    <row r="352" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
+      <c r="B352" s="1">
+        <f>J337</f>
+        <v>0</v>
+      </c>
+      <c r="C352" s="1">
+        <f>J328</f>
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F352">
+        <v>0.874</v>
+      </c>
+      <c r="G352">
+        <v>0.89200000000000002</v>
+      </c>
     </row>
-    <row r="352" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="32" t="s">
+    <row r="353" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
+      <c r="B353" s="1">
+        <f>K337</f>
+        <v>0</v>
+      </c>
+      <c r="C353" s="1">
+        <f>K328</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="353" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="32" t="s">
+    <row r="354" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
-    </row>
-    <row r="354" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
+      <c r="B354" s="1">
+        <f>L337</f>
+        <v>0</v>
+      </c>
+      <c r="C354" s="1">
+        <f>L328</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
+      <c r="A355" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B355" s="23">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="C355" s="23">
+        <v>0.88900000000000001</v>
+      </c>
     </row>
     <row r="356" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="13" t="s">
+      <c r="A356" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B356" s="23">
+        <v>0.874</v>
+      </c>
+      <c r="C356" s="23">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
+      <c r="B357" s="23">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C357" s="23">
+        <v>0.70599999999999996</v>
+      </c>
     </row>
     <row r="373" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B373" s="35" t="s">
+      <c r="B373" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C373" s="36"/>
+      <c r="C373" s="19"/>
     </row>
     <row r="374" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A374" s="30"/>
-      <c r="B374" s="31" t="s">
+      <c r="A374" s="13"/>
+      <c r="B374" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C374" s="31" t="s">
+      <c r="C374" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="31" t="s">
+      <c r="A375" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B375" s="14">
+        <f>B338</f>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C375" s="14">
+        <f>B329</f>
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B375" s="40">
+      <c r="B376" s="23">
         <v>0.877</v>
       </c>
-      <c r="C375" s="37">
+      <c r="C376" s="20">
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="31" t="s">
+    <row r="377" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B376" s="40">
+      <c r="B377" s="23">
         <v>0.86499999999999999</v>
       </c>
-      <c r="C376" s="37">
+      <c r="C377" s="20">
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="32" t="s">
+    <row r="378" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B377" s="40">
+      <c r="B378" s="23">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C377" s="37">
+      <c r="C378" s="20">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="32" t="s">
+    <row r="379" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B378" s="40">
+      <c r="B379" s="23">
         <v>0.873</v>
       </c>
-      <c r="C378" s="37">
+      <c r="C379" s="20">
         <v>0.84099999999999997</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B379" s="40">
-        <v>0.873</v>
-      </c>
-      <c r="C379" s="37">
-        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A380" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B380" s="40">
-        <v>0.874</v>
-      </c>
-      <c r="C380" s="37">
-        <v>0.82399999999999995</v>
+      <c r="A380" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380" s="23">
+        <v>0.873</v>
+      </c>
+      <c r="C380" s="20">
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B381" s="40">
-        <v>0.876</v>
-      </c>
-      <c r="C381" s="37">
-        <v>0.95</v>
+      <c r="A381" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B381" s="23">
+        <v>0.874</v>
+      </c>
+      <c r="C381" s="20">
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A382" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B382" s="1"/>
-      <c r="C382" s="12"/>
+      <c r="A382" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B382" s="23">
+        <v>0.876</v>
+      </c>
+      <c r="C382" s="20">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="383" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A383" s="32" t="s">
+      <c r="A383" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B383" s="1">
+        <f>J338</f>
+        <v>0</v>
+      </c>
+      <c r="C383" s="6">
+        <f>J329</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B383" s="1"/>
-      <c r="C383" s="12"/>
+      <c r="B384" s="1">
+        <f>K338</f>
+        <v>0</v>
+      </c>
+      <c r="C384" s="6">
+        <f>K329</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="384" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A384" s="32" t="s">
+    <row r="385" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B384" s="1"/>
-      <c r="C384" s="12"/>
-    </row>
-    <row r="385" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A385" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B385" s="1"/>
-      <c r="C385" s="12"/>
+      <c r="B385" s="1">
+        <f>L338</f>
+        <v>0</v>
+      </c>
+      <c r="C385" s="6">
+        <f>L329</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="386" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B386" s="1"/>
-      <c r="C386" s="12"/>
+      <c r="A386" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B386" s="1">
+        <f>M338</f>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="C386" s="6">
+        <f>M329</f>
+        <v>0.90300000000000002</v>
+      </c>
     </row>
     <row r="387" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="13" t="s">
+      <c r="A387" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B387" s="1">
+        <f>N338</f>
+        <v>0.86</v>
+      </c>
+      <c r="C387" s="6">
+        <f>N329</f>
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B387" s="1"/>
-      <c r="C387" s="12"/>
+      <c r="B388" s="1">
+        <f>O338</f>
+        <v>0.871</v>
+      </c>
+      <c r="C388" s="6">
+        <f>O329</f>
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="403" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="35" t="s">
+      <c r="B403" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C403" s="36"/>
+      <c r="C403" s="19"/>
     </row>
     <row r="404" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="30"/>
-      <c r="B404" s="31" t="s">
+      <c r="A404" s="13"/>
+      <c r="B404" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C404" s="31" t="s">
+      <c r="C404" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="31" t="s">
+      <c r="A405" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B405" s="14">
+        <f>B339</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C405" s="14">
+        <f>B330</f>
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B405" s="40">
+      <c r="B406" s="23">
         <v>0.63300000000000001</v>
       </c>
-      <c r="C405" s="40">
+      <c r="C406" s="23">
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="31" t="s">
+    <row r="407" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B406" s="40">
+      <c r="B407" s="23">
         <v>0.67400000000000004</v>
       </c>
-      <c r="C406" s="40">
+      <c r="C407" s="23">
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="32" t="s">
+    <row r="408" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B407" s="40">
+      <c r="B408" s="23">
         <v>0.71699999999999997</v>
       </c>
-      <c r="C407" s="40">
+      <c r="C408" s="23">
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="32" t="s">
+    <row r="409" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B408" s="40">
+      <c r="B409" s="23">
         <v>0.72699999999999998</v>
       </c>
-      <c r="C408" s="40">
+      <c r="C409" s="23">
         <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B409" s="40">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="C409" s="40">
-        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B410" s="40">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="C410" s="40">
-        <v>0.72</v>
+      <c r="A410" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B410" s="23">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C410" s="23">
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B411" s="40">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="C411" s="40">
-        <v>0.98699999999999999</v>
+      <c r="A411" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B411" s="23">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C411" s="23">
+        <v>0.72</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
+      <c r="A412" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412" s="23">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="C412" s="23">
+        <v>0.98699999999999999</v>
+      </c>
     </row>
     <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A413" s="32" t="s">
+      <c r="A413" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B413" s="1">
+        <f>J339</f>
+        <v>0</v>
+      </c>
+      <c r="C413" s="1">
+        <f>J330</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
+      <c r="B414" s="1">
+        <f>K339</f>
+        <v>0</v>
+      </c>
+      <c r="C414" s="1">
+        <f>K330</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="414" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A414" s="32" t="s">
+    <row r="415" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
-    </row>
-    <row r="415" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A415" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
+      <c r="B415" s="1">
+        <f>L339</f>
+        <v>0</v>
+      </c>
+      <c r="C415" s="1">
+        <f>L330</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
+      <c r="A416" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B416" s="1">
+        <f>M339</f>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="C416" s="1">
+        <f>M330</f>
+        <v>0.91100000000000003</v>
+      </c>
     </row>
     <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A417" s="13" t="s">
+      <c r="A417" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B417" s="1">
+        <f>N339</f>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="C417" s="1">
+        <f>N330</f>
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
+      <c r="B418" s="1">
+        <f>O339</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="C418" s="1">
+        <f>O330</f>
+        <v>0.84599999999999997</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="M334:M336"/>
-    <mergeCell ref="N334:N336"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="B373:C373"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="A333:N333"/>
+  <mergeCells count="77">
+    <mergeCell ref="N325:N327"/>
+    <mergeCell ref="O325:O327"/>
+    <mergeCell ref="A333:O333"/>
     <mergeCell ref="A334:A335"/>
-    <mergeCell ref="B334:C335"/>
-    <mergeCell ref="D334:D336"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="C334:D335"/>
     <mergeCell ref="E334:E336"/>
     <mergeCell ref="F334:F336"/>
     <mergeCell ref="G334:G336"/>
-    <mergeCell ref="L334:L336"/>
-    <mergeCell ref="H326:H328"/>
-    <mergeCell ref="L326:L328"/>
-    <mergeCell ref="M326:M328"/>
-    <mergeCell ref="N326:N328"/>
-    <mergeCell ref="L219:L221"/>
-    <mergeCell ref="M219:M221"/>
-    <mergeCell ref="N219:N221"/>
-    <mergeCell ref="A325:N325"/>
-    <mergeCell ref="A326:A327"/>
-    <mergeCell ref="B326:C327"/>
-    <mergeCell ref="D326:D328"/>
-    <mergeCell ref="E326:E328"/>
-    <mergeCell ref="F326:F328"/>
-    <mergeCell ref="G326:G328"/>
-    <mergeCell ref="L228:L230"/>
-    <mergeCell ref="M228:M230"/>
-    <mergeCell ref="N228:N230"/>
-    <mergeCell ref="H219:H221"/>
-    <mergeCell ref="A227:K227"/>
+    <mergeCell ref="H334:H336"/>
+    <mergeCell ref="M334:M336"/>
+    <mergeCell ref="N334:N336"/>
+    <mergeCell ref="O334:O336"/>
+    <mergeCell ref="F325:F327"/>
+    <mergeCell ref="G325:G327"/>
+    <mergeCell ref="H325:H327"/>
+    <mergeCell ref="I325:I327"/>
+    <mergeCell ref="M325:M327"/>
     <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B228:C229"/>
-    <mergeCell ref="D228:D230"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="G228:G230"/>
-    <mergeCell ref="H228:H230"/>
-    <mergeCell ref="B235:C235"/>
     <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B219:B220"/>
     <mergeCell ref="B296:C296"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="B219:C220"/>
-    <mergeCell ref="D219:D221"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="G219:G221"/>
+    <mergeCell ref="A324:O324"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:D326"/>
+    <mergeCell ref="E325:E327"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
     <mergeCell ref="A132:K132"/>
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="B133:C134"/>
@@ -31775,24 +32255,30 @@
     <mergeCell ref="F133:F135"/>
     <mergeCell ref="G133:G135"/>
     <mergeCell ref="H133:H135"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="G219:G221"/>
+    <mergeCell ref="H219:H221"/>
+    <mergeCell ref="O228:O230"/>
+    <mergeCell ref="I219:I221"/>
+    <mergeCell ref="A227:K227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="C228:D229"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="G228:G230"/>
+    <mergeCell ref="H228:H230"/>
+    <mergeCell ref="I228:I230"/>
+    <mergeCell ref="M219:M221"/>
+    <mergeCell ref="N219:N221"/>
+    <mergeCell ref="O219:O221"/>
+    <mergeCell ref="M228:M230"/>
+    <mergeCell ref="N228:N230"/>
+    <mergeCell ref="B342:C342"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="heading=h.h69w8k3iqw4q" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.h69w8k3iqw4q"/>
@@ -31802,9 +32288,9 @@
     <hyperlink ref="A64" r:id="rId5" location="heading=h.h69w8k3iqw4q" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.h69w8k3iqw4q"/>
     <hyperlink ref="A73" r:id="rId6" location="heading=h.i6qfmfn7u1uw" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.i6qfmfn7u1uw"/>
     <hyperlink ref="A132" r:id="rId7" location="heading=h.5filyeos5ouq" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.5filyeos5ouq"/>
-    <hyperlink ref="A218" r:id="rId8" location="heading=h.i6qfmfn7u1uw" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.i6qfmfn7u1uw"/>
-    <hyperlink ref="A227" r:id="rId9" location="heading=h.5filyeos5ouq" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.5filyeos5ouq"/>
-    <hyperlink ref="A325" r:id="rId10" location="heading=h.3au2woafpzs1" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.3au2woafpzs1"/>
+    <hyperlink ref="A227" r:id="rId8" location="heading=h.5filyeos5ouq" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.5filyeos5ouq"/>
+    <hyperlink ref="A218" r:id="rId9" location="heading=h.i6qfmfn7u1uw" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.i6qfmfn7u1uw"/>
+    <hyperlink ref="A324" r:id="rId10" location="heading=h.3au2woafpzs1" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.3au2woafpzs1"/>
     <hyperlink ref="A333" r:id="rId11" location="heading=h.5filyeos5ouq" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.5filyeos5ouq"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Presentation/Charts.xlsx
+++ b/Documents/Presentation/Charts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="44">
   <si>
     <t>Balanced Dataset - dataset_1_balanced_discretized</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Balanced Dataset (SMOTE)</t>
   </si>
 </sst>
 </file>
@@ -460,6 +463,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -468,12 +475,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -490,6 +491,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -502,14 +509,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -522,34 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -920,11 +923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-982766560"/>
-        <c:axId val="-982776896"/>
+        <c:axId val="-182418864"/>
+        <c:axId val="-182416144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-982766560"/>
+        <c:axId val="-182418864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,12 +1034,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982776896"/>
+        <c:crossAx val="-182416144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-982776896"/>
+        <c:axId val="-182416144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1145,7 +1148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982766560"/>
+        <c:crossAx val="-182418864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1292,7 +1295,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1467,11 +1469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-772188432"/>
-        <c:axId val="-772179184"/>
+        <c:axId val="-21944384"/>
+        <c:axId val="-21936224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772188432"/>
+        <c:axId val="-21944384"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1507,7 +1509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772179184"/>
+        <c:crossAx val="-21936224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1515,7 +1517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772179184"/>
+        <c:axId val="-21936224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1568,7 +1570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772188432"/>
+        <c:crossAx val="-21944384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1734,7 +1736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1914,11 +1915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-769302272"/>
-        <c:axId val="-769301184"/>
+        <c:axId val="-21942752"/>
+        <c:axId val="-21942208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769302272"/>
+        <c:axId val="-21942752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769301184"/>
+        <c:crossAx val="-21942208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1962,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769301184"/>
+        <c:axId val="-21942208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2008,7 +2009,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2067,7 +2067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769302272"/>
+        <c:crossAx val="-21942752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2214,7 +2214,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2380,11 +2379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-769306624"/>
-        <c:axId val="-769297376"/>
+        <c:axId val="-21938944"/>
+        <c:axId val="-21937856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769306624"/>
+        <c:axId val="-21938944"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2420,7 +2419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769297376"/>
+        <c:crossAx val="-21937856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2428,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769297376"/>
+        <c:axId val="-21937856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2481,7 +2480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769306624"/>
+        <c:crossAx val="-21938944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2681,7 +2680,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2870,11 +2868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-769311520"/>
-        <c:axId val="-769300640"/>
+        <c:axId val="-21669072"/>
+        <c:axId val="-21663632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769311520"/>
+        <c:axId val="-21669072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2910,7 +2908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769300640"/>
+        <c:crossAx val="-21663632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2918,7 +2916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769300640"/>
+        <c:axId val="-21663632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2973,7 +2971,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3032,7 +3029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769311520"/>
+        <c:crossAx val="-21669072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3191,7 +3188,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3366,11 +3362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-769299552"/>
-        <c:axId val="-769306080"/>
+        <c:axId val="-21657104"/>
+        <c:axId val="-21665808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769299552"/>
+        <c:axId val="-21657104"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3406,7 +3402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769306080"/>
+        <c:crossAx val="-21665808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3414,7 +3410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769306080"/>
+        <c:axId val="-21665808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3467,7 +3463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769299552"/>
+        <c:crossAx val="-21657104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3667,7 +3663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3856,11 +3851,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-769305536"/>
-        <c:axId val="-769300096"/>
+        <c:axId val="-21667984"/>
+        <c:axId val="-21662544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769305536"/>
+        <c:axId val="-21667984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3896,7 +3891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769300096"/>
+        <c:crossAx val="-21662544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3904,7 +3899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769300096"/>
+        <c:axId val="-21662544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3959,7 +3954,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4018,7 +4012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769305536"/>
+        <c:crossAx val="-21667984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4177,7 +4171,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4352,11 +4345,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-769299008"/>
-        <c:axId val="-769301728"/>
+        <c:axId val="-21667440"/>
+        <c:axId val="-21661456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769299008"/>
+        <c:axId val="-21667440"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4392,7 +4385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769301728"/>
+        <c:crossAx val="-21661456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4400,7 +4393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769301728"/>
+        <c:axId val="-21661456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4453,7 +4446,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769299008"/>
+        <c:crossAx val="-21667440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4918,6 +4911,122 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$236</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset (SMOTE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$237:$A$250</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c10k</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c100k</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c1000k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$237:$D$250</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="4">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4928,11 +5037,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-769309888"/>
-        <c:axId val="-769309344"/>
+        <c:axId val="-21666352"/>
+        <c:axId val="-21664720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-769309888"/>
+        <c:axId val="-21666352"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4974,7 +5083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769309344"/>
+        <c:crossAx val="-21664720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4982,7 +5091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-769309344"/>
+        <c:axId val="-21664720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5086,7 +5195,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-769309888"/>
+        <c:crossAx val="-21666352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5590,11 +5699,11 @@
         </c:dLbls>
         <c:gapWidth val="135"/>
         <c:overlap val="-30"/>
-        <c:axId val="-770499776"/>
-        <c:axId val="-770509568"/>
+        <c:axId val="-21657648"/>
+        <c:axId val="-21660368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770499776"/>
+        <c:axId val="-21657648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,7 +5745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770509568"/>
+        <c:crossAx val="-21660368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5644,7 +5753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770509568"/>
+        <c:axId val="-21660368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5748,7 +5857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770499776"/>
+        <c:crossAx val="-21657648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6240,11 +6349,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-770504128"/>
-        <c:axId val="-770510112"/>
+        <c:axId val="-21658192"/>
+        <c:axId val="-21654928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770504128"/>
+        <c:axId val="-21658192"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6286,7 +6395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770510112"/>
+        <c:crossAx val="-21654928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6294,7 +6403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770510112"/>
+        <c:axId val="-21654928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770504128"/>
+        <c:crossAx val="-21658192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6839,11 +6948,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-982771456"/>
-        <c:axId val="-982770912"/>
+        <c:axId val="-182421040"/>
+        <c:axId val="-182420496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-982771456"/>
+        <c:axId val="-182421040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,12 +7059,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982770912"/>
+        <c:crossAx val="-182420496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-982770912"/>
+        <c:axId val="-182420496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7064,7 +7173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982771456"/>
+        <c:crossAx val="-182421040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -7500,11 +7609,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-770501408"/>
-        <c:axId val="-770499232"/>
+        <c:axId val="-22531840"/>
+        <c:axId val="-22535648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770501408"/>
+        <c:axId val="-22531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7546,7 +7655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770499232"/>
+        <c:crossAx val="-22535648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7554,7 +7663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770499232"/>
+        <c:axId val="-22535648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7658,7 +7767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770501408"/>
+        <c:crossAx val="-22531840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8150,11 +8259,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-770495968"/>
-        <c:axId val="-770495424"/>
+        <c:axId val="-22540544"/>
+        <c:axId val="-22537824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770495968"/>
+        <c:axId val="-22540544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8196,7 +8305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770495424"/>
+        <c:crossAx val="-22537824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8204,7 +8313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770495424"/>
+        <c:axId val="-22537824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8308,7 +8417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770495968"/>
+        <c:crossAx val="-22540544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8774,11 +8883,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-770503040"/>
-        <c:axId val="-770500320"/>
+        <c:axId val="-22543808"/>
+        <c:axId val="-22542720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770503040"/>
+        <c:axId val="-22543808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8820,7 +8929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770500320"/>
+        <c:crossAx val="-22542720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8828,7 +8937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770500320"/>
+        <c:axId val="-22542720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8932,7 +9041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770503040"/>
+        <c:crossAx val="-22543808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9436,11 +9545,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-770496512"/>
-        <c:axId val="-770494880"/>
+        <c:axId val="-22531296"/>
+        <c:axId val="-22532384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770496512"/>
+        <c:axId val="-22531296"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9482,7 +9591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770494880"/>
+        <c:crossAx val="-22532384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9490,7 +9599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770494880"/>
+        <c:axId val="-22532384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9594,7 +9703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770496512"/>
+        <c:crossAx val="-22531296"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10098,11 +10207,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-770506848"/>
-        <c:axId val="-770506304"/>
+        <c:axId val="-22540000"/>
+        <c:axId val="-22533472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770506848"/>
+        <c:axId val="-22540000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10144,7 +10253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770506304"/>
+        <c:crossAx val="-22533472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10152,7 +10261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-770506304"/>
+        <c:axId val="-22533472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10256,7 +10365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770506848"/>
+        <c:crossAx val="-22540000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10760,11 +10869,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-770504672"/>
-        <c:axId val="-771610352"/>
+        <c:axId val="-22542176"/>
+        <c:axId val="-22530752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-770504672"/>
+        <c:axId val="-22542176"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10806,7 +10915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-771610352"/>
+        <c:crossAx val="-22530752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10814,7 +10923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-771610352"/>
+        <c:axId val="-22530752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10918,7 +11027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-770504672"/>
+        <c:crossAx val="-22542176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11300,11 +11409,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-982767648"/>
-        <c:axId val="-1082903360"/>
+        <c:axId val="-182424848"/>
+        <c:axId val="-182428656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-982767648"/>
+        <c:axId val="-182424848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11447,7 +11556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1082903360"/>
+        <c:crossAx val="-182428656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11455,7 +11564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1082903360"/>
+        <c:axId val="-182428656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -11570,7 +11679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-982767648"/>
+        <c:crossAx val="-182424848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11692,7 +11801,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11918,11 +12026,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-772178096"/>
-        <c:axId val="-772187888"/>
+        <c:axId val="-182427024"/>
+        <c:axId val="-182416688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772178096"/>
+        <c:axId val="-182427024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11965,7 +12073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772187888"/>
+        <c:crossAx val="-182416688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11973,7 +12081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772187888"/>
+        <c:axId val="-182416688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12024,7 +12132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772178096"/>
+        <c:crossAx val="-182427024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12038,7 +12146,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12209,7 +12316,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12409,11 +12515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-772180816"/>
-        <c:axId val="-772177008"/>
+        <c:axId val="-182415056"/>
+        <c:axId val="-281898288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772180816"/>
+        <c:axId val="-182415056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12449,7 +12555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772177008"/>
+        <c:crossAx val="-281898288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12457,7 +12563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772177008"/>
+        <c:axId val="-281898288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12503,7 +12609,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12562,7 +12667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772180816"/>
+        <c:crossAx val="-182415056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12709,7 +12814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12895,11 +12999,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-772182448"/>
-        <c:axId val="-772191152"/>
+        <c:axId val="-21932416"/>
+        <c:axId val="-21935136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772182448"/>
+        <c:axId val="-21932416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -12935,7 +13039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772191152"/>
+        <c:crossAx val="-21935136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12943,7 +13047,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772191152"/>
+        <c:axId val="-21935136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12996,7 +13100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772182448"/>
+        <c:crossAx val="-21932416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13184,7 +13288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13373,11 +13476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-772186256"/>
-        <c:axId val="-772187344"/>
+        <c:axId val="-21940576"/>
+        <c:axId val="-21930240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772186256"/>
+        <c:axId val="-21940576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13413,7 +13516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772187344"/>
+        <c:crossAx val="-21930240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13421,7 +13524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772187344"/>
+        <c:axId val="-21930240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13476,7 +13579,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13535,7 +13637,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772186256"/>
+        <c:crossAx val="-21940576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13682,7 +13784,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13857,11 +13958,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-772179728"/>
-        <c:axId val="-772191696"/>
+        <c:axId val="-21943840"/>
+        <c:axId val="-21932960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772179728"/>
+        <c:axId val="-21943840"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -13897,7 +13998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772191696"/>
+        <c:crossAx val="-21932960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13905,7 +14006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772191696"/>
+        <c:axId val="-21932960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13958,7 +14059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772179728"/>
+        <c:crossAx val="-21943840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14146,7 +14247,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14335,11 +14435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-772185712"/>
-        <c:axId val="-772185168"/>
+        <c:axId val="-21934048"/>
+        <c:axId val="-21938400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-772185712"/>
+        <c:axId val="-21934048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14375,7 +14475,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772185168"/>
+        <c:crossAx val="-21938400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14383,7 +14483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-772185168"/>
+        <c:axId val="-21938400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14438,7 +14538,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14497,7 +14596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772185712"/>
+        <c:crossAx val="-21934048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28853,23 +28952,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C406" sqref="C406"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z236" sqref="Z236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="52"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="50"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -28945,16 +29044,16 @@
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="50"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -29030,16 +29129,16 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="49"/>
+      <c r="B37" s="52"/>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="50"/>
     </row>
     <row r="39" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -29142,20 +29241,20 @@
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="49"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="52"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="51"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -29213,20 +29312,20 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="49"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="52"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="51"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="50"/>
     </row>
     <row r="66" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -29300,23 +29399,23 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="35"/>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="45"/>
-      <c r="D74" s="27" t="s">
+      <c r="C74" s="55"/>
+      <c r="D74" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G74" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="27" t="s">
+      <c r="H74" s="29" t="s">
         <v>4</v>
       </c>
       <c r="I74" s="7" t="s">
@@ -29331,13 +29430,13 @@
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="36"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
       <c r="I75" s="8" t="s">
         <v>22</v>
       </c>
@@ -29356,11 +29455,11 @@
       <c r="C76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="29"/>
-      <c r="H76" s="29"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="10">
@@ -29751,23 +29850,23 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="35"/>
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="45"/>
-      <c r="D133" s="27" t="s">
+      <c r="C133" s="55"/>
+      <c r="D133" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E133" s="27" t="s">
+      <c r="E133" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F133" s="27" t="s">
+      <c r="F133" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="27" t="s">
+      <c r="G133" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="27" t="s">
+      <c r="H133" s="29" t="s">
         <v>4</v>
       </c>
       <c r="I133" s="7" t="s">
@@ -29782,13 +29881,13 @@
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="36"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
       <c r="I134" s="8" t="s">
         <v>22</v>
       </c>
@@ -29807,11 +29906,11 @@
       <c r="C135" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="10">
@@ -30187,26 +30286,26 @@
     </row>
     <row r="219" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="35"/>
-      <c r="B219" s="54" t="s">
+      <c r="B219" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C219" s="44" t="s">
+      <c r="C219" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D219" s="45"/>
-      <c r="E219" s="27" t="s">
+      <c r="D219" s="55"/>
+      <c r="E219" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F219" s="27" t="s">
+      <c r="F219" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G219" s="27" t="s">
+      <c r="G219" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="27" t="s">
+      <c r="H219" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I219" s="27" t="s">
+      <c r="I219" s="29" t="s">
         <v>4</v>
       </c>
       <c r="J219" s="24" t="s">
@@ -30218,26 +30317,26 @@
       <c r="L219" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M219" s="27" t="s">
+      <c r="M219" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N219" s="27" t="s">
+      <c r="N219" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O219" s="27" t="s">
+      <c r="O219" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="36"/>
-      <c r="B220" s="55"/>
-      <c r="C220" s="46"/>
-      <c r="D220" s="47"/>
-      <c r="E220" s="28"/>
-      <c r="F220" s="28"/>
-      <c r="G220" s="28"/>
-      <c r="H220" s="28"/>
-      <c r="I220" s="28"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="56"/>
+      <c r="D220" s="57"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="30"/>
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
       <c r="J220" s="25" t="s">
         <v>22</v>
       </c>
@@ -30247,9 +30346,9 @@
       <c r="L220" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M220" s="28"/>
-      <c r="N220" s="28"/>
-      <c r="O220" s="28"/>
+      <c r="M220" s="30"/>
+      <c r="N220" s="30"/>
+      <c r="O220" s="30"/>
     </row>
     <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
@@ -30260,19 +30359,19 @@
       <c r="D221" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E221" s="29"/>
-      <c r="F221" s="29"/>
-      <c r="G221" s="29"/>
-      <c r="H221" s="29"/>
-      <c r="I221" s="29"/>
+      <c r="E221" s="31"/>
+      <c r="F221" s="31"/>
+      <c r="G221" s="31"/>
+      <c r="H221" s="31"/>
+      <c r="I221" s="31"/>
       <c r="J221" s="12"/>
       <c r="K221" s="12"/>
       <c r="L221" s="26">
         <v>1000000</v>
       </c>
-      <c r="M221" s="29"/>
-      <c r="N221" s="29"/>
-      <c r="O221" s="29"/>
+      <c r="M221" s="31"/>
+      <c r="N221" s="31"/>
+      <c r="O221" s="31"/>
     </row>
     <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11" t="s">
@@ -30431,28 +30530,28 @@
       <c r="J227" s="33"/>
       <c r="K227" s="34"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="35"/>
-      <c r="B228" s="54" t="s">
+      <c r="B228" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C228" s="44" t="s">
+      <c r="C228" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D228" s="45"/>
-      <c r="E228" s="27" t="s">
+      <c r="D228" s="55"/>
+      <c r="E228" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F228" s="27" t="s">
+      <c r="F228" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G228" s="27" t="s">
+      <c r="G228" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="H228" s="27" t="s">
+      <c r="H228" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I228" s="27" t="s">
+      <c r="I228" s="29" t="s">
         <v>4</v>
       </c>
       <c r="J228" s="20" t="s">
@@ -30464,26 +30563,26 @@
       <c r="L228" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M228" s="27" t="s">
+      <c r="M228" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N228" s="27" t="s">
+      <c r="N228" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O228" s="27" t="s">
+      <c r="O228" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="36"/>
-      <c r="B229" s="55"/>
-      <c r="C229" s="46"/>
-      <c r="D229" s="47"/>
-      <c r="E229" s="28"/>
-      <c r="F229" s="28"/>
-      <c r="G229" s="28"/>
-      <c r="H229" s="28"/>
-      <c r="I229" s="28"/>
+      <c r="B229" s="47"/>
+      <c r="C229" s="56"/>
+      <c r="D229" s="57"/>
+      <c r="E229" s="30"/>
+      <c r="F229" s="30"/>
+      <c r="G229" s="30"/>
+      <c r="H229" s="30"/>
+      <c r="I229" s="30"/>
       <c r="J229" s="21" t="s">
         <v>22</v>
       </c>
@@ -30493,9 +30592,9 @@
       <c r="L229" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M229" s="28"/>
-      <c r="N229" s="28"/>
-      <c r="O229" s="28"/>
+      <c r="M229" s="30"/>
+      <c r="N229" s="30"/>
+      <c r="O229" s="30"/>
     </row>
     <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
@@ -30506,19 +30605,19 @@
       <c r="D230" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E230" s="29"/>
-      <c r="F230" s="29"/>
-      <c r="G230" s="29"/>
-      <c r="H230" s="29"/>
-      <c r="I230" s="29"/>
+      <c r="E230" s="31"/>
+      <c r="F230" s="31"/>
+      <c r="G230" s="31"/>
+      <c r="H230" s="31"/>
+      <c r="I230" s="31"/>
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="22">
         <v>1000000</v>
       </c>
-      <c r="M230" s="29"/>
-      <c r="N230" s="29"/>
-      <c r="O230" s="29"/>
+      <c r="M230" s="31"/>
+      <c r="N230" s="31"/>
+      <c r="O230" s="31"/>
     </row>
     <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="11" t="s">
@@ -30662,18 +30761,21 @@
       </c>
     </row>
     <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="30" t="s">
+      <c r="B235" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C235" s="31"/>
+      <c r="C235" s="45"/>
     </row>
-    <row r="236" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13"/>
       <c r="B236" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C236" s="14" t="s">
         <v>12</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -30711,7 +30813,7 @@
         <v>0.86120000000000008</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
         <v>1</v>
       </c>
@@ -30722,7 +30824,7 @@
         <v>0.70840000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="s">
         <v>2</v>
       </c>
@@ -30732,8 +30834,11 @@
       <c r="C241" s="16">
         <v>0.83660000000000001</v>
       </c>
+      <c r="D241">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="242" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="s">
         <v>3</v>
       </c>
@@ -30744,7 +30849,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="15" t="s">
         <v>32</v>
       </c>
@@ -30755,7 +30860,7 @@
         <v>0.80709999999999993</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="s">
         <v>4</v>
       </c>
@@ -30766,7 +30871,7 @@
         <v>0.87769999999999992</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="s">
         <v>28</v>
       </c>
@@ -30777,7 +30882,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="s">
         <v>29</v>
       </c>
@@ -30788,7 +30893,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
         <v>30</v>
       </c>
@@ -30799,7 +30904,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>36</v>
       </c>
@@ -30811,7 +30916,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
         <v>37</v>
       </c>
@@ -30823,7 +30928,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>38</v>
       </c>
@@ -30836,10 +30941,10 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="30" t="s">
+      <c r="B266" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C266" s="31"/>
+      <c r="C266" s="45"/>
     </row>
     <row r="267" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="13"/>
@@ -31007,10 +31112,10 @@
       </c>
     </row>
     <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="30" t="s">
+      <c r="B296" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C296" s="31"/>
+      <c r="C296" s="45"/>
     </row>
     <row r="297" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="13"/>
@@ -31199,26 +31304,26 @@
     </row>
     <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="35"/>
-      <c r="B325" s="41" t="s">
+      <c r="B325" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C325" s="37" t="s">
+      <c r="C325" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D325" s="38"/>
-      <c r="E325" s="41" t="s">
+      <c r="D325" s="40"/>
+      <c r="E325" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F325" s="41" t="s">
+      <c r="F325" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G325" s="41" t="s">
+      <c r="G325" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H325" s="41" t="s">
+      <c r="H325" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I325" s="41" t="s">
+      <c r="I325" s="37" t="s">
         <v>4</v>
       </c>
       <c r="J325" s="24" t="s">
@@ -31230,26 +31335,26 @@
       <c r="L325" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M325" s="27" t="s">
+      <c r="M325" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N325" s="27" t="s">
+      <c r="N325" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O325" s="27" t="s">
+      <c r="O325" s="29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:15" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="36"/>
-      <c r="B326" s="43"/>
-      <c r="C326" s="39"/>
-      <c r="D326" s="40"/>
-      <c r="E326" s="42"/>
-      <c r="F326" s="42"/>
-      <c r="G326" s="42"/>
-      <c r="H326" s="42"/>
-      <c r="I326" s="42"/>
+      <c r="B326" s="38"/>
+      <c r="C326" s="41"/>
+      <c r="D326" s="42"/>
+      <c r="E326" s="43"/>
+      <c r="F326" s="43"/>
+      <c r="G326" s="43"/>
+      <c r="H326" s="43"/>
+      <c r="I326" s="43"/>
       <c r="J326" s="25" t="s">
         <v>22</v>
       </c>
@@ -31259,9 +31364,9 @@
       <c r="L326" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M326" s="28"/>
-      <c r="N326" s="28"/>
-      <c r="O326" s="28"/>
+      <c r="M326" s="30"/>
+      <c r="N326" s="30"/>
+      <c r="O326" s="30"/>
     </row>
     <row r="327" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
@@ -31272,19 +31377,19 @@
       <c r="D327" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E327" s="43"/>
-      <c r="F327" s="43"/>
-      <c r="G327" s="43"/>
-      <c r="H327" s="43"/>
-      <c r="I327" s="43"/>
+      <c r="E327" s="38"/>
+      <c r="F327" s="38"/>
+      <c r="G327" s="38"/>
+      <c r="H327" s="38"/>
+      <c r="I327" s="38"/>
       <c r="J327" s="12"/>
       <c r="K327" s="12"/>
       <c r="L327" s="26">
         <v>1000000</v>
       </c>
-      <c r="M327" s="29"/>
-      <c r="N327" s="29"/>
-      <c r="O327" s="29"/>
+      <c r="M327" s="31"/>
+      <c r="N327" s="31"/>
+      <c r="O327" s="31"/>
     </row>
     <row r="328" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="23" t="s">
@@ -31410,12 +31515,12 @@
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A331" s="57"/>
+      <c r="A331" s="28"/>
     </row>
     <row r="332" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="57"/>
+      <c r="A332" s="28"/>
     </row>
-    <row r="333" spans="1:15" s="56" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="32" t="s">
         <v>40</v>
       </c>
@@ -31436,23 +31541,23 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="35"/>
-      <c r="B334" s="41" t="s">
+      <c r="B334" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C334" s="37" t="s">
+      <c r="C334" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D334" s="38"/>
-      <c r="E334" s="41" t="s">
+      <c r="D334" s="40"/>
+      <c r="E334" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F334" s="41" t="s">
+      <c r="F334" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G334" s="41" t="s">
+      <c r="G334" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H334" s="41" t="s">
+      <c r="H334" s="37" t="s">
         <v>32</v>
       </c>
       <c r="I334" s="24" t="s">
@@ -31467,25 +31572,25 @@
       <c r="L334" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M334" s="27" t="s">
+      <c r="M334" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N334" s="27" t="s">
+      <c r="N334" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="O334" s="27" t="s">
+      <c r="O334" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="36"/>
-      <c r="B335" s="43"/>
-      <c r="C335" s="39"/>
-      <c r="D335" s="40"/>
-      <c r="E335" s="42"/>
-      <c r="F335" s="42"/>
-      <c r="G335" s="42"/>
-      <c r="H335" s="42"/>
+      <c r="B335" s="38"/>
+      <c r="C335" s="41"/>
+      <c r="D335" s="42"/>
+      <c r="E335" s="43"/>
+      <c r="F335" s="43"/>
+      <c r="G335" s="43"/>
+      <c r="H335" s="43"/>
       <c r="I335" s="25" t="s">
         <v>41</v>
       </c>
@@ -31498,9 +31603,9 @@
       <c r="L335" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M335" s="28"/>
-      <c r="N335" s="28"/>
-      <c r="O335" s="28"/>
+      <c r="M335" s="30"/>
+      <c r="N335" s="30"/>
+      <c r="O335" s="30"/>
     </row>
     <row r="336" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
@@ -31511,19 +31616,19 @@
       <c r="D336" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E336" s="43"/>
-      <c r="F336" s="43"/>
-      <c r="G336" s="43"/>
-      <c r="H336" s="43"/>
+      <c r="E336" s="38"/>
+      <c r="F336" s="38"/>
+      <c r="G336" s="38"/>
+      <c r="H336" s="38"/>
       <c r="I336" s="12"/>
       <c r="J336" s="12"/>
       <c r="K336" s="12"/>
       <c r="L336" s="26">
         <v>1000000</v>
       </c>
-      <c r="M336" s="29"/>
-      <c r="N336" s="29"/>
-      <c r="O336" s="29"/>
+      <c r="M336" s="31"/>
+      <c r="N336" s="31"/>
+      <c r="O336" s="31"/>
     </row>
     <row r="337" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="23" t="s">
@@ -31649,10 +31754,10 @@
       </c>
     </row>
     <row r="342" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="30" t="s">
+      <c r="B342" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C342" s="31"/>
+      <c r="C342" s="45"/>
     </row>
     <row r="343" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="13"/>
@@ -32202,6 +32307,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="N228:N230"/>
+    <mergeCell ref="M228:M230"/>
+    <mergeCell ref="M219:M221"/>
+    <mergeCell ref="N219:N221"/>
+    <mergeCell ref="O219:O221"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="G228:G230"/>
+    <mergeCell ref="H228:H230"/>
+    <mergeCell ref="I228:I230"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="G219:G221"/>
+    <mergeCell ref="H219:H221"/>
+    <mergeCell ref="I219:I221"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:C134"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="I325:I327"/>
+    <mergeCell ref="M325:M327"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="A324:O324"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:D326"/>
+    <mergeCell ref="E325:E327"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="O228:O230"/>
+    <mergeCell ref="A227:K227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="C228:D229"/>
     <mergeCell ref="N325:N327"/>
     <mergeCell ref="O325:O327"/>
     <mergeCell ref="A333:O333"/>
@@ -32218,67 +32384,6 @@
     <mergeCell ref="F325:F327"/>
     <mergeCell ref="G325:G327"/>
     <mergeCell ref="H325:H327"/>
-    <mergeCell ref="I325:I327"/>
-    <mergeCell ref="M325:M327"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="A324:O324"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="C325:D326"/>
-    <mergeCell ref="E325:E327"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:C134"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:D220"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="G219:G221"/>
-    <mergeCell ref="H219:H221"/>
-    <mergeCell ref="O228:O230"/>
-    <mergeCell ref="I219:I221"/>
-    <mergeCell ref="A227:K227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="C228:D229"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="G228:G230"/>
-    <mergeCell ref="H228:H230"/>
-    <mergeCell ref="I228:I230"/>
-    <mergeCell ref="M219:M221"/>
-    <mergeCell ref="N219:N221"/>
-    <mergeCell ref="O219:O221"/>
-    <mergeCell ref="M228:M230"/>
-    <mergeCell ref="N228:N230"/>
-    <mergeCell ref="B342:C342"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="heading=h.h69w8k3iqw4q" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.h69w8k3iqw4q"/>

--- a/Documents/Presentation/Charts.xlsx
+++ b/Documents/Presentation/Charts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="50">
   <si>
     <t>Balanced Dataset - dataset_1_balanced_discretized</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>Balanced Dataset (SMOTE)</t>
+  </si>
+  <si>
+    <t>dataset 4 smote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-Measure </t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>SVM c1</t>
+  </si>
+  <si>
+    <t>SVM c 0.001</t>
+  </si>
+  <si>
+    <t>SVM c 0.1</t>
   </si>
 </sst>
 </file>
@@ -385,7 +403,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -467,6 +485,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -491,38 +515,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -542,18 +545,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -718,6 +737,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -923,11 +943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-182418864"/>
-        <c:axId val="-182416144"/>
+        <c:axId val="-19162720"/>
+        <c:axId val="-19156736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-182418864"/>
+        <c:axId val="-19162720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,6 +992,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1034,12 +1055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182416144"/>
+        <c:crossAx val="-19156736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-182416144"/>
+        <c:axId val="-19156736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1086,6 +1107,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1148,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182418864"/>
+        <c:crossAx val="-19162720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1295,6 +1317,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1469,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-21944384"/>
-        <c:axId val="-21936224"/>
+        <c:axId val="-1995427680"/>
+        <c:axId val="-1995434208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21944384"/>
+        <c:axId val="-1995427680"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1509,7 +1532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21936224"/>
+        <c:crossAx val="-1995434208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1517,7 +1540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21936224"/>
+        <c:axId val="-1995434208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1570,7 +1593,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21944384"/>
+        <c:crossAx val="-1995427680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1736,6 +1759,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1915,11 +1939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-21942752"/>
-        <c:axId val="-21942208"/>
+        <c:axId val="-1995422784"/>
+        <c:axId val="-1995436384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21942752"/>
+        <c:axId val="-1995422784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21942208"/>
+        <c:crossAx val="-1995436384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21942208"/>
+        <c:axId val="-1995436384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2009,6 +2033,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2067,7 +2092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21942752"/>
+        <c:crossAx val="-1995422784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2214,6 +2239,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2379,11 +2405,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-21938944"/>
-        <c:axId val="-21937856"/>
+        <c:axId val="-1995430400"/>
+        <c:axId val="-1995429856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21938944"/>
+        <c:axId val="-1995430400"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2419,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21937856"/>
+        <c:crossAx val="-1995429856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21937856"/>
+        <c:axId val="-1995429856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2480,7 +2506,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21938944"/>
+        <c:crossAx val="-1995430400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2680,6 +2706,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2868,11 +2895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-21669072"/>
-        <c:axId val="-21663632"/>
+        <c:axId val="-1995427136"/>
+        <c:axId val="-1979948256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21669072"/>
+        <c:axId val="-1995427136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21663632"/>
+        <c:crossAx val="-1979948256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2916,7 +2943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21663632"/>
+        <c:axId val="-1979948256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2971,6 +2998,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3029,7 +3057,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21669072"/>
+        <c:crossAx val="-1995427136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3188,6 +3216,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3362,11 +3391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-21657104"/>
-        <c:axId val="-21665808"/>
+        <c:axId val="-1979950432"/>
+        <c:axId val="-1979956960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21657104"/>
+        <c:axId val="-1979950432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3402,7 +3431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21665808"/>
+        <c:crossAx val="-1979956960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3410,7 +3439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21665808"/>
+        <c:axId val="-1979956960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3463,7 +3492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21657104"/>
+        <c:crossAx val="-1979950432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3663,6 +3692,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3851,11 +3881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-21667984"/>
-        <c:axId val="-21662544"/>
+        <c:axId val="-1979951520"/>
+        <c:axId val="-1979945536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21667984"/>
+        <c:axId val="-1979951520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,7 +3921,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21662544"/>
+        <c:crossAx val="-1979945536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3899,7 +3929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21662544"/>
+        <c:axId val="-1979945536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3954,6 +3984,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4012,7 +4043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21667984"/>
+        <c:crossAx val="-1979951520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4171,6 +4202,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4345,11 +4377,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-21667440"/>
-        <c:axId val="-21661456"/>
+        <c:axId val="-1979955328"/>
+        <c:axId val="-1979953696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21667440"/>
+        <c:axId val="-1979955328"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4385,7 +4417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21661456"/>
+        <c:crossAx val="-1979953696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4393,7 +4425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21661456"/>
+        <c:axId val="-1979953696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4446,7 +4478,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21667440"/>
+        <c:crossAx val="-1979955328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4606,7 +4638,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$236</c:f>
+              <c:f>Sheet1!$B$237</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4656,41 +4688,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$250</c:f>
+              <c:f>Sheet1!$A$238:$A$251</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -4706,42 +4738,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$237:$B$250</c:f>
+              <c:f>Sheet1!$B$238:$B$251</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.89800000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.81299999999999994</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.874</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.84</c:v>
@@ -4761,7 +4793,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$236</c:f>
+              <c:f>Sheet1!$C$237</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4811,41 +4843,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$250</c:f>
+              <c:f>Sheet1!$A$238:$A$251</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -4861,42 +4893,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$237:$C$250</c:f>
+              <c:f>Sheet1!$C$238:$C$251</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86120000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80709999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87769999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86120000000000008</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.70840000000000003</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80709999999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87769999999999992</c:v>
-                </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.39</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.54</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.62</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0.89400000000000002</c:v>
@@ -4916,7 +4948,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$236</c:f>
+              <c:f>Sheet1!$D$237</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4966,41 +4998,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$250</c:f>
+              <c:f>Sheet1!$A$238:$A$251</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -5016,12 +5048,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$237:$D$250</c:f>
+              <c:f>Sheet1!$D$238:$D$251</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.81415400000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83048599999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77604700000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76</c:v>
+                  <c:v>0.75558499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81899999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5037,11 +5084,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-21666352"/>
-        <c:axId val="-21664720"/>
+        <c:axId val="-1979954784"/>
+        <c:axId val="-1979947712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21666352"/>
+        <c:axId val="-1979954784"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5083,7 +5130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21664720"/>
+        <c:crossAx val="-1979947712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5091,7 +5138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21664720"/>
+        <c:axId val="-1979947712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,7 +5242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21666352"/>
+        <c:crossAx val="-1979954784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5384,7 +5431,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$236</c:f>
+              <c:f>Sheet1!$B$237</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5434,41 +5481,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$250</c:f>
+              <c:f>Sheet1!$A$238:$A$251</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -5484,42 +5531,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$237:$B$250</c:f>
+              <c:f>Sheet1!$B$238:$B$251</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.89800000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.81299999999999994</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.874</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.84</c:v>
@@ -5539,7 +5586,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$236</c:f>
+              <c:f>Sheet1!$C$237</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5589,41 +5636,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$237:$A$250</c:f>
+              <c:f>Sheet1!$A$238:$A$251</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -5639,42 +5686,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$237:$C$250</c:f>
+              <c:f>Sheet1!$C$238:$C$251</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86120000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80709999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87769999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.85499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86120000000000008</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.70840000000000003</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80709999999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87769999999999992</c:v>
-                </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.39</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.54</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.62</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0.89400000000000002</c:v>
@@ -5699,11 +5746,11 @@
         </c:dLbls>
         <c:gapWidth val="135"/>
         <c:overlap val="-30"/>
-        <c:axId val="-21657648"/>
-        <c:axId val="-21660368"/>
+        <c:axId val="-1979947168"/>
+        <c:axId val="-1979950976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21657648"/>
+        <c:axId val="-1979947168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5745,7 +5792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21660368"/>
+        <c:crossAx val="-1979950976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5753,7 +5800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21660368"/>
+        <c:axId val="-1979950976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5857,7 +5904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21657648"/>
+        <c:crossAx val="-1979947168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6046,11 +6093,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$268</c:f>
+              <c:f>Sheet1!$B$265</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.876</c:v>
+                  <c:v>Unbalanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6096,9 +6143,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$269:$A$281</c:f>
+              <c:f>Sheet1!$A$266:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -6106,36 +6153,39 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -6143,10 +6193,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$269:$B$281</c:f>
+              <c:f>Sheet1!$B$266:$B$279</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -6154,36 +6204,39 @@
                   <c:v>0.86765499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89562600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89299799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90407400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.79294200000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89562600000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89299799999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90407400000000004</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.24</c:v>
-                </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.17</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>0.84</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="12" formatCode="General">
                   <c:v>0.86199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="13" formatCode="General">
                   <c:v>0.86899999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -6195,11 +6248,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$268</c:f>
+              <c:f>Sheet1!$C$265</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.953</c:v>
+                  <c:v>Balanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6245,9 +6298,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$269:$A$281</c:f>
+              <c:f>Sheet1!$A$266:$A$279</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -6255,36 +6308,39 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -6292,10 +6348,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$269:$C$281</c:f>
+              <c:f>Sheet1!$C$266:$C$279</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.874</c:v>
                 </c:pt>
@@ -6303,37 +6359,171 @@
                   <c:v>0.879</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.753</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$265</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset (SMOTE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$266:$A$279</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84099999999999997</c:v>
+                  <c:v>AdaBoost</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81</c:v>
+                  <c:v>LogitBoost</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82099999999999995</c:v>
+                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89</c:v>
+                  <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>Naive Bayes</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.79800000000000004</c:v>
+                  <c:v>1-NN</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76600000000000001</c:v>
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$266:$D$279</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6349,11 +6539,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-21658192"/>
-        <c:axId val="-21654928"/>
+        <c:axId val="-1979944992"/>
+        <c:axId val="-1979946624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21658192"/>
+        <c:axId val="-1979944992"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6395,7 +6585,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21654928"/>
+        <c:crossAx val="-1979946624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6403,7 +6593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21654928"/>
+        <c:axId val="-1979946624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6507,7 +6697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21658192"/>
+        <c:crossAx val="-1979944992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6743,6 +6933,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6948,11 +7139,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-182421040"/>
-        <c:axId val="-182420496"/>
+        <c:axId val="-19156192"/>
+        <c:axId val="-19155648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-182421040"/>
+        <c:axId val="-19156192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6997,6 +7188,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7059,12 +7251,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182420496"/>
+        <c:crossAx val="-19155648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-182420496"/>
+        <c:axId val="-19155648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7111,6 +7303,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7173,7 +7366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182421040"/>
+        <c:crossAx val="-19156192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -7342,7 +7535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$268</c:f>
+              <c:f>Sheet1!$B$272</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7392,9 +7585,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$269:$A$278</c:f>
+              <c:f>Sheet1!$A$266:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -7402,38 +7595,41 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$269:$B$278</c:f>
+              <c:f>Sheet1!$B$266:$B$276</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -7441,28 +7637,31 @@
                   <c:v>0.86765499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89562600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89299799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90407400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.79294200000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89562600000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89299799999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90407400000000004</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.24</c:v>
-                </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.17</c:v>
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7473,7 +7672,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$268</c:f>
+              <c:f>Sheet1!$C$272</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7523,9 +7722,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$269:$A$278</c:f>
+              <c:f>Sheet1!$A$266:$A$276</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -7533,38 +7732,41 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$269:$C$278</c:f>
+              <c:f>Sheet1!$C$266:$C$276</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.874</c:v>
                 </c:pt>
@@ -7572,28 +7774,31 @@
                   <c:v>0.879</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.753</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.84099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.82099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49</c:v>
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7609,11 +7814,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-22531840"/>
-        <c:axId val="-22535648"/>
+        <c:axId val="-1979942272"/>
+        <c:axId val="-1979956416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-22531840"/>
+        <c:axId val="-1979942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,7 +7860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22535648"/>
+        <c:crossAx val="-1979956416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7663,7 +7868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-22535648"/>
+        <c:axId val="-1979956416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7767,7 +7972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22531840"/>
+        <c:crossAx val="-1979942272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7956,11 +8161,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$298</c:f>
+              <c:f>Sheet1!$B$297</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.687</c:v>
+                  <c:v>Unbalanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8006,9 +8211,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$299:$A$311</c:f>
+              <c:f>Sheet1!$A$298:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -8016,36 +8221,39 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -8053,10 +8261,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$299:$B$311</c:f>
+              <c:f>Sheet1!$B$298:$B$311</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -8064,36 +8272,39 @@
                   <c:v>0.86765499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89562600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89299799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90407400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.79294200000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89562600000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89299799999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90407400000000004</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.67</c:v>
-                </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.63</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>0.60099999999999998</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="General">
+                <c:pt idx="12" formatCode="General">
                   <c:v>0.64300000000000002</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="13" formatCode="General">
                   <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
@@ -8105,11 +8316,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$298</c:f>
+              <c:f>Sheet1!$C$297</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>Balanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8155,9 +8366,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$299:$A$311</c:f>
+              <c:f>Sheet1!$A$298:$A$311</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -8165,36 +8376,39 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1-NN</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3-NN</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5-NN</c:v>
                 </c:pt>
               </c:strCache>
@@ -8202,10 +8416,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$299:$C$311</c:f>
+              <c:f>Sheet1!$C$298:$C$311</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
@@ -8213,37 +8427,171 @@
                   <c:v>0.86120000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.83660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80709999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87769999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.70840000000000003</c:v>
                 </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$297</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset (SMOTE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$298:$A$311</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83660000000000001</c:v>
+                  <c:v>AdaBoost</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79</c:v>
+                  <c:v>LogitBoost</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80709999999999993</c:v>
+                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.87769999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.91300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>0.88500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>0.84199999999999997</c:v>
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$298:$D$311</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8259,11 +8607,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-22540544"/>
-        <c:axId val="-22537824"/>
+        <c:axId val="-1994388704"/>
+        <c:axId val="-1994389248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-22540544"/>
+        <c:axId val="-1994388704"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8305,7 +8653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22537824"/>
+        <c:crossAx val="-1994389248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8313,7 +8661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-22537824"/>
+        <c:axId val="-1994389248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8417,7 +8765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22540544"/>
+        <c:crossAx val="-1994388704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8616,7 +8964,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$298</c:f>
+              <c:f>Sheet1!$B$304</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8666,9 +9014,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$299:$A$308</c:f>
+              <c:f>Sheet1!$A$298:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -8676,38 +9024,41 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$299:$B$308</c:f>
+              <c:f>Sheet1!$B$298:$B$308</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -8715,28 +9066,31 @@
                   <c:v>0.86765499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.89562600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89299799999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90407400000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.79294200000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89562600000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.89299799999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90407400000000004</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.67</c:v>
-                </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.65</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.63</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8747,7 +9101,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$298</c:f>
+              <c:f>Sheet1!$C$304</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8797,9 +9151,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$299:$A$308</c:f>
+              <c:f>Sheet1!$A$298:$A$308</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -8807,38 +9161,41 @@
                   <c:v>J48-Unpruned</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Bagging</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>SVM c10k</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$299:$C$308</c:f>
+              <c:f>Sheet1!$C$298:$C$308</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
@@ -8846,28 +9203,31 @@
                   <c:v>0.86120000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.83660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80709999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87769999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.70840000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.83660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80709999999999993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87769999999999992</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.61</c:v>
-                </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>0.59</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8883,11 +9243,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-22543808"/>
-        <c:axId val="-22542720"/>
+        <c:axId val="-1994389792"/>
+        <c:axId val="-1994381088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-22543808"/>
+        <c:axId val="-1994389792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8929,7 +9289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22542720"/>
+        <c:crossAx val="-1994381088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8937,7 +9297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-22542720"/>
+        <c:axId val="-1994381088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9041,7 +9401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22543808"/>
+        <c:crossAx val="-1994389792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9308,13 +9668,13 @@
                   <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -9359,13 +9719,13 @@
                   <c:v>0.90100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.82699999999999996</c:v>
@@ -9463,13 +9823,13 @@
                   <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -9514,13 +9874,13 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.88900000000000001</c:v>
@@ -9545,11 +9905,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-22531296"/>
-        <c:axId val="-22532384"/>
+        <c:axId val="-1994386528"/>
+        <c:axId val="-1994378368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-22531296"/>
+        <c:axId val="-1994386528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9591,7 +9951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22532384"/>
+        <c:crossAx val="-1994378368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9599,7 +9959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-22532384"/>
+        <c:axId val="-1994378368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9703,7 +10063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22531296"/>
+        <c:crossAx val="-1994386528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9970,13 +10330,13 @@
                   <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -10021,13 +10381,13 @@
                   <c:v>0.876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.83099999999999996</c:v>
@@ -10125,13 +10485,13 @@
                   <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -10176,13 +10536,13 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.90300000000000002</c:v>
@@ -10207,11 +10567,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-22540000"/>
-        <c:axId val="-22533472"/>
+        <c:axId val="-1994377824"/>
+        <c:axId val="-1994390336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-22540000"/>
+        <c:axId val="-1994377824"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10253,7 +10613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22533472"/>
+        <c:crossAx val="-1994390336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10261,7 +10621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-22533472"/>
+        <c:axId val="-1994390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10365,7 +10725,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22540000"/>
+        <c:crossAx val="-1994377824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10632,13 +10992,13 @@
                   <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -10683,13 +11043,13 @@
                   <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.58899999999999997</c:v>
@@ -10787,13 +11147,13 @@
                   <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>SVM c10k</c:v>
+                  <c:v>SVM c1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>SVM c100k</c:v>
+                  <c:v>SVM c 0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>SVM c1000k</c:v>
+                  <c:v>SVM c 0.001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1-NN</c:v>
@@ -10838,13 +11198,13 @@
                   <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.91100000000000003</c:v>
@@ -10869,11 +11229,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-22542176"/>
-        <c:axId val="-22530752"/>
+        <c:axId val="-1994380544"/>
+        <c:axId val="-1994384896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-22542176"/>
+        <c:axId val="-1994380544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10915,7 +11275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22530752"/>
+        <c:crossAx val="-1994384896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10923,7 +11283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-22530752"/>
+        <c:axId val="-1994384896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11027,7 +11387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-22542176"/>
+        <c:crossAx val="-1994380544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11166,6 +11526,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11409,11 +11770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-182424848"/>
-        <c:axId val="-182428656"/>
+        <c:axId val="-19152384"/>
+        <c:axId val="-19154560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-182424848"/>
+        <c:axId val="-19152384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11496,6 +11857,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11556,7 +11918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182428656"/>
+        <c:crossAx val="-19154560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11564,7 +11926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-182428656"/>
+        <c:axId val="-19154560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -11621,6 +11983,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11679,7 +12042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182424848"/>
+        <c:crossAx val="-19152384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11693,6 +12056,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11801,6 +12165,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12026,11 +12391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-182427024"/>
-        <c:axId val="-182416688"/>
+        <c:axId val="-19154016"/>
+        <c:axId val="-19152928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-182427024"/>
+        <c:axId val="-19154016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12073,7 +12438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182416688"/>
+        <c:crossAx val="-19152928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12081,7 +12446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-182416688"/>
+        <c:axId val="-19152928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12132,7 +12497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182427024"/>
+        <c:crossAx val="-19154016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12146,6 +12511,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12316,6 +12682,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12515,11 +12882,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-182415056"/>
-        <c:axId val="-281898288"/>
+        <c:axId val="-19150208"/>
+        <c:axId val="-19148032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-182415056"/>
+        <c:axId val="-19150208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12555,7 +12922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-281898288"/>
+        <c:crossAx val="-19148032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12563,7 +12930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-281898288"/>
+        <c:axId val="-19148032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12609,6 +12976,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12667,7 +13035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-182415056"/>
+        <c:crossAx val="-19150208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12814,6 +13182,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12999,11 +13368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-21932416"/>
-        <c:axId val="-21935136"/>
+        <c:axId val="-1995426048"/>
+        <c:axId val="-1995436928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21932416"/>
+        <c:axId val="-1995426048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -13039,7 +13408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21935136"/>
+        <c:crossAx val="-1995436928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13047,7 +13416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21935136"/>
+        <c:axId val="-1995436928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13100,7 +13469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21932416"/>
+        <c:crossAx val="-1995426048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13288,6 +13657,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13476,11 +13846,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-21940576"/>
-        <c:axId val="-21930240"/>
+        <c:axId val="-1995425504"/>
+        <c:axId val="-1995431488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21940576"/>
+        <c:axId val="-1995425504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13516,7 +13886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21930240"/>
+        <c:crossAx val="-1995431488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13524,7 +13894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21930240"/>
+        <c:axId val="-1995431488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13579,6 +13949,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13637,7 +14008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21940576"/>
+        <c:crossAx val="-1995425504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13784,6 +14155,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13958,11 +14330,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-21943840"/>
-        <c:axId val="-21932960"/>
+        <c:axId val="-1995424960"/>
+        <c:axId val="-1995424416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21943840"/>
+        <c:axId val="-1995424960"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -13998,7 +14370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21932960"/>
+        <c:crossAx val="-1995424416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14006,7 +14378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21932960"/>
+        <c:axId val="-1995424416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14059,7 +14431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21943840"/>
+        <c:crossAx val="-1995424960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14247,6 +14619,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14435,11 +14808,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-21934048"/>
-        <c:axId val="-21938400"/>
+        <c:axId val="-1995423872"/>
+        <c:axId val="-1995423328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-21934048"/>
+        <c:axId val="-1995423872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14475,7 +14848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21938400"/>
+        <c:crossAx val="-1995423328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14483,7 +14856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-21938400"/>
+        <c:axId val="-1995423328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14538,6 +14911,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14596,7 +14970,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-21934048"/>
+        <c:crossAx val="-1995423872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28952,23 +29326,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z236" sqref="Z236"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -29044,16 +29421,16 @@
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="52"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="50"/>
+      <c r="B22" s="45"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -29129,16 +29506,16 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="52"/>
+      <c r="B37" s="47"/>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="50"/>
+      <c r="B38" s="45"/>
     </row>
     <row r="39" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -29241,20 +29618,20 @@
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="52"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="47"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
     </row>
     <row r="59" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -29312,20 +29689,20 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="52"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="47"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="50"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="45"/>
     </row>
     <row r="66" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -29383,39 +29760,39 @@
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="34"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="36"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="54" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="29" t="s">
+      <c r="C74" s="40"/>
+      <c r="D74" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I74" s="7" t="s">
@@ -29429,14 +29806,14 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="36"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
       <c r="I75" s="8" t="s">
         <v>22</v>
       </c>
@@ -29455,11 +29832,11 @@
       <c r="C76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="10">
@@ -29834,39 +30211,39 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="32" t="s">
+      <c r="A132" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
-      <c r="K132" s="34"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="36"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="35"/>
-      <c r="B133" s="54" t="s">
+      <c r="A133" s="37"/>
+      <c r="B133" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="55"/>
-      <c r="D133" s="29" t="s">
+      <c r="C133" s="40"/>
+      <c r="D133" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E133" s="29" t="s">
+      <c r="E133" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F133" s="29" t="s">
+      <c r="F133" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G133" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="29" t="s">
+      <c r="H133" s="31" t="s">
         <v>4</v>
       </c>
       <c r="I133" s="7" t="s">
@@ -29880,14 +30257,14 @@
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="36"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
+      <c r="A134" s="38"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
       <c r="I134" s="8" t="s">
         <v>22</v>
       </c>
@@ -29906,11 +30283,11 @@
       <c r="C135" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="10">
@@ -30219,7 +30596,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="15" t="s">
         <v>32</v>
       </c>
@@ -30227,7 +30604,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="15" t="s">
         <v>4</v>
       </c>
@@ -30235,7 +30612,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="15" t="s">
         <v>28</v>
       </c>
@@ -30243,7 +30620,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
         <v>29</v>
       </c>
@@ -30251,7 +30628,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="s">
         <v>30</v>
       </c>
@@ -30259,53 +30636,144 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" spans="1:2" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:15" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>45</v>
+      </c>
+      <c r="D208" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>26</v>
+      </c>
+      <c r="B209">
+        <v>0.81415400000000004</v>
+      </c>
+      <c r="C209">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D209">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>31</v>
+      </c>
+      <c r="B210" s="58">
+        <v>0.83048599999999995</v>
+      </c>
+      <c r="C210">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D210">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>46</v>
+      </c>
+      <c r="B211">
+        <v>0.77604700000000004</v>
+      </c>
+      <c r="C211">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D211">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>3</v>
+      </c>
+      <c r="B212">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C212">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D212">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>32</v>
+      </c>
+      <c r="B213">
+        <v>0.75558499999999995</v>
+      </c>
+      <c r="C213">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D213">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="C214">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D214">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
     <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="218" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B218" s="33"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="33"/>
-      <c r="K218" s="34"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="35"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="35"/>
+      <c r="I218" s="35"/>
+      <c r="J218" s="35"/>
+      <c r="K218" s="36"/>
     </row>
     <row r="219" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="35"/>
-      <c r="B219" s="46" t="s">
+      <c r="A219" s="37"/>
+      <c r="B219" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C219" s="54" t="s">
+      <c r="C219" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D219" s="55"/>
-      <c r="E219" s="29" t="s">
+      <c r="D219" s="40"/>
+      <c r="E219" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F219" s="29" t="s">
+      <c r="F219" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G219" s="29" t="s">
+      <c r="G219" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="29" t="s">
+      <c r="H219" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I219" s="29" t="s">
+      <c r="I219" s="31" t="s">
         <v>4</v>
       </c>
       <c r="J219" s="24" t="s">
@@ -30317,26 +30785,26 @@
       <c r="L219" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M219" s="29" t="s">
+      <c r="M219" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N219" s="29" t="s">
+      <c r="N219" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O219" s="29" t="s">
+      <c r="O219" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="36"/>
-      <c r="B220" s="47"/>
-      <c r="C220" s="56"/>
-      <c r="D220" s="57"/>
-      <c r="E220" s="30"/>
-      <c r="F220" s="30"/>
-      <c r="G220" s="30"/>
-      <c r="H220" s="30"/>
-      <c r="I220" s="30"/>
+      <c r="A220" s="38"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="41"/>
+      <c r="D220" s="42"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
       <c r="J220" s="25" t="s">
         <v>22</v>
       </c>
@@ -30346,9 +30814,9 @@
       <c r="L220" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M220" s="30"/>
-      <c r="N220" s="30"/>
-      <c r="O220" s="30"/>
+      <c r="M220" s="32"/>
+      <c r="N220" s="32"/>
+      <c r="O220" s="32"/>
     </row>
     <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
@@ -30359,19 +30827,19 @@
       <c r="D221" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E221" s="31"/>
-      <c r="F221" s="31"/>
-      <c r="G221" s="31"/>
-      <c r="H221" s="31"/>
-      <c r="I221" s="31"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="33"/>
       <c r="J221" s="12"/>
       <c r="K221" s="12"/>
       <c r="L221" s="26">
         <v>1000000</v>
       </c>
-      <c r="M221" s="31"/>
-      <c r="N221" s="31"/>
-      <c r="O221" s="31"/>
+      <c r="M221" s="33"/>
+      <c r="N221" s="33"/>
+      <c r="O221" s="33"/>
     </row>
     <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11" t="s">
@@ -30402,13 +30870,13 @@
         <v>87.77</v>
       </c>
       <c r="J222" s="23">
-        <v>0.39</v>
+        <v>0.88</v>
       </c>
       <c r="K222" s="23">
-        <v>0.54</v>
+        <v>0.88</v>
       </c>
       <c r="L222" s="23">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="M222" s="11">
         <v>0.89400000000000002</v>
@@ -30449,13 +30917,13 @@
         <v>0.89</v>
       </c>
       <c r="J223" s="23">
-        <v>0.56000000000000005</v>
+        <v>0.86</v>
       </c>
       <c r="K223" s="23">
-        <v>0.49</v>
+        <v>0.86</v>
       </c>
       <c r="L223" s="23">
-        <v>0.49</v>
+        <v>0.86</v>
       </c>
       <c r="M223" s="11">
         <v>0.9</v>
@@ -30496,13 +30964,13 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="J224" s="23">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="K224" s="23">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="L224" s="23">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
       <c r="M224" s="11">
         <v>0.91300000000000003</v>
@@ -30516,42 +30984,42 @@
     </row>
     <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="32" t="s">
+      <c r="A227" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B227" s="33"/>
-      <c r="C227" s="33"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="33"/>
-      <c r="K227" s="34"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="35"/>
+      <c r="D227" s="35"/>
+      <c r="E227" s="35"/>
+      <c r="F227" s="35"/>
+      <c r="G227" s="35"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="35"/>
+      <c r="J227" s="35"/>
+      <c r="K227" s="36"/>
     </row>
     <row r="228" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="35"/>
-      <c r="B228" s="46" t="s">
+      <c r="A228" s="37"/>
+      <c r="B228" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C228" s="54" t="s">
+      <c r="C228" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D228" s="55"/>
-      <c r="E228" s="29" t="s">
+      <c r="D228" s="40"/>
+      <c r="E228" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F228" s="29" t="s">
+      <c r="F228" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G228" s="29" t="s">
+      <c r="G228" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H228" s="29" t="s">
+      <c r="H228" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I228" s="29" t="s">
+      <c r="I228" s="31" t="s">
         <v>4</v>
       </c>
       <c r="J228" s="20" t="s">
@@ -30563,26 +31031,26 @@
       <c r="L228" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M228" s="29" t="s">
+      <c r="M228" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N228" s="29" t="s">
+      <c r="N228" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O228" s="29" t="s">
+      <c r="O228" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="36"/>
-      <c r="B229" s="47"/>
-      <c r="C229" s="56"/>
-      <c r="D229" s="57"/>
-      <c r="E229" s="30"/>
-      <c r="F229" s="30"/>
-      <c r="G229" s="30"/>
-      <c r="H229" s="30"/>
-      <c r="I229" s="30"/>
+      <c r="A229" s="38"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="41"/>
+      <c r="D229" s="42"/>
+      <c r="E229" s="32"/>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
       <c r="J229" s="21" t="s">
         <v>22</v>
       </c>
@@ -30592,9 +31060,9 @@
       <c r="L229" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M229" s="30"/>
-      <c r="N229" s="30"/>
-      <c r="O229" s="30"/>
+      <c r="M229" s="32"/>
+      <c r="N229" s="32"/>
+      <c r="O229" s="32"/>
     </row>
     <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
@@ -30605,19 +31073,19 @@
       <c r="D230" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E230" s="31"/>
-      <c r="F230" s="31"/>
-      <c r="G230" s="31"/>
-      <c r="H230" s="31"/>
-      <c r="I230" s="31"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="33"/>
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="22">
         <v>1000000</v>
       </c>
-      <c r="M230" s="31"/>
-      <c r="N230" s="31"/>
-      <c r="O230" s="31"/>
+      <c r="M230" s="33"/>
+      <c r="N230" s="33"/>
+      <c r="O230" s="33"/>
     </row>
     <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="11" t="s">
@@ -30648,13 +31116,13 @@
         <v>0.90407400000000004</v>
       </c>
       <c r="J231" s="23">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="K231" s="23">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="L231" s="23">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M231" s="23">
         <v>0.84</v>
@@ -30695,13 +31163,13 @@
         <v>0.88</v>
       </c>
       <c r="J232" s="23">
-        <v>0.24</v>
+        <v>0.87</v>
       </c>
       <c r="K232" s="23">
-        <v>2E-3</v>
+        <v>0.87</v>
       </c>
       <c r="L232" s="23">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="M232" s="23">
         <v>0.84</v>
@@ -30742,13 +31210,13 @@
         <v>0.71</v>
       </c>
       <c r="J233" s="23">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="K233" s="23">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="L233" s="23">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="M233" s="23">
         <v>0.60099999999999998</v>
@@ -30760,35 +31228,22 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="44" t="s">
+    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="13"/>
+      <c r="B236" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C235" s="45"/>
-    </row>
-    <row r="236" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="13"/>
-      <c r="B236" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="C236" s="30"/>
     </row>
     <row r="237" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B237" s="23">
-        <f>B231</f>
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="C237" s="23">
-        <f>B222</f>
-        <v>0.95</v>
+      <c r="B237" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -30801,6 +31256,9 @@
       <c r="C238" s="16">
         <v>0.85499999999999998</v>
       </c>
+      <c r="D238">
+        <v>0.81415400000000004</v>
+      </c>
     </row>
     <row r="239" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="14" t="s">
@@ -30812,441 +31270,512 @@
       <c r="C239" s="16">
         <v>0.86120000000000008</v>
       </c>
+      <c r="D239" s="58">
+        <v>0.83048599999999995</v>
+      </c>
     </row>
     <row r="240" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B240" s="11">
-        <v>0.81299999999999994</v>
+        <v>0.874</v>
       </c>
       <c r="C240" s="16">
-        <v>0.70840000000000003</v>
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="D240">
+        <v>0.77604700000000004</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B241" s="11">
-        <v>0.874</v>
+        <v>0.873</v>
       </c>
       <c r="C241" s="16">
-        <v>0.83660000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D241">
-        <v>0.76</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B242" s="11">
         <v>0.873</v>
       </c>
       <c r="C242" s="16">
-        <v>0.79</v>
+        <v>0.80709999999999993</v>
+      </c>
+      <c r="D242">
+        <v>0.75558499999999995</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="15" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B243" s="11">
-        <v>0.873</v>
+        <v>0.88</v>
       </c>
       <c r="C243" s="16">
-        <v>0.80709999999999993</v>
+        <v>0.87769999999999992</v>
+      </c>
+      <c r="D243">
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B244" s="11">
-        <v>0.88</v>
-      </c>
-      <c r="C244" s="16">
-        <v>0.87769999999999992</v>
+      <c r="A244" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B244" s="23">
+        <f>B231</f>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="C244" s="23">
+        <f>B222</f>
+        <v>0.95</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B245" s="23">
-        <v>0.73</v>
-      </c>
-      <c r="C245" s="23">
-        <v>0.39</v>
+        <v>1</v>
+      </c>
+      <c r="B245" s="11">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="C245" s="16">
+        <v>0.70840000000000003</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B246" s="23">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C246" s="23">
-        <v>0.54</v>
+        <v>0.88</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B247" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="C247" s="23">
         <v>0.88</v>
-      </c>
-      <c r="C247" s="23">
-        <v>0.62</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="7" t="s">
-        <v>36</v>
+      <c r="A248" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B248" s="23">
-        <v>0.84</v>
-      </c>
-      <c r="C248" s="11">
-        <f>M222</f>
-        <v>0.89400000000000002</v>
+        <v>0.89</v>
+      </c>
+      <c r="C248" s="23">
+        <v>0.88</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B249" s="23">
-        <v>0.86199999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="C249" s="11">
-        <f>N222</f>
-        <v>0.75800000000000001</v>
+        <f>M222</f>
+        <v>0.89400000000000002</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B250" s="23">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C250" s="11">
+        <f>N222</f>
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B250" s="23">
+      <c r="B251" s="23">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C250" s="11">
+      <c r="C251" s="11">
         <f>O222</f>
         <v>0.71</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="44" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="13"/>
+    </row>
+    <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B264" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C266" s="45"/>
+      <c r="C264" s="30"/>
     </row>
-    <row r="267" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="13"/>
-      <c r="B267" s="14" t="s">
+    <row r="265" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C267" s="14" t="s">
+      <c r="C265" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D265" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="268" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="13" t="s">
+    <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266" s="17">
+        <v>0.90538799999999997</v>
+      </c>
+      <c r="C266" s="11">
+        <v>0.874</v>
+      </c>
+      <c r="D266">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B267" s="17">
+        <v>0.86765499999999995</v>
+      </c>
+      <c r="C267" s="11">
+        <v>0.879</v>
+      </c>
+      <c r="D267">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268" s="17">
+        <v>0.89562600000000003</v>
+      </c>
+      <c r="C268" s="11">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D268">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" s="17">
+        <v>0.89299799999999996</v>
+      </c>
+      <c r="C269" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="D269">
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B270" s="17">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C270" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D270">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B271" s="17">
+        <v>0.90407400000000004</v>
+      </c>
+      <c r="C271" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="D271">
+        <v>0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B268" s="14">
+      <c r="B272" s="14">
         <f>B232</f>
         <v>0.876</v>
       </c>
-      <c r="C268" s="14">
+      <c r="C272" s="14">
         <f>B223</f>
         <v>0.95299999999999996</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B269" s="17">
-        <v>0.90538799999999997</v>
-      </c>
-      <c r="C269" s="11">
-        <v>0.874</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B270" s="17">
-        <v>0.86765499999999995</v>
-      </c>
-      <c r="C270" s="11">
-        <v>0.879</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B271" s="17">
-        <v>0.79294200000000004</v>
-      </c>
-      <c r="C271" s="11">
-        <v>0.753</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B272" s="17">
-        <v>0.89562600000000003</v>
-      </c>
-      <c r="C272" s="11">
-        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B273" s="17">
-        <v>0.89299799999999996</v>
+        <v>0.79294200000000004</v>
       </c>
       <c r="C273" s="11">
-        <v>0.81</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B274" s="17">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="C274" s="11">
-        <v>0.82099999999999995</v>
+        <v>47</v>
+      </c>
+      <c r="B274" s="23">
+        <v>0.87</v>
+      </c>
+      <c r="C274" s="23">
+        <v>0.86</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B275" s="17">
-        <v>0.90407400000000004</v>
-      </c>
-      <c r="C275" s="11">
-        <v>0.89</v>
+        <v>49</v>
+      </c>
+      <c r="B275" s="23">
+        <v>0.87</v>
+      </c>
+      <c r="C275" s="23">
+        <v>0.86</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B276" s="23">
-        <v>0.24</v>
+        <v>0.86</v>
       </c>
       <c r="C276" s="23">
-        <v>0.56000000000000005</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="15" t="s">
-        <v>29</v>
+      <c r="A277" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B277" s="23">
-        <v>2E-3</v>
-      </c>
-      <c r="C277" s="23">
-        <v>0.49</v>
+        <v>0.84</v>
+      </c>
+      <c r="C277" s="11">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="15" t="s">
-        <v>30</v>
+    <row r="278" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B278" s="23">
-        <v>0.17</v>
-      </c>
-      <c r="C278" s="23">
-        <v>0.49</v>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C278" s="11">
+        <v>0.79800000000000004</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B279" s="23">
-        <v>0.84</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="C279" s="11">
-        <v>0.9</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B280" s="23">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="C280" s="11">
-        <v>0.79800000000000004</v>
-      </c>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="13"/>
     </row>
-    <row r="281" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B281" s="23">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="C281" s="11">
-        <v>0.76600000000000001</v>
-      </c>
+    <row r="296" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B296" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C296" s="30"/>
     </row>
-    <row r="296" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C296" s="45"/>
-    </row>
-    <row r="297" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A297" s="13"/>
+    <row r="297" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B297" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C297" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="D297" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="298" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="13" t="s">
+    <row r="298" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B298" s="17">
+        <v>0.90538799999999997</v>
+      </c>
+      <c r="C298" s="16">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D298">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B299" s="17">
+        <v>0.86765499999999995</v>
+      </c>
+      <c r="C299" s="16">
+        <v>0.86120000000000008</v>
+      </c>
+      <c r="D299">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300" s="17">
+        <v>0.89562600000000003</v>
+      </c>
+      <c r="C300" s="16">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="D300">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="17">
+        <v>0.89299799999999996</v>
+      </c>
+      <c r="C301" s="16">
+        <v>0.79</v>
+      </c>
+      <c r="D301">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B302" s="17">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="C302" s="16">
+        <v>0.80709999999999993</v>
+      </c>
+      <c r="D302">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B303" s="17">
+        <v>0.90407400000000004</v>
+      </c>
+      <c r="C303" s="16">
+        <v>0.87769999999999992</v>
+      </c>
+      <c r="D303">
+        <v>0.69599999999999995</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B298" s="14">
+      <c r="B304" s="14">
         <f>B233</f>
         <v>0.68700000000000006</v>
       </c>
-      <c r="C298" s="14">
+      <c r="C304" s="14">
         <f>B224</f>
         <v>0.99</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B299" s="17">
-        <v>0.90538799999999997</v>
-      </c>
-      <c r="C299" s="16">
-        <v>0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A300" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B300" s="17">
-        <v>0.86765499999999995</v>
-      </c>
-      <c r="C300" s="16">
-        <v>0.86120000000000008</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B301" s="17">
-        <v>0.79294200000000004</v>
-      </c>
-      <c r="C301" s="16">
-        <v>0.70840000000000003</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B302" s="17">
-        <v>0.89562600000000003</v>
-      </c>
-      <c r="C302" s="16">
-        <v>0.83660000000000001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B303" s="17">
-        <v>0.89299799999999996</v>
-      </c>
-      <c r="C303" s="16">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B304" s="17">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="C304" s="16">
-        <v>0.80709999999999993</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B305" s="17">
-        <v>0.90407400000000004</v>
+        <v>0.79294200000000004</v>
       </c>
       <c r="C305" s="16">
-        <v>0.87769999999999992</v>
+        <v>0.70840000000000003</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B306" s="23">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="C306" s="23">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="15" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B307" s="23">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C307" s="23">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B308" s="23">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="C308" s="23">
-        <v>0.56999999999999995</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -31284,46 +31813,46 @@
     </row>
     <row r="323" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="324" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="32" t="s">
+      <c r="A324" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B324" s="33"/>
-      <c r="C324" s="33"/>
-      <c r="D324" s="33"/>
-      <c r="E324" s="33"/>
-      <c r="F324" s="33"/>
-      <c r="G324" s="33"/>
-      <c r="H324" s="33"/>
-      <c r="I324" s="33"/>
-      <c r="J324" s="33"/>
-      <c r="K324" s="33"/>
-      <c r="L324" s="33"/>
-      <c r="M324" s="33"/>
-      <c r="N324" s="33"/>
-      <c r="O324" s="34"/>
+      <c r="B324" s="35"/>
+      <c r="C324" s="35"/>
+      <c r="D324" s="35"/>
+      <c r="E324" s="35"/>
+      <c r="F324" s="35"/>
+      <c r="G324" s="35"/>
+      <c r="H324" s="35"/>
+      <c r="I324" s="35"/>
+      <c r="J324" s="35"/>
+      <c r="K324" s="35"/>
+      <c r="L324" s="35"/>
+      <c r="M324" s="35"/>
+      <c r="N324" s="35"/>
+      <c r="O324" s="36"/>
     </row>
     <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="35"/>
-      <c r="B325" s="37" t="s">
+      <c r="A325" s="37"/>
+      <c r="B325" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C325" s="39" t="s">
+      <c r="C325" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D325" s="40"/>
-      <c r="E325" s="37" t="s">
+      <c r="D325" s="55"/>
+      <c r="E325" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F325" s="37" t="s">
+      <c r="F325" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G325" s="37" t="s">
+      <c r="G325" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H325" s="37" t="s">
+      <c r="H325" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I325" s="37" t="s">
+      <c r="I325" s="49" t="s">
         <v>4</v>
       </c>
       <c r="J325" s="24" t="s">
@@ -31335,26 +31864,26 @@
       <c r="L325" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M325" s="29" t="s">
+      <c r="M325" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N325" s="29" t="s">
+      <c r="N325" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O325" s="29" t="s">
+      <c r="O325" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:15" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="36"/>
-      <c r="B326" s="38"/>
-      <c r="C326" s="41"/>
-      <c r="D326" s="42"/>
-      <c r="E326" s="43"/>
-      <c r="F326" s="43"/>
-      <c r="G326" s="43"/>
-      <c r="H326" s="43"/>
-      <c r="I326" s="43"/>
+      <c r="A326" s="38"/>
+      <c r="B326" s="51"/>
+      <c r="C326" s="56"/>
+      <c r="D326" s="57"/>
+      <c r="E326" s="50"/>
+      <c r="F326" s="50"/>
+      <c r="G326" s="50"/>
+      <c r="H326" s="50"/>
+      <c r="I326" s="50"/>
       <c r="J326" s="25" t="s">
         <v>22</v>
       </c>
@@ -31364,9 +31893,9 @@
       <c r="L326" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M326" s="30"/>
-      <c r="N326" s="30"/>
-      <c r="O326" s="30"/>
+      <c r="M326" s="32"/>
+      <c r="N326" s="32"/>
+      <c r="O326" s="32"/>
     </row>
     <row r="327" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
@@ -31377,19 +31906,19 @@
       <c r="D327" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E327" s="38"/>
-      <c r="F327" s="38"/>
-      <c r="G327" s="38"/>
-      <c r="H327" s="38"/>
-      <c r="I327" s="38"/>
+      <c r="E327" s="51"/>
+      <c r="F327" s="51"/>
+      <c r="G327" s="51"/>
+      <c r="H327" s="51"/>
+      <c r="I327" s="51"/>
       <c r="J327" s="12"/>
       <c r="K327" s="12"/>
       <c r="L327" s="26">
         <v>1000000</v>
       </c>
-      <c r="M327" s="31"/>
-      <c r="N327" s="31"/>
-      <c r="O327" s="31"/>
+      <c r="M327" s="33"/>
+      <c r="N327" s="33"/>
+      <c r="O327" s="33"/>
     </row>
     <row r="328" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="23" t="s">
@@ -31419,9 +31948,15 @@
       <c r="I328" s="23">
         <v>0.95</v>
       </c>
-      <c r="J328" s="1"/>
-      <c r="K328" s="1"/>
-      <c r="L328" s="1"/>
+      <c r="J328" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="K328" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="L328" s="23">
+        <v>0.88</v>
+      </c>
       <c r="M328" s="23">
         <v>0.88900000000000001</v>
       </c>
@@ -31460,9 +31995,15 @@
       <c r="I329" s="23">
         <v>0.95</v>
       </c>
-      <c r="J329" s="1"/>
-      <c r="K329" s="1"/>
-      <c r="L329" s="1"/>
+      <c r="J329" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="K329" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="L329" s="23">
+        <v>0.86</v>
+      </c>
       <c r="M329" s="23">
         <v>0.90300000000000002</v>
       </c>
@@ -31501,9 +32042,15 @@
       <c r="I330" s="23">
         <v>0.98699999999999999</v>
       </c>
-      <c r="J330" s="1"/>
-      <c r="K330" s="1"/>
-      <c r="L330" s="1"/>
+      <c r="J330" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="K330" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="L330" s="23">
+        <v>0.59</v>
+      </c>
       <c r="M330" s="23">
         <v>0.91100000000000003</v>
       </c>
@@ -31521,43 +32068,43 @@
       <c r="A332" s="28"/>
     </row>
     <row r="333" spans="1:15" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="32" t="s">
+      <c r="A333" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B333" s="33"/>
-      <c r="C333" s="33"/>
-      <c r="D333" s="33"/>
-      <c r="E333" s="33"/>
-      <c r="F333" s="33"/>
-      <c r="G333" s="33"/>
-      <c r="H333" s="33"/>
-      <c r="I333" s="33"/>
-      <c r="J333" s="33"/>
-      <c r="K333" s="33"/>
-      <c r="L333" s="33"/>
-      <c r="M333" s="33"/>
-      <c r="N333" s="33"/>
-      <c r="O333" s="34"/>
+      <c r="B333" s="35"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="35"/>
+      <c r="E333" s="35"/>
+      <c r="F333" s="35"/>
+      <c r="G333" s="35"/>
+      <c r="H333" s="35"/>
+      <c r="I333" s="35"/>
+      <c r="J333" s="35"/>
+      <c r="K333" s="35"/>
+      <c r="L333" s="35"/>
+      <c r="M333" s="35"/>
+      <c r="N333" s="35"/>
+      <c r="O333" s="36"/>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A334" s="35"/>
-      <c r="B334" s="37" t="s">
+      <c r="A334" s="37"/>
+      <c r="B334" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C334" s="39" t="s">
+      <c r="C334" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D334" s="40"/>
-      <c r="E334" s="37" t="s">
+      <c r="D334" s="55"/>
+      <c r="E334" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F334" s="37" t="s">
+      <c r="F334" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G334" s="37" t="s">
+      <c r="G334" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H334" s="37" t="s">
+      <c r="H334" s="49" t="s">
         <v>32</v>
       </c>
       <c r="I334" s="24" t="s">
@@ -31572,25 +32119,25 @@
       <c r="L334" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M334" s="29" t="s">
+      <c r="M334" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N334" s="29" t="s">
+      <c r="N334" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="O334" s="29" t="s">
+      <c r="O334" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="36"/>
-      <c r="B335" s="38"/>
-      <c r="C335" s="41"/>
-      <c r="D335" s="42"/>
-      <c r="E335" s="43"/>
-      <c r="F335" s="43"/>
-      <c r="G335" s="43"/>
-      <c r="H335" s="43"/>
+      <c r="A335" s="38"/>
+      <c r="B335" s="51"/>
+      <c r="C335" s="56"/>
+      <c r="D335" s="57"/>
+      <c r="E335" s="50"/>
+      <c r="F335" s="50"/>
+      <c r="G335" s="50"/>
+      <c r="H335" s="50"/>
       <c r="I335" s="25" t="s">
         <v>41</v>
       </c>
@@ -31603,9 +32150,9 @@
       <c r="L335" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M335" s="30"/>
-      <c r="N335" s="30"/>
-      <c r="O335" s="30"/>
+      <c r="M335" s="32"/>
+      <c r="N335" s="32"/>
+      <c r="O335" s="32"/>
     </row>
     <row r="336" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
@@ -31616,19 +32163,19 @@
       <c r="D336" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E336" s="38"/>
-      <c r="F336" s="38"/>
-      <c r="G336" s="38"/>
-      <c r="H336" s="38"/>
+      <c r="E336" s="51"/>
+      <c r="F336" s="51"/>
+      <c r="G336" s="51"/>
+      <c r="H336" s="51"/>
       <c r="I336" s="12"/>
       <c r="J336" s="12"/>
       <c r="K336" s="12"/>
       <c r="L336" s="26">
         <v>1000000</v>
       </c>
-      <c r="M336" s="31"/>
-      <c r="N336" s="31"/>
-      <c r="O336" s="31"/>
+      <c r="M336" s="33"/>
+      <c r="N336" s="33"/>
+      <c r="O336" s="33"/>
     </row>
     <row r="337" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="23" t="s">
@@ -31658,9 +32205,15 @@
       <c r="I337" s="23">
         <v>0.90100000000000002</v>
       </c>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
+      <c r="J337" s="23">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="K337" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="L337" s="23">
+        <v>0.89</v>
+      </c>
       <c r="M337" s="23">
         <v>0.82699999999999996</v>
       </c>
@@ -31699,9 +32252,15 @@
       <c r="I338" s="23">
         <v>0.876</v>
       </c>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
+      <c r="J338" s="23">
+        <v>0.87</v>
+      </c>
+      <c r="K338" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="L338" s="23">
+        <v>0.85</v>
+      </c>
       <c r="M338" s="23">
         <v>0.83099999999999996</v>
       </c>
@@ -31740,9 +32299,15 @@
       <c r="I339" s="23">
         <v>0.70799999999999996</v>
       </c>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
+      <c r="J339" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="K339" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="L339" s="23">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="M339" s="23">
         <v>0.58899999999999997</v>
       </c>
@@ -31754,10 +32319,10 @@
       </c>
     </row>
     <row r="342" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="44" t="s">
+      <c r="B342" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C342" s="45"/>
+      <c r="C342" s="30"/>
     </row>
     <row r="343" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="13"/>
@@ -31860,15 +32425,15 @@
     </row>
     <row r="352" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B352" s="1">
         <f>J337</f>
-        <v>0</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="C352" s="1">
         <f>J328</f>
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="E352">
         <v>0.82699999999999996</v>
@@ -31882,28 +32447,28 @@
     </row>
     <row r="353" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="15" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B353" s="1">
         <f>K337</f>
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="C353" s="1">
         <f>K328</f>
-        <v>0</v>
+        <v>0.88</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B354" s="1">
         <f>L337</f>
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="C354" s="1">
         <f>L328</f>
-        <v>0</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -32046,41 +32611,41 @@
     </row>
     <row r="383" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B383" s="1">
         <f>J338</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="C383" s="6">
         <f>J329</f>
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="15" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B384" s="1">
         <f>K338</f>
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="C384" s="6">
         <f>K329</f>
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B385" s="1">
         <f>L338</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="C385" s="6">
         <f>L329</f>
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -32229,41 +32794,41 @@
     </row>
     <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B413" s="1">
         <f>J339</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C413" s="1">
         <f>J330</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="15" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B414" s="1">
         <f>K339</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C414" s="1">
         <f>K330</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B415" s="1">
         <f>L339</f>
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C415" s="1">
         <f>L330</f>
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -32307,68 +32872,6 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="N228:N230"/>
-    <mergeCell ref="M228:M230"/>
-    <mergeCell ref="M219:M221"/>
-    <mergeCell ref="N219:N221"/>
-    <mergeCell ref="O219:O221"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="G228:G230"/>
-    <mergeCell ref="H228:H230"/>
-    <mergeCell ref="I228:I230"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:D220"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="G219:G221"/>
-    <mergeCell ref="H219:H221"/>
-    <mergeCell ref="I219:I221"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:C134"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="I325:I327"/>
-    <mergeCell ref="M325:M327"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="A324:O324"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="C325:D326"/>
-    <mergeCell ref="E325:E327"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="O228:O230"/>
-    <mergeCell ref="A227:K227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="C228:D229"/>
-    <mergeCell ref="N325:N327"/>
     <mergeCell ref="O325:O327"/>
     <mergeCell ref="A333:O333"/>
     <mergeCell ref="A334:A335"/>
@@ -32384,6 +32887,68 @@
     <mergeCell ref="F325:F327"/>
     <mergeCell ref="G325:G327"/>
     <mergeCell ref="H325:H327"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:D326"/>
+    <mergeCell ref="E325:E327"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="A324:O324"/>
+    <mergeCell ref="O228:O230"/>
+    <mergeCell ref="A227:K227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="C228:D229"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:C134"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="G219:G221"/>
+    <mergeCell ref="H219:H221"/>
+    <mergeCell ref="I219:I221"/>
+    <mergeCell ref="O219:O221"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="G228:G230"/>
+    <mergeCell ref="H228:H230"/>
+    <mergeCell ref="I228:I230"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="N228:N230"/>
+    <mergeCell ref="M228:M230"/>
+    <mergeCell ref="M219:M221"/>
+    <mergeCell ref="N219:N221"/>
+    <mergeCell ref="I325:I327"/>
+    <mergeCell ref="M325:M327"/>
+    <mergeCell ref="N325:N327"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="heading=h.h69w8k3iqw4q" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.h69w8k3iqw4q"/>

--- a/Documents/Presentation/Charts.xlsx
+++ b/Documents/Presentation/Charts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="52">
   <si>
     <t>Balanced Dataset - dataset_1_balanced_discretized</t>
   </si>
@@ -175,6 +175,12 @@
   <si>
     <t>SVM c 0.1</t>
   </si>
+  <si>
+    <t>Ensemble Voting (Avg Probability)</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +190,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +240,12 @@
     </font>
     <font>
       <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -403,7 +415,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -485,12 +497,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -514,6 +524,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -545,34 +588,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -737,7 +769,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -943,11 +974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-19162720"/>
-        <c:axId val="-19156736"/>
+        <c:axId val="-1398653760"/>
+        <c:axId val="-1398659744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-19162720"/>
+        <c:axId val="-1398653760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1023,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1055,12 +1085,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19156736"/>
+        <c:crossAx val="-1398659744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-19156736"/>
+        <c:axId val="-1398659744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1107,7 +1137,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1170,7 +1199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19162720"/>
+        <c:crossAx val="-1398653760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1317,7 +1346,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1492,11 +1520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1995427680"/>
-        <c:axId val="-1995434208"/>
+        <c:axId val="-1188006560"/>
+        <c:axId val="-1188010368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995427680"/>
+        <c:axId val="-1188006560"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1532,7 +1560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995434208"/>
+        <c:crossAx val="-1188010368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1540,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995434208"/>
+        <c:axId val="-1188010368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1593,7 +1621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995427680"/>
+        <c:crossAx val="-1188006560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,7 +1787,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1939,11 +1966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1995422784"/>
-        <c:axId val="-1995436384"/>
+        <c:axId val="-1187469824"/>
+        <c:axId val="-1187477440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995422784"/>
+        <c:axId val="-1187469824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +2006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995436384"/>
+        <c:crossAx val="-1187477440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1987,7 +2014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995436384"/>
+        <c:axId val="-1187477440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2033,7 +2060,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2092,7 +2118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995422784"/>
+        <c:crossAx val="-1187469824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2239,7 +2265,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2405,11 +2430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1995430400"/>
-        <c:axId val="-1995429856"/>
+        <c:axId val="-1187464928"/>
+        <c:axId val="-1187468192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995430400"/>
+        <c:axId val="-1187464928"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2445,7 +2470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995429856"/>
+        <c:crossAx val="-1187468192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2453,7 +2478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995429856"/>
+        <c:axId val="-1187468192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2506,7 +2531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995430400"/>
+        <c:crossAx val="-1187464928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2895,11 +2920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1995427136"/>
-        <c:axId val="-1979948256"/>
+        <c:axId val="-1187465472"/>
+        <c:axId val="-1187464384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995427136"/>
+        <c:axId val="-1187465472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +2960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979948256"/>
+        <c:crossAx val="-1187464384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2943,7 +2968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979948256"/>
+        <c:axId val="-1187464384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3057,7 +3082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995427136"/>
+        <c:crossAx val="-1187465472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3391,11 +3416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1979950432"/>
-        <c:axId val="-1979956960"/>
+        <c:axId val="-1187479616"/>
+        <c:axId val="-1187476896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979950432"/>
+        <c:axId val="-1187479616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3431,7 +3456,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979956960"/>
+        <c:crossAx val="-1187476896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3439,7 +3464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979956960"/>
+        <c:axId val="-1187476896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3492,7 +3517,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979950432"/>
+        <c:crossAx val="-1187479616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3881,11 +3906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1979951520"/>
-        <c:axId val="-1979945536"/>
+        <c:axId val="-1187471456"/>
+        <c:axId val="-1187469280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979951520"/>
+        <c:axId val="-1187471456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3921,7 +3946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979945536"/>
+        <c:crossAx val="-1187469280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3929,7 +3954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979945536"/>
+        <c:axId val="-1187469280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4043,7 +4068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979951520"/>
+        <c:crossAx val="-1187471456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4377,11 +4402,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1979955328"/>
-        <c:axId val="-1979953696"/>
+        <c:axId val="-1187472544"/>
+        <c:axId val="-1187467648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979955328"/>
+        <c:axId val="-1187472544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4417,7 +4442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979953696"/>
+        <c:crossAx val="-1187467648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4425,7 +4450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979953696"/>
+        <c:axId val="-1187467648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4478,7 +4503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979955328"/>
+        <c:crossAx val="-1187472544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4688,9 +4713,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$238:$A$251</c:f>
+              <c:f>Sheet1!$A$238:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -4732,16 +4757,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$238:$B$251</c:f>
+              <c:f>Sheet1!$B$238:$B$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.88100000000000001</c:v>
                 </c:pt>
@@ -4783,6 +4811,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90229999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,9 +4874,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$238:$A$251</c:f>
+              <c:f>Sheet1!$A$238:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -4887,16 +4918,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$238:$C$251</c:f>
+              <c:f>Sheet1!$C$238:$C$252</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
@@ -4938,6 +4972,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.90600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4998,9 +5035,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$238:$A$251</c:f>
+              <c:f>Sheet1!$A$238:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -5042,16 +5079,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$238:$D$251</c:f>
+              <c:f>Sheet1!$D$238:$D$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.81415400000000004</c:v>
                 </c:pt>
@@ -5084,11 +5124,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1979954784"/>
-        <c:axId val="-1979947712"/>
+        <c:axId val="-1187470368"/>
+        <c:axId val="-1187468736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979954784"/>
+        <c:axId val="-1187470368"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5130,7 +5170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979947712"/>
+        <c:crossAx val="-1187468736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5138,7 +5178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979947712"/>
+        <c:axId val="-1187468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +5282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979954784"/>
+        <c:crossAx val="-1187470368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5481,9 +5521,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$238:$A$251</c:f>
+              <c:f>Sheet1!$A$238:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -5525,16 +5565,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$238:$B$251</c:f>
+              <c:f>Sheet1!$B$238:$B$252</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.88100000000000001</c:v>
                 </c:pt>
@@ -5576,6 +5619,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90229999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,9 +5682,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$238:$A$251</c:f>
+              <c:f>Sheet1!$A$238:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -5680,16 +5726,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$238:$C$251</c:f>
+              <c:f>Sheet1!$C$238:$C$252</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
@@ -5731,6 +5780,143 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$237</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset (SMOTE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$238:$A$252</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$238:$D$252</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.81415400000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83048599999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77604700000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75558499999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81899999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5746,11 +5932,11 @@
         </c:dLbls>
         <c:gapWidth val="135"/>
         <c:overlap val="-30"/>
-        <c:axId val="-1979947168"/>
-        <c:axId val="-1979950976"/>
+        <c:axId val="-1187477984"/>
+        <c:axId val="-1187276832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979947168"/>
+        <c:axId val="-1187477984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5792,7 +5978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979950976"/>
+        <c:crossAx val="-1187276832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5800,7 +5986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979950976"/>
+        <c:axId val="-1187276832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +6090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979947168"/>
+        <c:crossAx val="-1187477984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6143,9 +6329,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$266:$A$279</c:f>
+              <c:f>Sheet1!$A$266:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -6187,16 +6373,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$266:$B$279</c:f>
+              <c:f>Sheet1!$B$266:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -6238,6 +6427,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6298,9 +6490,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$266:$A$279</c:f>
+              <c:f>Sheet1!$A$266:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -6342,16 +6534,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$266:$C$279</c:f>
+              <c:f>Sheet1!$C$266:$C$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.874</c:v>
                 </c:pt>
@@ -6393,6 +6588,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,9 +6651,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$266:$A$279</c:f>
+              <c:f>Sheet1!$A$266:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -6497,16 +6695,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$266:$D$279</c:f>
+              <c:f>Sheet1!$D$266:$D$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.82699999999999996</c:v>
                 </c:pt>
@@ -6539,11 +6740,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1979944992"/>
-        <c:axId val="-1979946624"/>
+        <c:axId val="-1187287712"/>
+        <c:axId val="-1187286624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979944992"/>
+        <c:axId val="-1187287712"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6585,7 +6786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979946624"/>
+        <c:crossAx val="-1187286624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6593,7 +6794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979946624"/>
+        <c:axId val="-1187286624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6697,7 +6898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979944992"/>
+        <c:crossAx val="-1187287712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6933,7 +7134,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7139,11 +7339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-19156192"/>
-        <c:axId val="-19155648"/>
+        <c:axId val="-1398663552"/>
+        <c:axId val="-1398663008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-19156192"/>
+        <c:axId val="-1398663552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7188,7 +7388,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7251,12 +7450,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19155648"/>
+        <c:crossAx val="-1398663008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-19155648"/>
+        <c:axId val="-1398663008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7303,7 +7502,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7366,7 +7564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19156192"/>
+        <c:crossAx val="-1398663552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -7475,16 +7673,6 @@
               <a:t> - F Measure</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t>Balanced Dataset v/s Unbalanced Dataset</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
@@ -7535,11 +7723,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$272</c:f>
+              <c:f>Sheet1!$B$265</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.876</c:v>
+                  <c:v>Unbalanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7585,9 +7773,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$266:$A$276</c:f>
+              <c:f>Sheet1!$A$266:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -7620,16 +7808,28 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$266:$B$276</c:f>
+              <c:f>Sheet1!$B$266:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -7662,6 +7862,18 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7672,11 +7884,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$272</c:f>
+              <c:f>Sheet1!$C$265</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.953</c:v>
+                  <c:v>Balanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7722,9 +7934,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$266:$A$276</c:f>
+              <c:f>Sheet1!$A$266:$A$280</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -7757,16 +7969,28 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$266:$C$276</c:f>
+              <c:f>Sheet1!$C$266:$C$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.874</c:v>
                 </c:pt>
@@ -7799,6 +8023,152 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$265</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset (SMOTE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$266:$A$280</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$266:$D$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7814,11 +8184,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-1979942272"/>
-        <c:axId val="-1979956416"/>
+        <c:axId val="-1187272480"/>
+        <c:axId val="-1187282272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1979942272"/>
+        <c:axId val="-1187272480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7860,7 +8230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979956416"/>
+        <c:crossAx val="-1187282272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7868,7 +8238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1979956416"/>
+        <c:axId val="-1187282272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7972,7 +8342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1979942272"/>
+        <c:crossAx val="-1187272480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8211,9 +8581,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$311</c:f>
+              <c:f>Sheet1!$A$298:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -8255,16 +8625,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$298:$B$311</c:f>
+              <c:f>Sheet1!$B$298:$B$312</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -8306,6 +8679,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8366,9 +8742,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$311</c:f>
+              <c:f>Sheet1!$A$298:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -8410,16 +8786,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$298:$C$311</c:f>
+              <c:f>Sheet1!$C$298:$C$312</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
@@ -8461,6 +8840,9 @@
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
                   <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8521,9 +8903,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$311</c:f>
+              <c:f>Sheet1!$A$298:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -8565,16 +8947,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$298:$D$311</c:f>
+              <c:f>Sheet1!$D$298:$D$312</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.65</c:v>
                 </c:pt>
@@ -8607,11 +8992,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1994388704"/>
-        <c:axId val="-1994389248"/>
+        <c:axId val="-1187275744"/>
+        <c:axId val="-1187280096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994388704"/>
+        <c:axId val="-1187275744"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8653,7 +9038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994389248"/>
+        <c:crossAx val="-1187280096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8661,7 +9046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994389248"/>
+        <c:axId val="-1187280096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8765,7 +9150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994388704"/>
+        <c:crossAx val="-1187275744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8904,16 +9289,6 @@
               <a:t> - ROC Area</a:t>
             </a:r>
           </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t>Balanced Dataset v/s Unbalanced Dataset</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
@@ -8964,11 +9339,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$304</c:f>
+              <c:f>Sheet1!$B$297</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.687</c:v>
+                  <c:v>Unbalanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9014,9 +9389,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$308</c:f>
+              <c:f>Sheet1!$A$298:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -9049,16 +9424,28 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$298:$B$308</c:f>
+              <c:f>Sheet1!$B$298:$B$312</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.90538799999999997</c:v>
                 </c:pt>
@@ -9091,6 +9478,18 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.64300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9101,11 +9500,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$304</c:f>
+              <c:f>Sheet1!$C$297</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.99</c:v>
+                  <c:v>Balanced Dataset</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9151,9 +9550,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$298:$A$308</c:f>
+              <c:f>Sheet1!$A$298:$A$312</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>J48-Pruned</c:v>
                 </c:pt>
@@ -9186,16 +9585,28 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$298:$C$308</c:f>
+              <c:f>Sheet1!$C$298:$C$312</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.85499999999999998</c:v>
                 </c:pt>
@@ -9228,6 +9639,152 @@
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
                   <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$297</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset (SMOTE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$298:$A$312</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ensemble</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$298:$D$312</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69599999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9243,11 +9800,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-1994389792"/>
-        <c:axId val="-1994381088"/>
+        <c:axId val="-1187277376"/>
+        <c:axId val="-1187274112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994389792"/>
+        <c:axId val="-1187277376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9289,7 +9846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994381088"/>
+        <c:crossAx val="-1187274112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9297,7 +9854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994381088"/>
+        <c:axId val="-1187274112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9401,7 +9958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994389792"/>
+        <c:crossAx val="-1187277376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9590,7 +10147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$343</c:f>
+              <c:f>Sheet1!$B$349</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9640,32 +10197,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$344:$A$357</c:f>
+              <c:f>Sheet1!$A$350:$A$363</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SVM c1</c:v>
@@ -9690,33 +10247,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$344:$B$357</c:f>
+              <c:f>Sheet1!$B$350:$B$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
+                  <c:v>0.90300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90300000000000002</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0.89300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88300000000000001</c:v>
+                  <c:v>0.89200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.89300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89200000000000002</c:v>
+                  <c:v>0.90100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89300000000000002</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90100000000000002</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.89200000000000002</c:v>
@@ -9745,7 +10302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$343</c:f>
+              <c:f>Sheet1!$C$349</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9795,32 +10352,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$344:$A$357</c:f>
+              <c:f>Sheet1!$A$350:$A$363</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SVM c1</c:v>
@@ -9845,33 +10402,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$344:$C$357</c:f>
+              <c:f>Sheet1!$C$350:$C$363</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.93200000000000005</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.84899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.76100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.81100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.88</c:v>
@@ -9905,11 +10462,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1994386528"/>
-        <c:axId val="-1994378368"/>
+        <c:axId val="-1187281184"/>
+        <c:axId val="-1187273024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994386528"/>
+        <c:axId val="-1187281184"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9951,7 +10508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994378368"/>
+        <c:crossAx val="-1187273024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9959,7 +10516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994378368"/>
+        <c:axId val="-1187273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10063,7 +10620,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994386528"/>
+        <c:crossAx val="-1187281184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10252,7 +10809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$374</c:f>
+              <c:f>Sheet1!$B$379</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10302,32 +10859,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$375:$A$388</c:f>
+              <c:f>Sheet1!$A$380:$A$393</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SVM c1</c:v>
@@ -10352,33 +10909,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$375:$B$388</c:f>
+              <c:f>Sheet1!$B$380:$B$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.86899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.86899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.873</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.874</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.876</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.87</c:v>
@@ -10407,7 +10964,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$374</c:f>
+              <c:f>Sheet1!$C$379</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10457,32 +11014,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$375:$A$388</c:f>
+              <c:f>Sheet1!$A$380:$A$393</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SVM c1</c:v>
@@ -10507,33 +11064,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$375:$C$388</c:f>
+              <c:f>Sheet1!$C$380:$C$393</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.93799999999999994</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.79100000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.86199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82399999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.86</c:v>
@@ -10567,11 +11124,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1994377824"/>
-        <c:axId val="-1994390336"/>
+        <c:axId val="-1187284448"/>
+        <c:axId val="-1187283360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994377824"/>
+        <c:axId val="-1187284448"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10613,7 +11170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994390336"/>
+        <c:crossAx val="-1187283360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10621,7 +11178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994390336"/>
+        <c:axId val="-1187283360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10725,7 +11282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994377824"/>
+        <c:crossAx val="-1187284448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10914,7 +11471,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$404</c:f>
+              <c:f>Sheet1!$B$410</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10964,32 +11521,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$405:$A$418</c:f>
+              <c:f>Sheet1!$A$411:$A$424</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SVM c1</c:v>
@@ -11014,33 +11571,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$405:$B$418</c:f>
+              <c:f>Sheet1!$B$411:$B$424</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.66400000000000003</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.71699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.70799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.6</c:v>
@@ -11069,7 +11626,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$404</c:f>
+              <c:f>Sheet1!$C$410</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11119,32 +11676,32 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$405:$A$418</c:f>
+              <c:f>Sheet1!$A$411:$A$424</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Random Forest</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>J48-Pruned</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>J48-Unpruned</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>Naive Bayes</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Logistic Regression </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>AdaBoost</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LogitBoost</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Bagging</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SVM c1</c:v>
@@ -11169,33 +11726,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$405:$C$418</c:f>
+              <c:f>Sheet1!$C$411:$C$424</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.98499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90400000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.71599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.60099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.6</c:v>
@@ -11229,11 +11786,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1994380544"/>
-        <c:axId val="-1994384896"/>
+        <c:axId val="-1187280640"/>
+        <c:axId val="-1187279552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994380544"/>
+        <c:axId val="-1187280640"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -11275,7 +11832,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994384896"/>
+        <c:crossAx val="-1187279552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11283,7 +11840,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994384896"/>
+        <c:axId val="-1187279552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11387,8 +11944,1995 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994380544"/>
+        <c:crossAx val="-1187280640"/>
         <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>All Classifiers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> - Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$349</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unbalanced Dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$350:$A$363</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$350:$B$363</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$349</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$350:$A$363</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$350:$C$363</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="92"/>
+        <c:overlap val="-25"/>
+        <c:axId val="-1180994960"/>
+        <c:axId val="-1181005296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1180994960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1181005296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1181005296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1180994960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>All Classifiers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> - F Measure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$379</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unbalanced Dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$380:$A$393</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$380:$B$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$379</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$380:$A$393</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$380:$C$393</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="92"/>
+        <c:overlap val="-25"/>
+        <c:axId val="-1146092640"/>
+        <c:axId val="-1146091552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1146092640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1146091552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1146091552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F Measure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1146092640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>All Classifiers</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> - ROC Area</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$410</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unbalanced Dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$411:$A$424</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$411:$B$424</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$410</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Balanced Dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$411:$A$424</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>J48-Pruned</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>J48-Unpruned</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LogitBoost</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SVM c1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SVM c 0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SVM c 0.001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1-NN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3-NN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5-NN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$411:$C$424</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="92"/>
+        <c:overlap val="-25"/>
+        <c:axId val="-1146094816"/>
+        <c:axId val="-1146090464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1146094816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1146090464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1146090464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ROC Area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1146094816"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -11526,7 +14070,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11770,11 +14313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-19152384"/>
-        <c:axId val="-19154560"/>
+        <c:axId val="-1398658656"/>
+        <c:axId val="-1398657024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-19152384"/>
+        <c:axId val="-1398658656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11857,7 +14400,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11918,7 +14460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19154560"/>
+        <c:crossAx val="-1398657024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11926,7 +14468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-19154560"/>
+        <c:axId val="-1398657024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -11983,7 +14525,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12042,7 +14583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19152384"/>
+        <c:crossAx val="-1398658656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12056,7 +14597,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12165,7 +14705,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12391,11 +14930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-19154016"/>
-        <c:axId val="-19152928"/>
+        <c:axId val="-1188010912"/>
+        <c:axId val="-1188000032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-19154016"/>
+        <c:axId val="-1188010912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12438,7 +14977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19152928"/>
+        <c:crossAx val="-1188000032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12446,7 +14985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-19152928"/>
+        <c:axId val="-1188000032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12497,7 +15036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19154016"/>
+        <c:crossAx val="-1188010912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12511,7 +15050,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12682,7 +15220,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12882,11 +15419,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-19150208"/>
-        <c:axId val="-19148032"/>
+        <c:axId val="-1188008736"/>
+        <c:axId val="-1188002752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-19150208"/>
+        <c:axId val="-1188008736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12922,7 +15459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19148032"/>
+        <c:crossAx val="-1188002752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12930,7 +15467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-19148032"/>
+        <c:axId val="-1188002752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12976,7 +15513,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13035,7 +15571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-19150208"/>
+        <c:crossAx val="-1188008736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13182,7 +15718,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13368,11 +15903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1995426048"/>
-        <c:axId val="-1995436928"/>
+        <c:axId val="-1188004928"/>
+        <c:axId val="-1187997312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995426048"/>
+        <c:axId val="-1188004928"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -13408,7 +15943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995436928"/>
+        <c:crossAx val="-1187997312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13416,7 +15951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995436928"/>
+        <c:axId val="-1187997312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13469,7 +16004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995426048"/>
+        <c:crossAx val="-1188004928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13657,7 +16192,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13846,11 +16380,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1995425504"/>
-        <c:axId val="-1995431488"/>
+        <c:axId val="-1188001120"/>
+        <c:axId val="-1188008192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995425504"/>
+        <c:axId val="-1188001120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13886,7 +16420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995431488"/>
+        <c:crossAx val="-1188008192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13894,7 +16428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995431488"/>
+        <c:axId val="-1188008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13949,7 +16483,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14008,7 +16541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995425504"/>
+        <c:crossAx val="-1188001120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14155,7 +16688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14330,11 +16862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1995424960"/>
-        <c:axId val="-1995424416"/>
+        <c:axId val="-1187997856"/>
+        <c:axId val="-1188004384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995424960"/>
+        <c:axId val="-1187997856"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -14370,7 +16902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995424416"/>
+        <c:crossAx val="-1188004384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14378,7 +16910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995424416"/>
+        <c:axId val="-1188004384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14431,7 +16963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995424960"/>
+        <c:crossAx val="-1187997856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14619,7 +17151,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14808,11 +17339,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1995423872"/>
-        <c:axId val="-1995423328"/>
+        <c:axId val="-1188012000"/>
+        <c:axId val="-1188003840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1995423872"/>
+        <c:axId val="-1188012000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14848,7 +17379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995423328"/>
+        <c:crossAx val="-1188003840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14856,7 +17387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1995423328"/>
+        <c:axId val="-1188003840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14911,7 +17442,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14970,7 +17500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1995423872"/>
+        <c:crossAx val="-1188012000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15750,6 +18280,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -24335,6 +26985,1494 @@
 </file>
 
 <file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28966,13 +33104,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28998,13 +33136,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>371</xdr:row>
+      <xdr:row>375</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>399</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -29030,13 +33168,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>401</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>425</xdr:row>
+      <xdr:row>429</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -29053,6 +33191,102 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="31" name="Chart 30"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -29324,10 +33558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O418"/>
+  <dimension ref="A1:P447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:D214"/>
+    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I405" sqref="I405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29336,16 +33570,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="58"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -29421,16 +33655,16 @@
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="58"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="56"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -29506,16 +33740,16 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="47"/>
+      <c r="B37" s="58"/>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="56"/>
     </row>
     <row r="39" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -29618,20 +33852,20 @@
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="47"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="58"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
     </row>
     <row r="59" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -29689,20 +33923,20 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="58"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="45"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="56"/>
     </row>
     <row r="66" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -29776,10 +34010,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="37"/>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="40"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="31" t="s">
         <v>1</v>
       </c>
@@ -29807,8 +34041,8 @@
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="38"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="42"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
@@ -30227,10 +34461,10 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="37"/>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="40"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="31" t="s">
         <v>1</v>
       </c>
@@ -30258,8 +34492,8 @@
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="38"/>
-      <c r="B134" s="41"/>
-      <c r="C134" s="42"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="53"/>
       <c r="D134" s="32"/>
       <c r="E134" s="32"/>
       <c r="F134" s="32"/>
@@ -30652,7 +34886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -30666,11 +34900,11 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>31</v>
       </c>
-      <c r="B210" s="58">
+      <c r="B210" s="30">
         <v>0.83048599999999995</v>
       </c>
       <c r="C210">
@@ -30680,7 +34914,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>46</v>
       </c>
@@ -30694,7 +34928,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>3</v>
       </c>
@@ -30708,7 +34942,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -30722,7 +34956,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -30736,8 +34970,8 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="218" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="218" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="34" t="s">
         <v>18</v>
       </c>
@@ -30752,15 +34986,15 @@
       <c r="J218" s="35"/>
       <c r="K218" s="36"/>
     </row>
-    <row r="219" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="37"/>
-      <c r="B219" s="52" t="s">
+      <c r="B219" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C219" s="39" t="s">
+      <c r="C219" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D219" s="40"/>
+      <c r="D219" s="51"/>
       <c r="E219" s="31" t="s">
         <v>1</v>
       </c>
@@ -30795,11 +35029,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="38"/>
-      <c r="B220" s="53"/>
-      <c r="C220" s="41"/>
-      <c r="D220" s="42"/>
+      <c r="B220" s="49"/>
+      <c r="C220" s="52"/>
+      <c r="D220" s="53"/>
       <c r="E220" s="32"/>
       <c r="F220" s="32"/>
       <c r="G220" s="32"/>
@@ -30818,7 +35052,7 @@
       <c r="N220" s="32"/>
       <c r="O220" s="32"/>
     </row>
-    <row r="221" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="11" t="s">
@@ -30840,8 +35074,11 @@
       <c r="M221" s="33"/>
       <c r="N221" s="33"/>
       <c r="O221" s="33"/>
+      <c r="P221" s="60" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="222" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11" t="s">
         <v>5</v>
       </c>
@@ -30887,8 +35124,11 @@
       <c r="O222" s="11">
         <v>0.71</v>
       </c>
+      <c r="P222" s="60">
+        <v>0.90600000000000003</v>
+      </c>
     </row>
-    <row r="223" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="11" t="s">
         <v>6</v>
       </c>
@@ -30934,8 +35174,11 @@
       <c r="O223" s="11">
         <v>0.76600000000000001</v>
       </c>
+      <c r="P223" s="61">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="224" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="11" t="s">
         <v>7</v>
       </c>
@@ -30981,9 +35224,12 @@
       <c r="O224" s="11">
         <v>0.84199999999999997</v>
       </c>
+      <c r="P224" s="61">
+        <v>0.92</v>
+      </c>
     </row>
-    <row r="226" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="227" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="227" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="34" t="s">
         <v>33</v>
       </c>
@@ -30998,15 +35244,15 @@
       <c r="J227" s="35"/>
       <c r="K227" s="36"/>
     </row>
-    <row r="228" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="37"/>
-      <c r="B228" s="52" t="s">
+      <c r="B228" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C228" s="39" t="s">
+      <c r="C228" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D228" s="40"/>
+      <c r="D228" s="51"/>
       <c r="E228" s="31" t="s">
         <v>1</v>
       </c>
@@ -31041,11 +35287,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="38"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="41"/>
-      <c r="D229" s="42"/>
+      <c r="B229" s="49"/>
+      <c r="C229" s="52"/>
+      <c r="D229" s="53"/>
       <c r="E229" s="32"/>
       <c r="F229" s="32"/>
       <c r="G229" s="32"/>
@@ -31064,7 +35310,7 @@
       <c r="N229" s="32"/>
       <c r="O229" s="32"/>
     </row>
-    <row r="230" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="11" t="s">
@@ -31086,156 +35332,168 @@
       <c r="M230" s="33"/>
       <c r="N230" s="33"/>
       <c r="O230" s="33"/>
+      <c r="P230" s="60" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="231" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="11" t="s">
+    <row r="231" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="23">
+      <c r="B231" s="63">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C231" s="17">
+      <c r="C231" s="64">
         <v>0.90538799999999997</v>
       </c>
-      <c r="D231" s="17">
+      <c r="D231" s="64">
         <v>0.86765499999999995</v>
       </c>
-      <c r="E231" s="17">
+      <c r="E231" s="64">
         <v>0.79294200000000004</v>
       </c>
-      <c r="F231" s="17">
+      <c r="F231" s="64">
         <v>0.89562600000000003</v>
       </c>
-      <c r="G231" s="17">
+      <c r="G231" s="64">
         <v>0.89299799999999996</v>
       </c>
-      <c r="H231" s="17">
+      <c r="H231" s="64">
         <v>0.89400000000000002</v>
       </c>
-      <c r="I231" s="17">
+      <c r="I231" s="64">
         <v>0.90407400000000004</v>
       </c>
-      <c r="J231" s="23">
+      <c r="J231" s="63">
         <v>0.89</v>
       </c>
-      <c r="K231" s="23">
+      <c r="K231" s="63">
         <v>0.89</v>
       </c>
-      <c r="L231" s="23">
+      <c r="L231" s="63">
         <v>0.89</v>
       </c>
-      <c r="M231" s="23">
+      <c r="M231" s="63">
         <v>0.84</v>
       </c>
-      <c r="N231" s="23">
+      <c r="N231" s="63">
         <v>0.88200000000000001</v>
       </c>
-      <c r="O231" s="23">
+      <c r="O231" s="63">
         <v>0.89400000000000002</v>
       </c>
+      <c r="P231" s="65">
+        <v>0.90229999999999999</v>
+      </c>
     </row>
-    <row r="232" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="11" t="s">
+    <row r="232" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B232" s="23">
+      <c r="B232" s="63">
         <v>0.876</v>
       </c>
-      <c r="C232" s="11">
+      <c r="C232" s="63">
         <v>0.88100000000000001</v>
       </c>
-      <c r="D232" s="11">
+      <c r="D232" s="63">
         <v>0.86</v>
       </c>
-      <c r="E232" s="11">
+      <c r="E232" s="63">
         <v>0.81299999999999994</v>
       </c>
-      <c r="F232" s="11">
+      <c r="F232" s="63">
         <v>0.874</v>
       </c>
-      <c r="G232" s="11">
+      <c r="G232" s="63">
         <v>0.873</v>
       </c>
-      <c r="H232" s="11">
+      <c r="H232" s="63">
         <v>0.873</v>
       </c>
-      <c r="I232" s="11">
+      <c r="I232" s="63">
         <v>0.88</v>
       </c>
-      <c r="J232" s="23">
+      <c r="J232" s="63">
         <v>0.87</v>
       </c>
-      <c r="K232" s="23">
+      <c r="K232" s="63">
         <v>0.87</v>
       </c>
-      <c r="L232" s="23">
+      <c r="L232" s="63">
         <v>0.86</v>
       </c>
-      <c r="M232" s="23">
+      <c r="M232" s="63">
         <v>0.84</v>
       </c>
-      <c r="N232" s="23">
+      <c r="N232" s="63">
         <v>0.86199999999999999</v>
       </c>
-      <c r="O232" s="23">
+      <c r="O232" s="63">
         <v>0.86899999999999999</v>
       </c>
+      <c r="P232" s="66">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="233" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="11" t="s">
+    <row r="233" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B233" s="23">
+      <c r="B233" s="63">
         <v>0.68700000000000006</v>
       </c>
-      <c r="C233" s="11">
+      <c r="C233" s="63">
         <v>0.63500000000000001</v>
       </c>
-      <c r="D233" s="11">
+      <c r="D233" s="63">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E233" s="11">
+      <c r="E233" s="63">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F233" s="11">
+      <c r="F233" s="63">
         <v>0.73099999999999998</v>
       </c>
-      <c r="G233" s="11">
+      <c r="G233" s="63">
         <v>0.70699999999999996</v>
       </c>
-      <c r="H233" s="11">
+      <c r="H233" s="63">
         <v>0.72399999999999998</v>
       </c>
-      <c r="I233" s="11">
+      <c r="I233" s="63">
         <v>0.71</v>
       </c>
-      <c r="J233" s="23">
+      <c r="J233" s="63">
         <v>0.6</v>
       </c>
-      <c r="K233" s="23">
+      <c r="K233" s="63">
         <v>0.6</v>
       </c>
-      <c r="L233" s="23">
+      <c r="L233" s="63">
         <v>0.6</v>
       </c>
-      <c r="M233" s="23">
+      <c r="M233" s="63">
         <v>0.60099999999999998</v>
       </c>
-      <c r="N233" s="23">
+      <c r="N233" s="63">
         <v>0.64300000000000002</v>
       </c>
-      <c r="O233" s="23">
+      <c r="O233" s="63">
         <v>0.65</v>
       </c>
+      <c r="P233" s="66">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="236" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13"/>
-      <c r="B236" s="29" t="s">
+      <c r="B236" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C236" s="30"/>
+      <c r="C236" s="47"/>
     </row>
-    <row r="237" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B237" s="14" t="s">
         <v>34</v>
       </c>
@@ -31246,42 +35504,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B238" s="11">
+      <c r="B238" s="63">
         <v>0.88100000000000001</v>
       </c>
-      <c r="C238" s="16">
+      <c r="C238" s="64">
         <v>0.85499999999999998</v>
       </c>
       <c r="D238">
         <v>0.81415400000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B239" s="11">
+      <c r="B239" s="63">
         <v>0.86</v>
       </c>
-      <c r="C239" s="16">
+      <c r="C239" s="64">
         <v>0.86120000000000008</v>
       </c>
-      <c r="D239" s="58">
+      <c r="D239" s="30">
         <v>0.83048599999999995</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B240" s="11">
+      <c r="B240" s="63">
         <v>0.874</v>
       </c>
-      <c r="C240" s="16">
+      <c r="C240" s="64">
         <v>0.83660000000000001</v>
       </c>
       <c r="D240">
@@ -31292,10 +35550,10 @@
       <c r="A241" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="11">
+      <c r="B241" s="63">
         <v>0.873</v>
       </c>
-      <c r="C241" s="16">
+      <c r="C241" s="64">
         <v>0.79</v>
       </c>
       <c r="D241">
@@ -31306,10 +35564,10 @@
       <c r="A242" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="11">
+      <c r="B242" s="63">
         <v>0.873</v>
       </c>
-      <c r="C242" s="16">
+      <c r="C242" s="64">
         <v>0.80709999999999993</v>
       </c>
       <c r="D242">
@@ -31320,10 +35578,10 @@
       <c r="A243" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B243" s="11">
+      <c r="B243" s="63">
         <v>0.88</v>
       </c>
-      <c r="C243" s="16">
+      <c r="C243" s="64">
         <v>0.87769999999999992</v>
       </c>
       <c r="D243">
@@ -31334,11 +35592,11 @@
       <c r="A244" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B244" s="23">
+      <c r="B244" s="63">
         <f>B231</f>
         <v>0.89800000000000002</v>
       </c>
-      <c r="C244" s="23">
+      <c r="C244" s="63">
         <f>B222</f>
         <v>0.95</v>
       </c>
@@ -31347,10 +35605,10 @@
       <c r="A245" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B245" s="11">
+      <c r="B245" s="63">
         <v>0.81299999999999994</v>
       </c>
-      <c r="C245" s="16">
+      <c r="C245" s="64">
         <v>0.70840000000000003</v>
       </c>
     </row>
@@ -31358,10 +35616,10 @@
       <c r="A246" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B246" s="23">
+      <c r="B246" s="63">
         <v>0.89</v>
       </c>
-      <c r="C246" s="23">
+      <c r="C246" s="63">
         <v>0.88</v>
       </c>
     </row>
@@ -31369,10 +35627,10 @@
       <c r="A247" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B247" s="23">
+      <c r="B247" s="63">
         <v>0.89</v>
       </c>
-      <c r="C247" s="23">
+      <c r="C247" s="63">
         <v>0.88</v>
       </c>
     </row>
@@ -31380,10 +35638,10 @@
       <c r="A248" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B248" s="23">
+      <c r="B248" s="63">
         <v>0.89</v>
       </c>
-      <c r="C248" s="23">
+      <c r="C248" s="63">
         <v>0.88</v>
       </c>
     </row>
@@ -31391,10 +35649,10 @@
       <c r="A249" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B249" s="23">
+      <c r="B249" s="63">
         <v>0.84</v>
       </c>
-      <c r="C249" s="11">
+      <c r="C249" s="63">
         <f>M222</f>
         <v>0.89400000000000002</v>
       </c>
@@ -31403,10 +35661,10 @@
       <c r="A250" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B250" s="23">
+      <c r="B250" s="63">
         <v>0.86199999999999999</v>
       </c>
-      <c r="C250" s="11">
+      <c r="C250" s="63">
         <f>N222</f>
         <v>0.75800000000000001</v>
       </c>
@@ -31415,22 +35673,33 @@
       <c r="A251" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B251" s="23">
+      <c r="B251" s="63">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C251" s="11">
+      <c r="C251" s="63">
         <f>O222</f>
         <v>0.71</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B252" s="65">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="C252" s="66">
+        <v>0.90600000000000003</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="13"/>
     </row>
     <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="29" t="s">
+      <c r="B264" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C264" s="30"/>
+      <c r="C264" s="47"/>
     </row>
     <row r="265" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B265" s="14" t="s">
@@ -31615,16 +35884,27 @@
       </c>
       <c r="C279" s="11">
         <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B280" s="62">
+        <v>0.9</v>
+      </c>
+      <c r="C280" s="61">
+        <v>0.9</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="13"/>
     </row>
     <row r="296" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="29" t="s">
+      <c r="B296" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C296" s="30"/>
+      <c r="C296" s="47"/>
     </row>
     <row r="297" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B297" s="14" t="s">
@@ -31809,6 +36089,17 @@
       </c>
       <c r="C311" s="11">
         <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B312" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="C312" s="61">
+        <v>0.92</v>
       </c>
     </row>
     <row r="323" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -31833,26 +36124,26 @@
     </row>
     <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="37"/>
-      <c r="B325" s="49" t="s">
+      <c r="B325" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C325" s="54" t="s">
+      <c r="C325" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D325" s="55"/>
-      <c r="E325" s="49" t="s">
+      <c r="D325" s="42"/>
+      <c r="E325" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F325" s="49" t="s">
+      <c r="F325" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G325" s="49" t="s">
+      <c r="G325" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H325" s="49" t="s">
+      <c r="H325" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="I325" s="49" t="s">
+      <c r="I325" s="39" t="s">
         <v>4</v>
       </c>
       <c r="J325" s="24" t="s">
@@ -31876,14 +36167,14 @@
     </row>
     <row r="326" spans="1:15" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="38"/>
-      <c r="B326" s="51"/>
-      <c r="C326" s="56"/>
-      <c r="D326" s="57"/>
-      <c r="E326" s="50"/>
-      <c r="F326" s="50"/>
-      <c r="G326" s="50"/>
-      <c r="H326" s="50"/>
-      <c r="I326" s="50"/>
+      <c r="B326" s="40"/>
+      <c r="C326" s="43"/>
+      <c r="D326" s="44"/>
+      <c r="E326" s="45"/>
+      <c r="F326" s="45"/>
+      <c r="G326" s="45"/>
+      <c r="H326" s="45"/>
+      <c r="I326" s="45"/>
       <c r="J326" s="25" t="s">
         <v>22</v>
       </c>
@@ -31906,11 +36197,11 @@
       <c r="D327" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E327" s="51"/>
-      <c r="F327" s="51"/>
-      <c r="G327" s="51"/>
-      <c r="H327" s="51"/>
-      <c r="I327" s="51"/>
+      <c r="E327" s="40"/>
+      <c r="F327" s="40"/>
+      <c r="G327" s="40"/>
+      <c r="H327" s="40"/>
+      <c r="I327" s="40"/>
       <c r="J327" s="12"/>
       <c r="K327" s="12"/>
       <c r="L327" s="26">
@@ -32088,23 +36379,23 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="37"/>
-      <c r="B334" s="49" t="s">
+      <c r="B334" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C334" s="54" t="s">
+      <c r="C334" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D334" s="55"/>
-      <c r="E334" s="49" t="s">
+      <c r="D334" s="42"/>
+      <c r="E334" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F334" s="49" t="s">
+      <c r="F334" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G334" s="49" t="s">
+      <c r="G334" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H334" s="49" t="s">
+      <c r="H334" s="39" t="s">
         <v>32</v>
       </c>
       <c r="I334" s="24" t="s">
@@ -32131,13 +36422,13 @@
     </row>
     <row r="335" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="38"/>
-      <c r="B335" s="51"/>
-      <c r="C335" s="56"/>
-      <c r="D335" s="57"/>
-      <c r="E335" s="50"/>
-      <c r="F335" s="50"/>
-      <c r="G335" s="50"/>
-      <c r="H335" s="50"/>
+      <c r="B335" s="40"/>
+      <c r="C335" s="43"/>
+      <c r="D335" s="44"/>
+      <c r="E335" s="45"/>
+      <c r="F335" s="45"/>
+      <c r="G335" s="45"/>
+      <c r="H335" s="45"/>
       <c r="I335" s="25" t="s">
         <v>41</v>
       </c>
@@ -32163,10 +36454,10 @@
       <c r="D336" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E336" s="51"/>
-      <c r="F336" s="51"/>
-      <c r="G336" s="51"/>
-      <c r="H336" s="51"/>
+      <c r="E336" s="40"/>
+      <c r="F336" s="40"/>
+      <c r="G336" s="40"/>
+      <c r="H336" s="40"/>
       <c r="I336" s="12"/>
       <c r="J336" s="12"/>
       <c r="K336" s="12"/>
@@ -32318,560 +36609,696 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="342" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="29" t="s">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A344" s="13"/>
+    </row>
+    <row r="348" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B348" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C342" s="30"/>
+      <c r="C348" s="47"/>
     </row>
-    <row r="343" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="13"/>
-      <c r="B343" s="14" t="s">
+    <row r="349" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B349" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C343" s="14" t="s">
+      <c r="C349" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A344" s="13" t="s">
+    <row r="350" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B350" s="23">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="C350" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B351" s="23">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C351" s="23">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B352" s="23">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C352" s="23">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" s="23">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C353" s="23">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B354" s="23">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="C354" s="23">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B355" s="23">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="C355" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B344" s="14">
+      <c r="B356" s="14">
         <f>B337</f>
         <v>0.89</v>
       </c>
-      <c r="C344" s="14">
+      <c r="C356" s="14">
         <f>B328</f>
         <v>0.93200000000000005</v>
       </c>
+      <c r="E356">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F356">
+        <v>0.874</v>
+      </c>
+      <c r="G356">
+        <v>0.89200000000000002</v>
+      </c>
     </row>
-    <row r="345" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B345" s="23">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="C345" s="23">
-        <v>0.84</v>
+    <row r="357" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B357" s="23">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="C357" s="23">
+        <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B346" s="23">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="C346" s="23">
-        <v>0.84899999999999998</v>
-      </c>
-    </row>
-    <row r="347" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B347" s="23">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="C347" s="23">
-        <v>0.76100000000000001</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A348" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B348" s="23">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="C348" s="23">
-        <v>0.83699999999999997</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B349" s="23">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="C349" s="23">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B350" s="23">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="C350" s="23">
-        <v>0.81100000000000005</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A351" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B351" s="23">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="C351" s="23">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A352" s="15" t="s">
+    <row r="358" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B358" s="1">
         <f>J337</f>
         <v>0.89200000000000002</v>
       </c>
-      <c r="C352" s="1">
+      <c r="C358" s="1">
         <f>J328</f>
         <v>0.88</v>
       </c>
-      <c r="E352">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="F352">
-        <v>0.874</v>
-      </c>
-      <c r="G352">
-        <v>0.89200000000000002</v>
-      </c>
     </row>
-    <row r="353" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A353" s="15" t="s">
+    <row r="359" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B359" s="1">
         <f>K337</f>
         <v>0.88</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C359" s="1">
         <f>K328</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A354" s="15" t="s">
+    <row r="360" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B360" s="1">
         <f>L337</f>
         <v>0.89</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C360" s="1">
         <f>L328</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A355" s="7" t="s">
+    <row r="361" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B355" s="23">
+      <c r="B361" s="23">
         <v>0.82699999999999996</v>
       </c>
-      <c r="C355" s="23">
+      <c r="C361" s="23">
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A356" s="7" t="s">
+    <row r="362" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B356" s="23">
+      <c r="B362" s="23">
         <v>0.874</v>
       </c>
-      <c r="C356" s="23">
+      <c r="C362" s="23">
         <v>0.73699999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="7" t="s">
+    <row r="363" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B357" s="23">
+      <c r="B363" s="23">
         <v>0.89200000000000002</v>
       </c>
-      <c r="C357" s="23">
+      <c r="C363" s="23">
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B373" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C373" s="19"/>
-    </row>
-    <row r="374" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="13"/>
-      <c r="B374" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C374" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B375" s="14">
-        <f>B338</f>
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="C375" s="14">
-        <f>B329</f>
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B376" s="23">
-        <v>0.877</v>
-      </c>
-      <c r="C376" s="20">
-        <v>0.86299999999999999</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A377" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B377" s="23">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="C377" s="20">
-        <v>0.86899999999999999</v>
-      </c>
     </row>
     <row r="378" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A378" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B378" s="23">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="C378" s="20">
-        <v>0.79100000000000004</v>
-      </c>
+      <c r="B378" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" s="19"/>
     </row>
     <row r="379" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A379" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B379" s="23">
-        <v>0.873</v>
-      </c>
-      <c r="C379" s="20">
-        <v>0.84099999999999997</v>
+      <c r="B379" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C379" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A380" s="15" t="s">
-        <v>3</v>
+      <c r="A380" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B380" s="23">
-        <v>0.873</v>
+        <v>0.877</v>
       </c>
       <c r="C380" s="20">
-        <v>0.86199999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A381" s="15" t="s">
-        <v>32</v>
+      <c r="A381" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B381" s="23">
-        <v>0.874</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="C381" s="20">
-        <v>0.82399999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" s="15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B382" s="23">
-        <v>0.876</v>
+        <v>0.873</v>
       </c>
       <c r="C382" s="20">
-        <v>0.95</v>
+        <v>0.84099999999999997</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B383" s="1">
-        <f>J338</f>
-        <v>0.87</v>
-      </c>
-      <c r="C383" s="6">
-        <f>J329</f>
-        <v>0.86</v>
+        <v>3</v>
+      </c>
+      <c r="B383" s="23">
+        <v>0.873</v>
+      </c>
+      <c r="C383" s="20">
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B384" s="1">
-        <f>K338</f>
-        <v>0.86</v>
-      </c>
-      <c r="C384" s="6">
-        <f>K329</f>
-        <v>0.86</v>
+        <v>32</v>
+      </c>
+      <c r="B384" s="23">
+        <v>0.874</v>
+      </c>
+      <c r="C384" s="20">
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" s="23">
+        <v>0.876</v>
+      </c>
+      <c r="C385" s="20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B386" s="14">
+        <f>B338</f>
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C386" s="14">
+        <f>B329</f>
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="C387" s="20">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B388" s="1">
+        <f>J338</f>
+        <v>0.87</v>
+      </c>
+      <c r="C388" s="6">
+        <f>J329</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B389" s="1">
+        <f>K338</f>
+        <v>0.86</v>
+      </c>
+      <c r="C389" s="6">
+        <f>K329</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B390" s="1">
         <f>L338</f>
         <v>0.85</v>
       </c>
-      <c r="C385" s="6">
+      <c r="C390" s="6">
         <f>L329</f>
         <v>0.86</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="7" t="s">
+    <row r="391" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B391" s="1">
         <f>M338</f>
         <v>0.83099999999999996</v>
       </c>
-      <c r="C386" s="6">
+      <c r="C391" s="6">
         <f>M329</f>
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A387" s="7" t="s">
+    <row r="392" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B392" s="1">
         <f>N338</f>
         <v>0.86</v>
       </c>
-      <c r="C387" s="6">
+      <c r="C392" s="6">
         <f>N329</f>
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="7" t="s">
+    <row r="393" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B393" s="1">
         <f>O338</f>
         <v>0.871</v>
       </c>
-      <c r="C388" s="6">
+      <c r="C393" s="6">
         <f>O329</f>
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="18" t="s">
+    <row r="409" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C403" s="19"/>
+      <c r="B409" s="19"/>
     </row>
-    <row r="404" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A404" s="13"/>
-      <c r="B404" s="14" t="s">
+    <row r="410" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" s="13"/>
+      <c r="B410" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C404" s="14" t="s">
+      <c r="C410" s="14" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A405" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B405" s="14">
-        <f>B339</f>
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="C405" s="14">
-        <f>B330</f>
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A406" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B406" s="23">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="C406" s="23">
-        <v>0.90400000000000003</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B407" s="23">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="C407" s="23">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A408" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B408" s="23">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="C408" s="23">
-        <v>0.71599999999999997</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A409" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B409" s="23">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="C409" s="23">
-        <v>0.73399999999999999</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A410" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B410" s="23">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="C410" s="23">
-        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A411" s="15" t="s">
-        <v>32</v>
+      <c r="A411" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B411" s="23">
-        <v>0.71399999999999997</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="C411" s="23">
-        <v>0.72</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A412" s="15" t="s">
-        <v>4</v>
+      <c r="A412" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B412" s="23">
-        <v>0.70799999999999996</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="C412" s="23">
-        <v>0.98699999999999999</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A413" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B413" s="1">
-        <f>J339</f>
-        <v>0.6</v>
-      </c>
-      <c r="C413" s="1">
-        <f>J330</f>
-        <v>0.6</v>
+        <v>2</v>
+      </c>
+      <c r="B413" s="23">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="C413" s="23">
+        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A414" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B414" s="1">
-        <f>K339</f>
-        <v>0.6</v>
-      </c>
-      <c r="C414" s="1">
-        <f>K330</f>
-        <v>0.6</v>
+        <v>3</v>
+      </c>
+      <c r="B414" s="23">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="C414" s="23">
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" s="23">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C415" s="23">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416" s="23">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="C416" s="23">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B417" s="14">
+        <f>B339</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="C417" s="14">
+        <f>B330</f>
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B418" s="23">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="C418" s="23">
+        <v>0.71599999999999997</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B419" s="1">
+        <f>J339</f>
+        <v>0.6</v>
+      </c>
+      <c r="C419" s="1">
+        <f>J330</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B420" s="1">
+        <f>K339</f>
+        <v>0.6</v>
+      </c>
+      <c r="C420" s="1">
+        <f>K330</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B415" s="1">
+      <c r="B421" s="1">
         <f>L339</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C415" s="1">
+      <c r="C421" s="1">
         <f>L330</f>
         <v>0.59</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="7" t="s">
+    <row r="422" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B416" s="1">
+      <c r="B422" s="1">
         <f>M339</f>
         <v>0.58899999999999997</v>
       </c>
-      <c r="C416" s="1">
+      <c r="C422" s="1">
         <f>M330</f>
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A417" s="7" t="s">
+    <row r="423" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B417" s="1">
+      <c r="B423" s="1">
         <f>N339</f>
         <v>0.63700000000000001</v>
       </c>
-      <c r="C417" s="1">
+      <c r="C423" s="1">
         <f>N330</f>
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A418" s="7" t="s">
+    <row r="424" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B418" s="1">
+      <c r="B424" s="1">
         <f>O339</f>
         <v>0.64500000000000002</v>
       </c>
-      <c r="C418" s="1">
+      <c r="C424" s="1">
         <f>O330</f>
         <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="434" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" s="29" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="N228:N230"/>
+    <mergeCell ref="M228:M230"/>
+    <mergeCell ref="M219:M221"/>
+    <mergeCell ref="N219:N221"/>
+    <mergeCell ref="I325:I327"/>
+    <mergeCell ref="M325:M327"/>
+    <mergeCell ref="N325:N327"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="G219:G221"/>
+    <mergeCell ref="H219:H221"/>
+    <mergeCell ref="I219:I221"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:C134"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="A324:O324"/>
+    <mergeCell ref="O228:O230"/>
+    <mergeCell ref="A227:K227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="C228:D229"/>
+    <mergeCell ref="O219:O221"/>
+    <mergeCell ref="E228:E230"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="G228:G230"/>
+    <mergeCell ref="H228:H230"/>
+    <mergeCell ref="I228:I230"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:D326"/>
+    <mergeCell ref="E325:E327"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="A228:A229"/>
+    <mergeCell ref="B264:C264"/>
     <mergeCell ref="O325:O327"/>
     <mergeCell ref="A333:O333"/>
     <mergeCell ref="A334:A335"/>
@@ -32888,67 +37315,6 @@
     <mergeCell ref="G325:G327"/>
     <mergeCell ref="H325:H327"/>
     <mergeCell ref="A325:A326"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="C325:D326"/>
-    <mergeCell ref="E325:E327"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="A324:O324"/>
-    <mergeCell ref="O228:O230"/>
-    <mergeCell ref="A227:K227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="C228:D229"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:C134"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:D220"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="G219:G221"/>
-    <mergeCell ref="H219:H221"/>
-    <mergeCell ref="I219:I221"/>
-    <mergeCell ref="O219:O221"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="G228:G230"/>
-    <mergeCell ref="H228:H230"/>
-    <mergeCell ref="I228:I230"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="N228:N230"/>
-    <mergeCell ref="M228:M230"/>
-    <mergeCell ref="M219:M221"/>
-    <mergeCell ref="N219:N221"/>
-    <mergeCell ref="I325:I327"/>
-    <mergeCell ref="M325:M327"/>
-    <mergeCell ref="N325:N327"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="heading=h.h69w8k3iqw4q" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.h69w8k3iqw4q"/>

--- a/Documents/Presentation/Charts.xlsx
+++ b/Documents/Presentation/Charts.xlsx
@@ -501,6 +501,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -508,6 +531,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -524,39 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -588,23 +587,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -974,11 +974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1398653760"/>
-        <c:axId val="-1398659744"/>
+        <c:axId val="-222710320"/>
+        <c:axId val="-222711408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1398653760"/>
+        <c:axId val="-222710320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,12 +1085,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1398659744"/>
+        <c:crossAx val="-222711408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1398659744"/>
+        <c:axId val="-222711408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1199,7 +1199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1398653760"/>
+        <c:crossAx val="-222710320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,11 +1520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1188006560"/>
-        <c:axId val="-1188010368"/>
+        <c:axId val="-12347056"/>
+        <c:axId val="-12348144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1188006560"/>
+        <c:axId val="-12347056"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1560,7 +1560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188010368"/>
+        <c:crossAx val="-12348144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1568,7 +1568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188010368"/>
+        <c:axId val="-12348144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1621,7 +1621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188006560"/>
+        <c:crossAx val="-12347056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1966,11 +1966,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1187469824"/>
-        <c:axId val="-1187477440"/>
+        <c:axId val="-12351408"/>
+        <c:axId val="-13442128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187469824"/>
+        <c:axId val="-12351408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,7 +2006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187477440"/>
+        <c:crossAx val="-13442128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2014,7 +2014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187477440"/>
+        <c:axId val="-13442128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2118,7 +2118,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187469824"/>
+        <c:crossAx val="-12351408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,11 +2430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1187464928"/>
-        <c:axId val="-1187468192"/>
+        <c:axId val="-13439408"/>
+        <c:axId val="-13429616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187464928"/>
+        <c:axId val="-13439408"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2470,7 +2470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187468192"/>
+        <c:crossAx val="-13429616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,7 +2478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187468192"/>
+        <c:axId val="-13429616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2531,7 +2531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187464928"/>
+        <c:crossAx val="-13439408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2731,7 +2731,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2920,11 +2919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1187465472"/>
-        <c:axId val="-1187464384"/>
+        <c:axId val="-13441584"/>
+        <c:axId val="-13431792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187465472"/>
+        <c:axId val="-13441584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,7 +2959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187464384"/>
+        <c:crossAx val="-13431792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2968,7 +2967,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187464384"/>
+        <c:axId val="-13431792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3023,7 +3022,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3082,7 +3080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187465472"/>
+        <c:crossAx val="-13441584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3241,7 +3239,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3416,11 +3413,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1187479616"/>
-        <c:axId val="-1187476896"/>
+        <c:axId val="-13440496"/>
+        <c:axId val="-13438320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187479616"/>
+        <c:axId val="-13440496"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3456,7 +3453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187476896"/>
+        <c:crossAx val="-13438320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3464,7 +3461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187476896"/>
+        <c:axId val="-13438320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3517,7 +3514,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187479616"/>
+        <c:crossAx val="-13440496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3717,7 +3714,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3906,11 +3902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1187471456"/>
-        <c:axId val="-1187469280"/>
+        <c:axId val="-13432336"/>
+        <c:axId val="-13430704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187471456"/>
+        <c:axId val="-13432336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,7 +3942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187469280"/>
+        <c:crossAx val="-13430704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3954,7 +3950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187469280"/>
+        <c:axId val="-13430704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4009,7 +4005,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4068,7 +4063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187471456"/>
+        <c:crossAx val="-13432336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4227,7 +4222,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4402,11 +4396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1187472544"/>
-        <c:axId val="-1187467648"/>
+        <c:axId val="-13429072"/>
+        <c:axId val="-13443216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187472544"/>
+        <c:axId val="-13429072"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4442,7 +4436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187467648"/>
+        <c:crossAx val="-13443216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4450,7 +4444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187467648"/>
+        <c:axId val="-13443216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4503,7 +4497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187472544"/>
+        <c:crossAx val="-13429072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5124,11 +5118,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1187470368"/>
-        <c:axId val="-1187468736"/>
+        <c:axId val="-13439952"/>
+        <c:axId val="-13436688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187470368"/>
+        <c:axId val="-13439952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -5170,7 +5164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187468736"/>
+        <c:crossAx val="-13436688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5178,7 +5172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187468736"/>
+        <c:axId val="-13436688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5282,7 +5276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187470368"/>
+        <c:crossAx val="-13439952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5932,11 +5926,11 @@
         </c:dLbls>
         <c:gapWidth val="135"/>
         <c:overlap val="-30"/>
-        <c:axId val="-1187477984"/>
-        <c:axId val="-1187276832"/>
+        <c:axId val="-13434512"/>
+        <c:axId val="-13433968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187477984"/>
+        <c:axId val="-13434512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5978,7 +5972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187276832"/>
+        <c:crossAx val="-13433968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5986,7 +5980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187276832"/>
+        <c:axId val="-13433968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,7 +6084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187477984"/>
+        <c:crossAx val="-13434512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6740,11 +6734,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1187287712"/>
-        <c:axId val="-1187286624"/>
+        <c:axId val="-12728432"/>
+        <c:axId val="-12737680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187287712"/>
+        <c:axId val="-12728432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -6786,7 +6780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187286624"/>
+        <c:crossAx val="-12737680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6794,7 +6788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187286624"/>
+        <c:axId val="-12737680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +6892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187287712"/>
+        <c:crossAx val="-12728432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7339,11 +7333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1398663552"/>
-        <c:axId val="-1398663008"/>
+        <c:axId val="-222722288"/>
+        <c:axId val="-222717392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1398663552"/>
+        <c:axId val="-222722288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7450,12 +7444,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1398663008"/>
+        <c:crossAx val="-222717392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1398663008"/>
+        <c:axId val="-222717392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7564,7 +7558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1398663552"/>
+        <c:crossAx val="-222722288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -8184,11 +8178,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-1187272480"/>
-        <c:axId val="-1187282272"/>
+        <c:axId val="-12726800"/>
+        <c:axId val="-12737136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187272480"/>
+        <c:axId val="-12726800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8230,7 +8224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187282272"/>
+        <c:crossAx val="-12737136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8238,7 +8232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187282272"/>
+        <c:axId val="-12737136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8342,7 +8336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187272480"/>
+        <c:crossAx val="-12726800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8992,11 +8986,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1187275744"/>
-        <c:axId val="-1187280096"/>
+        <c:axId val="-12736048"/>
+        <c:axId val="-12734960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187275744"/>
+        <c:axId val="-12736048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9038,7 +9032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187280096"/>
+        <c:crossAx val="-12734960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9046,7 +9040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187280096"/>
+        <c:axId val="-12734960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9150,7 +9144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187275744"/>
+        <c:crossAx val="-12736048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9800,11 +9794,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-30"/>
-        <c:axId val="-1187277376"/>
-        <c:axId val="-1187274112"/>
+        <c:axId val="-12736592"/>
+        <c:axId val="-12727888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187277376"/>
+        <c:axId val="-12736592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9846,7 +9840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187274112"/>
+        <c:crossAx val="-12727888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9854,7 +9848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187274112"/>
+        <c:axId val="-12727888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9958,7 +9952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187277376"/>
+        <c:crossAx val="-12736592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10462,11 +10456,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1187281184"/>
-        <c:axId val="-1187273024"/>
+        <c:axId val="-12733872"/>
+        <c:axId val="-12733328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187281184"/>
+        <c:axId val="-12733872"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10508,7 +10502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187273024"/>
+        <c:crossAx val="-12733328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10516,7 +10510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187273024"/>
+        <c:axId val="-12733328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10620,7 +10614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187281184"/>
+        <c:crossAx val="-12733872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11124,11 +11118,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1187284448"/>
-        <c:axId val="-1187283360"/>
+        <c:axId val="-12732784"/>
+        <c:axId val="-12732240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187284448"/>
+        <c:axId val="-12732784"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -11170,7 +11164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187283360"/>
+        <c:crossAx val="-12732240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11178,7 +11172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187283360"/>
+        <c:axId val="-12732240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11282,7 +11276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187284448"/>
+        <c:crossAx val="-12732784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11786,11 +11780,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="-1187280640"/>
-        <c:axId val="-1187279552"/>
+        <c:axId val="-12730608"/>
+        <c:axId val="-12729520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187280640"/>
+        <c:axId val="-12730608"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -11832,7 +11826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187279552"/>
+        <c:crossAx val="-12729520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11840,9 +11834,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187279552"/>
+        <c:axId val="-12729520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11944,7 +11939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187280640"/>
+        <c:crossAx val="-12730608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12448,11 +12443,11 @@
         </c:dLbls>
         <c:gapWidth val="92"/>
         <c:overlap val="-25"/>
-        <c:axId val="-1180994960"/>
-        <c:axId val="-1181005296"/>
+        <c:axId val="-11210896"/>
+        <c:axId val="-11213616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1180994960"/>
+        <c:axId val="-11210896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12494,7 +12489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1181005296"/>
+        <c:crossAx val="-11213616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12502,7 +12497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1181005296"/>
+        <c:axId val="-11213616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12606,7 +12601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1180994960"/>
+        <c:crossAx val="-11210896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13110,11 +13105,11 @@
         </c:dLbls>
         <c:gapWidth val="92"/>
         <c:overlap val="-25"/>
-        <c:axId val="-1146092640"/>
-        <c:axId val="-1146091552"/>
+        <c:axId val="-11206000"/>
+        <c:axId val="-11201648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1146092640"/>
+        <c:axId val="-11206000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13156,7 +13151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1146091552"/>
+        <c:crossAx val="-11201648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13164,7 +13159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1146091552"/>
+        <c:axId val="-11201648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13268,7 +13263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1146092640"/>
+        <c:crossAx val="-11206000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13772,11 +13767,11 @@
         </c:dLbls>
         <c:gapWidth val="92"/>
         <c:overlap val="-25"/>
-        <c:axId val="-1146094816"/>
-        <c:axId val="-1146090464"/>
+        <c:axId val="-11202736"/>
+        <c:axId val="-11211440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1146094816"/>
+        <c:axId val="-11202736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13818,7 +13813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1146090464"/>
+        <c:crossAx val="-11211440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13826,7 +13821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1146090464"/>
+        <c:axId val="-11211440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13931,7 +13926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1146094816"/>
+        <c:crossAx val="-11202736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14313,11 +14308,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1398658656"/>
-        <c:axId val="-1398657024"/>
+        <c:axId val="-222715760"/>
+        <c:axId val="-222713040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1398658656"/>
+        <c:axId val="-222715760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14460,7 +14455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1398657024"/>
+        <c:crossAx val="-222713040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14468,7 +14463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1398657024"/>
+        <c:axId val="-222713040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -14583,7 +14578,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1398658656"/>
+        <c:crossAx val="-222715760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14930,11 +14925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-1188010912"/>
-        <c:axId val="-1188000032"/>
+        <c:axId val="-222721744"/>
+        <c:axId val="-13720336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1188010912"/>
+        <c:axId val="-222721744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14977,7 +14972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188000032"/>
+        <c:crossAx val="-13720336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14985,7 +14980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188000032"/>
+        <c:axId val="-13720336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15036,7 +15031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188010912"/>
+        <c:crossAx val="-222721744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15419,11 +15414,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1188008736"/>
-        <c:axId val="-1188002752"/>
+        <c:axId val="-13721424"/>
+        <c:axId val="-13718704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1188008736"/>
+        <c:axId val="-13721424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15459,7 +15454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188002752"/>
+        <c:crossAx val="-13718704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15467,7 +15462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188002752"/>
+        <c:axId val="-13718704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15571,7 +15566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188008736"/>
+        <c:crossAx val="-13721424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15903,11 +15898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1188004928"/>
-        <c:axId val="-1187997312"/>
+        <c:axId val="-13719248"/>
+        <c:axId val="-13715440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1188004928"/>
+        <c:axId val="-13719248"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -15943,7 +15938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187997312"/>
+        <c:crossAx val="-13715440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15951,7 +15946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1187997312"/>
+        <c:axId val="-13715440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16004,7 +15999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188004928"/>
+        <c:crossAx val="-13719248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16380,11 +16375,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1188001120"/>
-        <c:axId val="-1188008192"/>
+        <c:axId val="-13717616"/>
+        <c:axId val="-13717072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1188001120"/>
+        <c:axId val="-13717616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16420,7 +16415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188008192"/>
+        <c:crossAx val="-13717072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16428,7 +16423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188008192"/>
+        <c:axId val="-13717072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16541,7 +16536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188001120"/>
+        <c:crossAx val="-13717616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16862,11 +16857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="180"/>
-        <c:axId val="-1187997856"/>
-        <c:axId val="-1188004384"/>
+        <c:axId val="-12350864"/>
+        <c:axId val="-12347600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1187997856"/>
+        <c:axId val="-12350864"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -16902,7 +16897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188004384"/>
+        <c:crossAx val="-12347600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16910,7 +16905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188004384"/>
+        <c:axId val="-12347600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -16963,7 +16958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1187997856"/>
+        <c:crossAx val="-12350864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17339,11 +17334,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1188012000"/>
-        <c:axId val="-1188003840"/>
+        <c:axId val="-12345424"/>
+        <c:axId val="-12351952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1188012000"/>
+        <c:axId val="-12345424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17379,7 +17374,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188003840"/>
+        <c:crossAx val="-12351952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17387,7 +17382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1188003840"/>
+        <c:axId val="-12351952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -17500,7 +17495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1188012000"/>
+        <c:crossAx val="-12345424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33560,7 +33555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I405" sqref="I405"/>
     </sheetView>
   </sheetViews>
@@ -33570,16 +33565,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -33655,16 +33650,16 @@
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="56"/>
+      <c r="B22" s="57"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -33740,16 +33735,16 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="58"/>
+      <c r="B37" s="59"/>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -33852,20 +33847,20 @@
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="57" t="s">
+      <c r="A57" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="59"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="54" t="s">
+      <c r="B58" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="57"/>
     </row>
     <row r="59" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
@@ -33923,20 +33918,20 @@
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:4" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="58"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="59"/>
     </row>
     <row r="65" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="55"/>
-      <c r="D65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="57"/>
     </row>
     <row r="66" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
@@ -33994,39 +33989,39 @@
     </row>
     <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="73" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="34" t="s">
+      <c r="A73" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="36"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="48"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="50" t="s">
+      <c r="A74" s="49"/>
+      <c r="B74" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="51"/>
-      <c r="D74" s="31" t="s">
+      <c r="C74" s="52"/>
+      <c r="D74" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="31" t="s">
+      <c r="F74" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="31" t="s">
+      <c r="G74" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H74" s="31" t="s">
+      <c r="H74" s="40" t="s">
         <v>4</v>
       </c>
       <c r="I74" s="7" t="s">
@@ -34040,14 +34035,14 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="38"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
+      <c r="A75" s="50"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
       <c r="I75" s="8" t="s">
         <v>22</v>
       </c>
@@ -34066,11 +34061,11 @@
       <c r="C76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="10">
@@ -34445,39 +34440,39 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="34" t="s">
+      <c r="A132" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="35"/>
-      <c r="J132" s="35"/>
-      <c r="K132" s="36"/>
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="48"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="37"/>
-      <c r="B133" s="50" t="s">
+      <c r="A133" s="49"/>
+      <c r="B133" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="51"/>
-      <c r="D133" s="31" t="s">
+      <c r="C133" s="52"/>
+      <c r="D133" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E133" s="31" t="s">
+      <c r="E133" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F133" s="31" t="s">
+      <c r="F133" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G133" s="31" t="s">
+      <c r="G133" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H133" s="31" t="s">
+      <c r="H133" s="40" t="s">
         <v>4</v>
       </c>
       <c r="I133" s="7" t="s">
@@ -34491,14 +34486,14 @@
       </c>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="38"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
+      <c r="A134" s="50"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
       <c r="I134" s="8" t="s">
         <v>22</v>
       </c>
@@ -34517,11 +34512,11 @@
       <c r="C135" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="10">
@@ -34972,42 +34967,42 @@
     </row>
     <row r="217" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="218" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="34" t="s">
+      <c r="A218" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B218" s="35"/>
-      <c r="C218" s="35"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="35"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="35"/>
-      <c r="J218" s="35"/>
-      <c r="K218" s="36"/>
+      <c r="B218" s="47"/>
+      <c r="C218" s="47"/>
+      <c r="D218" s="47"/>
+      <c r="E218" s="47"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="47"/>
+      <c r="H218" s="47"/>
+      <c r="I218" s="47"/>
+      <c r="J218" s="47"/>
+      <c r="K218" s="48"/>
     </row>
     <row r="219" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="37"/>
-      <c r="B219" s="48" t="s">
+      <c r="A219" s="49"/>
+      <c r="B219" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C219" s="50" t="s">
+      <c r="C219" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D219" s="51"/>
-      <c r="E219" s="31" t="s">
+      <c r="D219" s="52"/>
+      <c r="E219" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F219" s="31" t="s">
+      <c r="F219" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G219" s="31" t="s">
+      <c r="G219" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H219" s="31" t="s">
+      <c r="H219" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I219" s="31" t="s">
+      <c r="I219" s="40" t="s">
         <v>4</v>
       </c>
       <c r="J219" s="24" t="s">
@@ -35019,26 +35014,26 @@
       <c r="L219" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M219" s="31" t="s">
+      <c r="M219" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N219" s="31" t="s">
+      <c r="N219" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O219" s="31" t="s">
+      <c r="O219" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="38"/>
-      <c r="B220" s="49"/>
-      <c r="C220" s="52"/>
-      <c r="D220" s="53"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="32"/>
-      <c r="I220" s="32"/>
+      <c r="A220" s="50"/>
+      <c r="B220" s="62"/>
+      <c r="C220" s="53"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="41"/>
+      <c r="F220" s="41"/>
+      <c r="G220" s="41"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="41"/>
       <c r="J220" s="25" t="s">
         <v>22</v>
       </c>
@@ -35048,9 +35043,9 @@
       <c r="L220" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M220" s="32"/>
-      <c r="N220" s="32"/>
-      <c r="O220" s="32"/>
+      <c r="M220" s="41"/>
+      <c r="N220" s="41"/>
+      <c r="O220" s="41"/>
     </row>
     <row r="221" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
@@ -35061,20 +35056,20 @@
       <c r="D221" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="33"/>
+      <c r="E221" s="42"/>
+      <c r="F221" s="42"/>
+      <c r="G221" s="42"/>
+      <c r="H221" s="42"/>
+      <c r="I221" s="42"/>
       <c r="J221" s="12"/>
       <c r="K221" s="12"/>
       <c r="L221" s="26">
         <v>1000000</v>
       </c>
-      <c r="M221" s="33"/>
-      <c r="N221" s="33"/>
-      <c r="O221" s="33"/>
-      <c r="P221" s="60" t="s">
+      <c r="M221" s="42"/>
+      <c r="N221" s="42"/>
+      <c r="O221" s="42"/>
+      <c r="P221" s="31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -35124,7 +35119,7 @@
       <c r="O222" s="11">
         <v>0.71</v>
       </c>
-      <c r="P222" s="60">
+      <c r="P222" s="31">
         <v>0.90600000000000003</v>
       </c>
     </row>
@@ -35174,7 +35169,7 @@
       <c r="O223" s="11">
         <v>0.76600000000000001</v>
       </c>
-      <c r="P223" s="61">
+      <c r="P223" s="32">
         <v>0.9</v>
       </c>
     </row>
@@ -35224,48 +35219,48 @@
       <c r="O224" s="11">
         <v>0.84199999999999997</v>
       </c>
-      <c r="P224" s="61">
+      <c r="P224" s="32">
         <v>0.92</v>
       </c>
     </row>
     <row r="226" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="227" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="34" t="s">
+      <c r="A227" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B227" s="35"/>
-      <c r="C227" s="35"/>
-      <c r="D227" s="35"/>
-      <c r="E227" s="35"/>
-      <c r="F227" s="35"/>
-      <c r="G227" s="35"/>
-      <c r="H227" s="35"/>
-      <c r="I227" s="35"/>
-      <c r="J227" s="35"/>
-      <c r="K227" s="36"/>
+      <c r="B227" s="47"/>
+      <c r="C227" s="47"/>
+      <c r="D227" s="47"/>
+      <c r="E227" s="47"/>
+      <c r="F227" s="47"/>
+      <c r="G227" s="47"/>
+      <c r="H227" s="47"/>
+      <c r="I227" s="47"/>
+      <c r="J227" s="47"/>
+      <c r="K227" s="48"/>
     </row>
     <row r="228" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="37"/>
-      <c r="B228" s="48" t="s">
+      <c r="A228" s="49"/>
+      <c r="B228" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C228" s="50" t="s">
+      <c r="C228" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D228" s="51"/>
-      <c r="E228" s="31" t="s">
+      <c r="D228" s="52"/>
+      <c r="E228" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F228" s="31" t="s">
+      <c r="F228" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G228" s="31" t="s">
+      <c r="G228" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="H228" s="31" t="s">
+      <c r="H228" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I228" s="31" t="s">
+      <c r="I228" s="40" t="s">
         <v>4</v>
       </c>
       <c r="J228" s="20" t="s">
@@ -35277,26 +35272,26 @@
       <c r="L228" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="M228" s="31" t="s">
+      <c r="M228" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N228" s="31" t="s">
+      <c r="N228" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O228" s="31" t="s">
+      <c r="O228" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="38"/>
-      <c r="B229" s="49"/>
-      <c r="C229" s="52"/>
-      <c r="D229" s="53"/>
-      <c r="E229" s="32"/>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="32"/>
-      <c r="I229" s="32"/>
+      <c r="A229" s="50"/>
+      <c r="B229" s="62"/>
+      <c r="C229" s="53"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="41"/>
+      <c r="F229" s="41"/>
+      <c r="G229" s="41"/>
+      <c r="H229" s="41"/>
+      <c r="I229" s="41"/>
       <c r="J229" s="21" t="s">
         <v>22</v>
       </c>
@@ -35306,9 +35301,9 @@
       <c r="L229" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="M229" s="32"/>
-      <c r="N229" s="32"/>
-      <c r="O229" s="32"/>
+      <c r="M229" s="41"/>
+      <c r="N229" s="41"/>
+      <c r="O229" s="41"/>
     </row>
     <row r="230" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
@@ -35319,179 +35314,179 @@
       <c r="D230" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="33"/>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42"/>
+      <c r="G230" s="42"/>
+      <c r="H230" s="42"/>
+      <c r="I230" s="42"/>
       <c r="J230" s="9"/>
       <c r="K230" s="9"/>
       <c r="L230" s="22">
         <v>1000000</v>
       </c>
-      <c r="M230" s="33"/>
-      <c r="N230" s="33"/>
-      <c r="O230" s="33"/>
-      <c r="P230" s="60" t="s">
+      <c r="M230" s="42"/>
+      <c r="N230" s="42"/>
+      <c r="O230" s="42"/>
+      <c r="P230" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="63" t="s">
+      <c r="A231" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="63">
+      <c r="B231" s="34">
         <v>0.89800000000000002</v>
       </c>
-      <c r="C231" s="64">
+      <c r="C231" s="35">
         <v>0.90538799999999997</v>
       </c>
-      <c r="D231" s="64">
+      <c r="D231" s="35">
         <v>0.86765499999999995</v>
       </c>
-      <c r="E231" s="64">
+      <c r="E231" s="35">
         <v>0.79294200000000004</v>
       </c>
-      <c r="F231" s="64">
+      <c r="F231" s="35">
         <v>0.89562600000000003</v>
       </c>
-      <c r="G231" s="64">
+      <c r="G231" s="35">
         <v>0.89299799999999996</v>
       </c>
-      <c r="H231" s="64">
+      <c r="H231" s="35">
         <v>0.89400000000000002</v>
       </c>
-      <c r="I231" s="64">
+      <c r="I231" s="35">
         <v>0.90407400000000004</v>
       </c>
-      <c r="J231" s="63">
+      <c r="J231" s="34">
         <v>0.89</v>
       </c>
-      <c r="K231" s="63">
+      <c r="K231" s="34">
         <v>0.89</v>
       </c>
-      <c r="L231" s="63">
+      <c r="L231" s="34">
         <v>0.89</v>
       </c>
-      <c r="M231" s="63">
+      <c r="M231" s="34">
         <v>0.84</v>
       </c>
-      <c r="N231" s="63">
+      <c r="N231" s="34">
         <v>0.88200000000000001</v>
       </c>
-      <c r="O231" s="63">
+      <c r="O231" s="34">
         <v>0.89400000000000002</v>
       </c>
-      <c r="P231" s="65">
+      <c r="P231" s="36">
         <v>0.90229999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="63" t="s">
+      <c r="A232" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B232" s="63">
+      <c r="B232" s="34">
         <v>0.876</v>
       </c>
-      <c r="C232" s="63">
+      <c r="C232" s="34">
         <v>0.88100000000000001</v>
       </c>
-      <c r="D232" s="63">
+      <c r="D232" s="34">
         <v>0.86</v>
       </c>
-      <c r="E232" s="63">
+      <c r="E232" s="34">
         <v>0.81299999999999994</v>
       </c>
-      <c r="F232" s="63">
+      <c r="F232" s="34">
         <v>0.874</v>
       </c>
-      <c r="G232" s="63">
+      <c r="G232" s="34">
         <v>0.873</v>
       </c>
-      <c r="H232" s="63">
+      <c r="H232" s="34">
         <v>0.873</v>
       </c>
-      <c r="I232" s="63">
+      <c r="I232" s="34">
         <v>0.88</v>
       </c>
-      <c r="J232" s="63">
+      <c r="J232" s="34">
         <v>0.87</v>
       </c>
-      <c r="K232" s="63">
+      <c r="K232" s="34">
         <v>0.87</v>
       </c>
-      <c r="L232" s="63">
+      <c r="L232" s="34">
         <v>0.86</v>
       </c>
-      <c r="M232" s="63">
+      <c r="M232" s="34">
         <v>0.84</v>
       </c>
-      <c r="N232" s="63">
+      <c r="N232" s="34">
         <v>0.86199999999999999</v>
       </c>
-      <c r="O232" s="63">
+      <c r="O232" s="34">
         <v>0.86899999999999999</v>
       </c>
-      <c r="P232" s="66">
+      <c r="P232" s="37">
         <v>0.9</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="63" t="s">
+      <c r="A233" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B233" s="63">
+      <c r="B233" s="34">
         <v>0.68700000000000006</v>
       </c>
-      <c r="C233" s="63">
+      <c r="C233" s="34">
         <v>0.63500000000000001</v>
       </c>
-      <c r="D233" s="63">
+      <c r="D233" s="34">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E233" s="63">
+      <c r="E233" s="34">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F233" s="63">
+      <c r="F233" s="34">
         <v>0.73099999999999998</v>
       </c>
-      <c r="G233" s="63">
+      <c r="G233" s="34">
         <v>0.70699999999999996</v>
       </c>
-      <c r="H233" s="63">
+      <c r="H233" s="34">
         <v>0.72399999999999998</v>
       </c>
-      <c r="I233" s="63">
+      <c r="I233" s="34">
         <v>0.71</v>
       </c>
-      <c r="J233" s="63">
+      <c r="J233" s="34">
         <v>0.6</v>
       </c>
-      <c r="K233" s="63">
+      <c r="K233" s="34">
         <v>0.6</v>
       </c>
-      <c r="L233" s="63">
+      <c r="L233" s="34">
         <v>0.6</v>
       </c>
-      <c r="M233" s="63">
+      <c r="M233" s="34">
         <v>0.60099999999999998</v>
       </c>
-      <c r="N233" s="63">
+      <c r="N233" s="34">
         <v>0.64300000000000002</v>
       </c>
-      <c r="O233" s="63">
+      <c r="O233" s="34">
         <v>0.65</v>
       </c>
-      <c r="P233" s="66">
+      <c r="P233" s="37">
         <v>0.75</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13"/>
-      <c r="B236" s="46" t="s">
+      <c r="B236" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C236" s="47"/>
+      <c r="C236" s="39"/>
     </row>
     <row r="237" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B237" s="14" t="s">
@@ -35508,10 +35503,10 @@
       <c r="A238" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B238" s="63">
+      <c r="B238" s="34">
         <v>0.88100000000000001</v>
       </c>
-      <c r="C238" s="64">
+      <c r="C238" s="35">
         <v>0.85499999999999998</v>
       </c>
       <c r="D238">
@@ -35522,10 +35517,10 @@
       <c r="A239" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B239" s="63">
+      <c r="B239" s="34">
         <v>0.86</v>
       </c>
-      <c r="C239" s="64">
+      <c r="C239" s="35">
         <v>0.86120000000000008</v>
       </c>
       <c r="D239" s="30">
@@ -35536,10 +35531,10 @@
       <c r="A240" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B240" s="63">
+      <c r="B240" s="34">
         <v>0.874</v>
       </c>
-      <c r="C240" s="64">
+      <c r="C240" s="35">
         <v>0.83660000000000001</v>
       </c>
       <c r="D240">
@@ -35550,10 +35545,10 @@
       <c r="A241" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B241" s="63">
+      <c r="B241" s="34">
         <v>0.873</v>
       </c>
-      <c r="C241" s="64">
+      <c r="C241" s="35">
         <v>0.79</v>
       </c>
       <c r="D241">
@@ -35564,10 +35559,10 @@
       <c r="A242" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B242" s="63">
+      <c r="B242" s="34">
         <v>0.873</v>
       </c>
-      <c r="C242" s="64">
+      <c r="C242" s="35">
         <v>0.80709999999999993</v>
       </c>
       <c r="D242">
@@ -35578,10 +35573,10 @@
       <c r="A243" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B243" s="63">
+      <c r="B243" s="34">
         <v>0.88</v>
       </c>
-      <c r="C243" s="64">
+      <c r="C243" s="35">
         <v>0.87769999999999992</v>
       </c>
       <c r="D243">
@@ -35592,11 +35587,11 @@
       <c r="A244" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B244" s="63">
+      <c r="B244" s="34">
         <f>B231</f>
         <v>0.89800000000000002</v>
       </c>
-      <c r="C244" s="63">
+      <c r="C244" s="34">
         <f>B222</f>
         <v>0.95</v>
       </c>
@@ -35605,10 +35600,10 @@
       <c r="A245" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B245" s="63">
+      <c r="B245" s="34">
         <v>0.81299999999999994</v>
       </c>
-      <c r="C245" s="64">
+      <c r="C245" s="35">
         <v>0.70840000000000003</v>
       </c>
     </row>
@@ -35616,10 +35611,10 @@
       <c r="A246" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B246" s="63">
+      <c r="B246" s="34">
         <v>0.89</v>
       </c>
-      <c r="C246" s="63">
+      <c r="C246" s="34">
         <v>0.88</v>
       </c>
     </row>
@@ -35627,10 +35622,10 @@
       <c r="A247" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B247" s="63">
+      <c r="B247" s="34">
         <v>0.89</v>
       </c>
-      <c r="C247" s="63">
+      <c r="C247" s="34">
         <v>0.88</v>
       </c>
     </row>
@@ -35638,10 +35633,10 @@
       <c r="A248" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B248" s="63">
+      <c r="B248" s="34">
         <v>0.89</v>
       </c>
-      <c r="C248" s="63">
+      <c r="C248" s="34">
         <v>0.88</v>
       </c>
     </row>
@@ -35649,10 +35644,10 @@
       <c r="A249" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B249" s="63">
+      <c r="B249" s="34">
         <v>0.84</v>
       </c>
-      <c r="C249" s="63">
+      <c r="C249" s="34">
         <f>M222</f>
         <v>0.89400000000000002</v>
       </c>
@@ -35661,10 +35656,10 @@
       <c r="A250" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B250" s="63">
+      <c r="B250" s="34">
         <v>0.86199999999999999</v>
       </c>
-      <c r="C250" s="63">
+      <c r="C250" s="34">
         <f>N222</f>
         <v>0.75800000000000001</v>
       </c>
@@ -35673,22 +35668,22 @@
       <c r="A251" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B251" s="63">
+      <c r="B251" s="34">
         <v>0.86899999999999999</v>
       </c>
-      <c r="C251" s="63">
+      <c r="C251" s="34">
         <f>O222</f>
         <v>0.71</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" s="60" t="s">
+      <c r="A252" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B252" s="65">
+      <c r="B252" s="36">
         <v>0.90229999999999999</v>
       </c>
-      <c r="C252" s="66">
+      <c r="C252" s="37">
         <v>0.90600000000000003</v>
       </c>
     </row>
@@ -35696,10 +35691,10 @@
       <c r="A259" s="13"/>
     </row>
     <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="46" t="s">
+      <c r="B264" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C264" s="47"/>
+      <c r="C264" s="39"/>
     </row>
     <row r="265" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B265" s="14" t="s">
@@ -35887,13 +35882,13 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" s="60" t="s">
+      <c r="A280" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B280" s="62">
+      <c r="B280" s="33">
         <v>0.9</v>
       </c>
-      <c r="C280" s="61">
+      <c r="C280" s="32">
         <v>0.9</v>
       </c>
     </row>
@@ -35901,10 +35896,10 @@
       <c r="A289" s="13"/>
     </row>
     <row r="296" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="46" t="s">
+      <c r="B296" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C296" s="47"/>
+      <c r="C296" s="39"/>
     </row>
     <row r="297" spans="1:4" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B297" s="14" t="s">
@@ -36092,58 +36087,58 @@
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A312" s="60" t="s">
+      <c r="A312" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B312" s="62">
+      <c r="B312" s="33">
         <v>0.75</v>
       </c>
-      <c r="C312" s="61">
+      <c r="C312" s="32">
         <v>0.92</v>
       </c>
     </row>
     <row r="323" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="324" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="34" t="s">
+      <c r="A324" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B324" s="35"/>
-      <c r="C324" s="35"/>
-      <c r="D324" s="35"/>
-      <c r="E324" s="35"/>
-      <c r="F324" s="35"/>
-      <c r="G324" s="35"/>
-      <c r="H324" s="35"/>
-      <c r="I324" s="35"/>
-      <c r="J324" s="35"/>
-      <c r="K324" s="35"/>
-      <c r="L324" s="35"/>
-      <c r="M324" s="35"/>
-      <c r="N324" s="35"/>
-      <c r="O324" s="36"/>
+      <c r="B324" s="47"/>
+      <c r="C324" s="47"/>
+      <c r="D324" s="47"/>
+      <c r="E324" s="47"/>
+      <c r="F324" s="47"/>
+      <c r="G324" s="47"/>
+      <c r="H324" s="47"/>
+      <c r="I324" s="47"/>
+      <c r="J324" s="47"/>
+      <c r="K324" s="47"/>
+      <c r="L324" s="47"/>
+      <c r="M324" s="47"/>
+      <c r="N324" s="47"/>
+      <c r="O324" s="48"/>
     </row>
     <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="37"/>
-      <c r="B325" s="39" t="s">
+      <c r="A325" s="49"/>
+      <c r="B325" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C325" s="41" t="s">
+      <c r="C325" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D325" s="42"/>
-      <c r="E325" s="39" t="s">
+      <c r="D325" s="64"/>
+      <c r="E325" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F325" s="39" t="s">
+      <c r="F325" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G325" s="39" t="s">
+      <c r="G325" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H325" s="39" t="s">
+      <c r="H325" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I325" s="39" t="s">
+      <c r="I325" s="43" t="s">
         <v>4</v>
       </c>
       <c r="J325" s="24" t="s">
@@ -36155,26 +36150,26 @@
       <c r="L325" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M325" s="31" t="s">
+      <c r="M325" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N325" s="31" t="s">
+      <c r="N325" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O325" s="31" t="s">
+      <c r="O325" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:15" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="38"/>
-      <c r="B326" s="40"/>
-      <c r="C326" s="43"/>
-      <c r="D326" s="44"/>
-      <c r="E326" s="45"/>
-      <c r="F326" s="45"/>
-      <c r="G326" s="45"/>
-      <c r="H326" s="45"/>
-      <c r="I326" s="45"/>
+      <c r="A326" s="50"/>
+      <c r="B326" s="45"/>
+      <c r="C326" s="65"/>
+      <c r="D326" s="66"/>
+      <c r="E326" s="44"/>
+      <c r="F326" s="44"/>
+      <c r="G326" s="44"/>
+      <c r="H326" s="44"/>
+      <c r="I326" s="44"/>
       <c r="J326" s="25" t="s">
         <v>22</v>
       </c>
@@ -36184,9 +36179,9 @@
       <c r="L326" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M326" s="32"/>
-      <c r="N326" s="32"/>
-      <c r="O326" s="32"/>
+      <c r="M326" s="41"/>
+      <c r="N326" s="41"/>
+      <c r="O326" s="41"/>
     </row>
     <row r="327" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="1"/>
@@ -36197,19 +36192,19 @@
       <c r="D327" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E327" s="40"/>
-      <c r="F327" s="40"/>
-      <c r="G327" s="40"/>
-      <c r="H327" s="40"/>
-      <c r="I327" s="40"/>
+      <c r="E327" s="45"/>
+      <c r="F327" s="45"/>
+      <c r="G327" s="45"/>
+      <c r="H327" s="45"/>
+      <c r="I327" s="45"/>
       <c r="J327" s="12"/>
       <c r="K327" s="12"/>
       <c r="L327" s="26">
         <v>1000000</v>
       </c>
-      <c r="M327" s="33"/>
-      <c r="N327" s="33"/>
-      <c r="O327" s="33"/>
+      <c r="M327" s="42"/>
+      <c r="N327" s="42"/>
+      <c r="O327" s="42"/>
     </row>
     <row r="328" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="23" t="s">
@@ -36359,43 +36354,43 @@
       <c r="A332" s="28"/>
     </row>
     <row r="333" spans="1:15" s="27" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="34" t="s">
+      <c r="A333" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B333" s="35"/>
-      <c r="C333" s="35"/>
-      <c r="D333" s="35"/>
-      <c r="E333" s="35"/>
-      <c r="F333" s="35"/>
-      <c r="G333" s="35"/>
-      <c r="H333" s="35"/>
-      <c r="I333" s="35"/>
-      <c r="J333" s="35"/>
-      <c r="K333" s="35"/>
-      <c r="L333" s="35"/>
-      <c r="M333" s="35"/>
-      <c r="N333" s="35"/>
-      <c r="O333" s="36"/>
+      <c r="B333" s="47"/>
+      <c r="C333" s="47"/>
+      <c r="D333" s="47"/>
+      <c r="E333" s="47"/>
+      <c r="F333" s="47"/>
+      <c r="G333" s="47"/>
+      <c r="H333" s="47"/>
+      <c r="I333" s="47"/>
+      <c r="J333" s="47"/>
+      <c r="K333" s="47"/>
+      <c r="L333" s="47"/>
+      <c r="M333" s="47"/>
+      <c r="N333" s="47"/>
+      <c r="O333" s="48"/>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A334" s="37"/>
-      <c r="B334" s="39" t="s">
+      <c r="A334" s="49"/>
+      <c r="B334" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C334" s="41" t="s">
+      <c r="C334" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D334" s="42"/>
-      <c r="E334" s="39" t="s">
+      <c r="D334" s="64"/>
+      <c r="E334" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F334" s="39" t="s">
+      <c r="F334" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G334" s="39" t="s">
+      <c r="G334" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="H334" s="39" t="s">
+      <c r="H334" s="43" t="s">
         <v>32</v>
       </c>
       <c r="I334" s="24" t="s">
@@ -36410,25 +36405,25 @@
       <c r="L334" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M334" s="31" t="s">
+      <c r="M334" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N334" s="31" t="s">
+      <c r="N334" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O334" s="31" t="s">
+      <c r="O334" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="38"/>
-      <c r="B335" s="40"/>
-      <c r="C335" s="43"/>
-      <c r="D335" s="44"/>
-      <c r="E335" s="45"/>
-      <c r="F335" s="45"/>
-      <c r="G335" s="45"/>
-      <c r="H335" s="45"/>
+      <c r="A335" s="50"/>
+      <c r="B335" s="45"/>
+      <c r="C335" s="65"/>
+      <c r="D335" s="66"/>
+      <c r="E335" s="44"/>
+      <c r="F335" s="44"/>
+      <c r="G335" s="44"/>
+      <c r="H335" s="44"/>
       <c r="I335" s="25" t="s">
         <v>41</v>
       </c>
@@ -36441,9 +36436,9 @@
       <c r="L335" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M335" s="32"/>
-      <c r="N335" s="32"/>
-      <c r="O335" s="32"/>
+      <c r="M335" s="41"/>
+      <c r="N335" s="41"/>
+      <c r="O335" s="41"/>
     </row>
     <row r="336" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="1"/>
@@ -36454,19 +36449,19 @@
       <c r="D336" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E336" s="40"/>
-      <c r="F336" s="40"/>
-      <c r="G336" s="40"/>
-      <c r="H336" s="40"/>
+      <c r="E336" s="45"/>
+      <c r="F336" s="45"/>
+      <c r="G336" s="45"/>
+      <c r="H336" s="45"/>
       <c r="I336" s="12"/>
       <c r="J336" s="12"/>
       <c r="K336" s="12"/>
       <c r="L336" s="26">
         <v>1000000</v>
       </c>
-      <c r="M336" s="33"/>
-      <c r="N336" s="33"/>
-      <c r="O336" s="33"/>
+      <c r="M336" s="42"/>
+      <c r="N336" s="42"/>
+      <c r="O336" s="42"/>
     </row>
     <row r="337" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="23" t="s">
@@ -36613,10 +36608,10 @@
       <c r="A344" s="13"/>
     </row>
     <row r="348" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B348" s="46" t="s">
+      <c r="B348" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C348" s="47"/>
+      <c r="C348" s="39"/>
     </row>
     <row r="349" spans="1:15" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B349" s="14" t="s">
@@ -37238,65 +37233,7 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="N228:N230"/>
-    <mergeCell ref="M228:M230"/>
-    <mergeCell ref="M219:M221"/>
-    <mergeCell ref="N219:N221"/>
-    <mergeCell ref="I325:I327"/>
-    <mergeCell ref="M325:M327"/>
-    <mergeCell ref="N325:N327"/>
-    <mergeCell ref="A218:K218"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="C219:D220"/>
-    <mergeCell ref="E219:E221"/>
-    <mergeCell ref="F219:F221"/>
-    <mergeCell ref="G219:G221"/>
-    <mergeCell ref="H219:H221"/>
-    <mergeCell ref="I219:I221"/>
-    <mergeCell ref="A132:K132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="B133:C134"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="H133:H135"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="A73:K73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="A324:O324"/>
-    <mergeCell ref="O228:O230"/>
-    <mergeCell ref="A227:K227"/>
-    <mergeCell ref="B228:B229"/>
-    <mergeCell ref="C228:D229"/>
-    <mergeCell ref="O219:O221"/>
-    <mergeCell ref="E228:E230"/>
-    <mergeCell ref="F228:F230"/>
-    <mergeCell ref="G228:G230"/>
-    <mergeCell ref="H228:H230"/>
-    <mergeCell ref="I228:I230"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="C325:D326"/>
-    <mergeCell ref="E325:E327"/>
-    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="A325:A326"/>
     <mergeCell ref="A228:A229"/>
     <mergeCell ref="B264:C264"/>
     <mergeCell ref="O325:O327"/>
@@ -37313,8 +37250,66 @@
     <mergeCell ref="O334:O336"/>
     <mergeCell ref="F325:F327"/>
     <mergeCell ref="G325:G327"/>
+    <mergeCell ref="F228:F230"/>
+    <mergeCell ref="G228:G230"/>
+    <mergeCell ref="H228:H230"/>
+    <mergeCell ref="I228:I230"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="C325:D326"/>
+    <mergeCell ref="E325:E327"/>
+    <mergeCell ref="B236:C236"/>
     <mergeCell ref="H325:H327"/>
-    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="A73:K73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="A132:K132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B133:C134"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="A218:K218"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="E219:E221"/>
+    <mergeCell ref="F219:F221"/>
+    <mergeCell ref="G219:G221"/>
+    <mergeCell ref="H219:H221"/>
+    <mergeCell ref="I219:I221"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="N228:N230"/>
+    <mergeCell ref="M228:M230"/>
+    <mergeCell ref="M219:M221"/>
+    <mergeCell ref="N219:N221"/>
+    <mergeCell ref="I325:I327"/>
+    <mergeCell ref="M325:M327"/>
+    <mergeCell ref="N325:N327"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="A324:O324"/>
+    <mergeCell ref="O228:O230"/>
+    <mergeCell ref="A227:K227"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="C228:D229"/>
+    <mergeCell ref="O219:O221"/>
+    <mergeCell ref="E228:E230"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="heading=h.h69w8k3iqw4q" display="https://docs.google.com/document/d/1l9Iahuec6FXi__EhBkrqhvM6buHQK5Idp061pwiyufY/edit?ts=565bdec3 - heading=h.h69w8k3iqw4q"/>
